--- a/database/industries/siman/sekhouz/cost/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/cost/quarterly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="78">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -31,6 +31,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
   </si>
   <si>
     <t>فصل دوم منتهی به 1400/06</t>
@@ -659,16 +674,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I116"/>
+  <dimension ref="B1:N116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -677,8 +692,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,8 +709,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,8 +726,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -711,8 +741,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -723,8 +758,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -735,8 +775,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -745,8 +790,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -767,8 +817,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -777,98 +842,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>137771</v>
+      </c>
+      <c r="F10" s="9">
+        <v>160686</v>
+      </c>
+      <c r="G10" s="9">
+        <v>225040</v>
+      </c>
+      <c r="H10" s="9">
+        <v>405360</v>
+      </c>
+      <c r="I10" s="9">
+        <v>239995</v>
+      </c>
+      <c r="J10" s="9">
         <v>386708</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>552333</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>473251</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>495437</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>571475</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>20083</v>
+      </c>
+      <c r="F11" s="11">
+        <v>21561</v>
+      </c>
+      <c r="G11" s="11">
+        <v>12799</v>
+      </c>
+      <c r="H11" s="11">
+        <v>29841</v>
+      </c>
+      <c r="I11" s="11">
+        <v>22142</v>
+      </c>
+      <c r="J11" s="11">
         <v>17155</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>34266</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>4535</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>32044</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>50788</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>530500</v>
+      </c>
+      <c r="F12" s="9">
+        <v>715682</v>
+      </c>
+      <c r="G12" s="9">
+        <v>665562</v>
+      </c>
+      <c r="H12" s="9">
+        <v>809473</v>
+      </c>
+      <c r="I12" s="9">
+        <v>766156</v>
+      </c>
+      <c r="J12" s="9">
         <v>1028585</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>1114290</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>1612135</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>1369546</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>1523940</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>688354</v>
+      </c>
+      <c r="F13" s="13">
+        <v>897929</v>
+      </c>
+      <c r="G13" s="13">
+        <v>903401</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1244674</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1028293</v>
+      </c>
+      <c r="J13" s="13">
         <v>1432448</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>1700889</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>2089921</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1897027</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>2146203</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -887,54 +1017,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>688354</v>
+      </c>
+      <c r="F15" s="13">
+        <v>897929</v>
+      </c>
+      <c r="G15" s="13">
+        <v>903401</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1244674</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1028293</v>
+      </c>
+      <c r="J15" s="13">
         <v>1432448</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>1700889</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>2089921</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>1897027</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>2146203</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-20577</v>
+      </c>
+      <c r="F16" s="9">
+        <v>49719</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-14734</v>
+      </c>
+      <c r="H16" s="9">
+        <v>61660</v>
+      </c>
+      <c r="I16" s="9">
+        <v>31154</v>
+      </c>
+      <c r="J16" s="9">
         <v>-125676</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>32862</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>50080</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-69201</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-26757</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -953,37 +1128,67 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>667777</v>
+      </c>
+      <c r="F18" s="15">
+        <v>947648</v>
+      </c>
+      <c r="G18" s="15">
+        <v>888667</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1306334</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1059447</v>
+      </c>
+      <c r="J18" s="15">
         <v>1306772</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>1733751</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>2140001</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>1827826</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>2119446</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>18913</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
@@ -992,59 +1197,104 @@
         <v>0</v>
       </c>
       <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>39509</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
         <v>70728</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-33808</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-3293</v>
+      </c>
+      <c r="G20" s="9">
+        <v>15151</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-17559</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-34283</v>
+      </c>
+      <c r="J20" s="9">
         <v>-25412</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>37745</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-48778</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-70451</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-48602</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>652882</v>
+      </c>
+      <c r="F21" s="13">
+        <v>944355</v>
+      </c>
+      <c r="G21" s="13">
+        <v>903818</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1288775</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1064673</v>
+      </c>
+      <c r="J21" s="13">
         <v>1281360</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>1771496</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>2091223</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1828103</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>2070844</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1063,30 +1313,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>652882</v>
+      </c>
+      <c r="F23" s="13">
+        <v>944355</v>
+      </c>
+      <c r="G23" s="13">
+        <v>903818</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1288775</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1064673</v>
+      </c>
+      <c r="J23" s="13">
         <v>1281360</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>1771496</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>2091223</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1828103</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>2070844</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1095,8 +1375,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1105,8 +1390,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1115,10 +1405,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1137,8 +1432,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1147,13 +1457,18 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
@@ -1162,8 +1477,8 @@
       <c r="F29" s="9">
         <v>187</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>26</v>
+      <c r="G29" s="9">
+        <v>187</v>
       </c>
       <c r="H29" s="9">
         <v>187</v>
@@ -1171,222 +1486,372 @@
       <c r="I29" s="9">
         <v>187</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="9">
+        <v>187</v>
+      </c>
+      <c r="K29" s="9">
+        <v>187</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9">
+        <v>187</v>
+      </c>
+      <c r="N29" s="9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>828921</v>
+      </c>
+      <c r="F30" s="11">
+        <v>906662</v>
+      </c>
+      <c r="G30" s="11">
+        <v>732825</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1179021</v>
+      </c>
+      <c r="I30" s="11">
+        <v>333470</v>
+      </c>
+      <c r="J30" s="11">
         <v>266746</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>447565</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="L30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="11">
         <v>353808</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>557957</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>6393</v>
+      </c>
+      <c r="F31" s="9">
+        <v>65135</v>
+      </c>
+      <c r="G31" s="9">
+        <v>63903</v>
+      </c>
+      <c r="H31" s="9">
+        <v>58311</v>
+      </c>
+      <c r="I31" s="9">
+        <v>54475</v>
+      </c>
+      <c r="J31" s="9">
         <v>52933</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>52847</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="L31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="9">
         <v>52888</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>52888</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>29900</v>
+      </c>
+      <c r="F32" s="11">
+        <v>30332</v>
+      </c>
+      <c r="G32" s="11">
+        <v>17134</v>
+      </c>
+      <c r="H32" s="11">
+        <v>22844</v>
+      </c>
+      <c r="I32" s="11">
+        <v>20284</v>
+      </c>
+      <c r="J32" s="11">
         <v>18818</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>14812</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="11">
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="11">
         <v>7286</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>29447</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>77997</v>
+      </c>
+      <c r="F33" s="9">
+        <v>100859</v>
+      </c>
+      <c r="G33" s="9">
+        <v>90451</v>
+      </c>
+      <c r="H33" s="9">
+        <v>62369</v>
+      </c>
+      <c r="I33" s="9">
+        <v>39344</v>
+      </c>
+      <c r="J33" s="9">
         <v>30474</v>
       </c>
-      <c r="F33" s="9">
+      <c r="K33" s="9">
         <v>33311</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="9">
+      <c r="L33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="9">
         <v>13173</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>13173</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>696533</v>
+      </c>
+      <c r="F34" s="11">
+        <v>3122963</v>
+      </c>
+      <c r="G34" s="11">
+        <v>515063</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1572040</v>
+      </c>
+      <c r="I34" s="11">
+        <v>6038036</v>
+      </c>
+      <c r="J34" s="11">
         <v>3415490</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>1820100</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="11">
+      <c r="L34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="11">
         <v>13778486</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>11073986</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>20904</v>
+      </c>
+      <c r="F35" s="9">
+        <v>44885</v>
+      </c>
+      <c r="G35" s="9">
+        <v>35003</v>
+      </c>
+      <c r="H35" s="9">
+        <v>23566</v>
+      </c>
+      <c r="I35" s="9">
+        <v>18479</v>
+      </c>
+      <c r="J35" s="9">
         <v>21308</v>
       </c>
-      <c r="F35" s="9">
+      <c r="K35" s="9">
         <v>52813</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="9">
+      <c r="L35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="9">
         <v>51735</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>30649</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
+        <v>235</v>
+      </c>
+      <c r="F37" s="9">
+        <v>235</v>
+      </c>
+      <c r="G37" s="9">
+        <v>235</v>
+      </c>
+      <c r="H37" s="9">
+        <v>4861</v>
+      </c>
+      <c r="I37" s="9">
+        <v>5412</v>
+      </c>
+      <c r="J37" s="9">
         <v>4611</v>
       </c>
-      <c r="F37" s="9">
+      <c r="K37" s="9">
         <v>298</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="9">
+      <c r="L37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="9">
         <v>8898</v>
       </c>
-      <c r="I37" s="9">
+      <c r="N37" s="9">
         <v>1706</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
+        <v>1661070</v>
+      </c>
+      <c r="F38" s="13">
+        <v>4271258</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1454801</v>
+      </c>
+      <c r="H38" s="13">
+        <v>2923199</v>
+      </c>
+      <c r="I38" s="13">
+        <v>6509687</v>
+      </c>
+      <c r="J38" s="13">
         <v>3810567</v>
       </c>
-      <c r="F38" s="13">
+      <c r="K38" s="13">
         <v>2421933</v>
       </c>
-      <c r="G38" s="13">
-        <v>0</v>
-      </c>
-      <c r="H38" s="13">
+      <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="M38" s="13">
         <v>14266461</v>
       </c>
-      <c r="I38" s="13">
+      <c r="N38" s="13">
         <v>11759993</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1395,8 +1860,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1405,8 +1875,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1415,10 +1890,15 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1437,8 +1917,23 @@
       <c r="I42" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1447,13 +1942,18 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
@@ -1471,222 +1971,372 @@
       <c r="I44" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="9">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>537775</v>
+      </c>
+      <c r="F45" s="11">
+        <v>813143</v>
+      </c>
+      <c r="G45" s="11">
+        <v>864142</v>
+      </c>
+      <c r="H45" s="11">
+        <v>885412</v>
+      </c>
+      <c r="I45" s="11">
+        <v>889395</v>
+      </c>
+      <c r="J45" s="11">
         <v>902823</v>
       </c>
-      <c r="F45" s="11">
+      <c r="K45" s="11">
         <v>1030150</v>
       </c>
-      <c r="G45" s="11">
+      <c r="L45" s="11">
         <v>1177857</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>1142028</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>1345042</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>0</v>
+        <v>96343</v>
       </c>
       <c r="F46" s="9">
-        <v>0</v>
+        <v>3246</v>
       </c>
       <c r="G46" s="9">
+        <v>686</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9">
         <v>675</v>
       </c>
-      <c r="H46" s="9">
-        <v>0</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M46" s="9">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>18020</v>
+      </c>
+      <c r="F47" s="11">
+        <v>11273</v>
+      </c>
+      <c r="G47" s="11">
+        <v>25278</v>
+      </c>
+      <c r="H47" s="11">
+        <v>17733</v>
+      </c>
+      <c r="I47" s="11">
+        <v>11613</v>
+      </c>
+      <c r="J47" s="11">
         <v>9557</v>
       </c>
-      <c r="F47" s="11">
+      <c r="K47" s="11">
         <v>8845</v>
       </c>
-      <c r="G47" s="11">
+      <c r="L47" s="11">
         <v>17963</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M47" s="11">
         <v>37671</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>30779</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
+        <v>142002</v>
+      </c>
+      <c r="F48" s="9">
+        <v>19907</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1503</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+      <c r="J48" s="9">
         <v>3132</v>
       </c>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
         <v>636</v>
       </c>
-      <c r="H48" s="9">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M48" s="9">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>6051890</v>
+      </c>
+      <c r="F49" s="11">
+        <v>1243800</v>
+      </c>
+      <c r="G49" s="11">
+        <v>5590280</v>
+      </c>
+      <c r="H49" s="11">
+        <v>7653968</v>
+      </c>
+      <c r="I49" s="11">
+        <v>670430</v>
+      </c>
+      <c r="J49" s="11">
         <v>1294140</v>
       </c>
-      <c r="F49" s="11">
+      <c r="K49" s="11">
         <v>5292060</v>
       </c>
-      <c r="G49" s="11">
+      <c r="L49" s="11">
         <v>14247000</v>
       </c>
-      <c r="H49" s="11">
+      <c r="M49" s="11">
         <v>758300</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>2014060</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>43349</v>
+      </c>
+      <c r="F50" s="9">
+        <v>12518</v>
+      </c>
+      <c r="G50" s="9">
+        <v>8174</v>
+      </c>
+      <c r="H50" s="9">
+        <v>17035</v>
+      </c>
+      <c r="I50" s="9">
+        <v>19843</v>
+      </c>
+      <c r="J50" s="9">
         <v>44381</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>44879</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>796</v>
       </c>
-      <c r="H50" s="9">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9">
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9">
         <v>23334</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9">
+        <v>4626</v>
+      </c>
+      <c r="H52" s="9">
+        <v>5510</v>
+      </c>
+      <c r="I52" s="9">
+        <v>14589</v>
+      </c>
+      <c r="J52" s="9">
         <v>4875</v>
       </c>
-      <c r="F52" s="9">
+      <c r="K52" s="9">
         <v>11659</v>
       </c>
-      <c r="G52" s="9">
+      <c r="L52" s="9">
         <v>11437</v>
       </c>
-      <c r="H52" s="9">
+      <c r="M52" s="9">
         <v>1717</v>
       </c>
-      <c r="I52" s="9">
+      <c r="N52" s="9">
         <v>4983</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
+        <v>6889379</v>
+      </c>
+      <c r="F53" s="13">
+        <v>2103887</v>
+      </c>
+      <c r="G53" s="13">
+        <v>6494689</v>
+      </c>
+      <c r="H53" s="13">
+        <v>8579658</v>
+      </c>
+      <c r="I53" s="13">
+        <v>1605870</v>
+      </c>
+      <c r="J53" s="13">
         <v>2258908</v>
       </c>
-      <c r="F53" s="13">
+      <c r="K53" s="13">
         <v>6387593</v>
       </c>
-      <c r="G53" s="13">
+      <c r="L53" s="13">
         <v>15456364</v>
       </c>
-      <c r="H53" s="13">
+      <c r="M53" s="13">
         <v>1939716</v>
       </c>
-      <c r="I53" s="13">
+      <c r="N53" s="13">
         <v>3418198</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1695,8 +2345,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1705,8 +2360,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1715,10 +2375,15 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1737,8 +2402,23 @@
       <c r="I57" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1747,13 +2427,18 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
@@ -1771,222 +2456,372 @@
       <c r="I59" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="9">
+        <v>0</v>
+      </c>
+      <c r="K59" s="9">
+        <v>0</v>
+      </c>
+      <c r="L59" s="9">
+        <v>0</v>
+      </c>
+      <c r="M59" s="9">
+        <v>0</v>
+      </c>
+      <c r="N59" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>460034</v>
+      </c>
+      <c r="F60" s="11">
+        <v>986980</v>
+      </c>
+      <c r="G60" s="11">
+        <v>417946</v>
+      </c>
+      <c r="H60" s="11">
+        <v>1730963</v>
+      </c>
+      <c r="I60" s="11">
+        <v>956119</v>
+      </c>
+      <c r="J60" s="11">
         <v>722004</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>1042781</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>1258983</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>937879</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>880396</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
+        <v>37601</v>
+      </c>
+      <c r="F61" s="9">
+        <v>4478</v>
+      </c>
+      <c r="G61" s="9">
+        <v>6278</v>
+      </c>
+      <c r="H61" s="9">
+        <v>3756</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1542</v>
+      </c>
+      <c r="J61" s="9">
         <v>86</v>
       </c>
-      <c r="F61" s="9">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
+      <c r="K61" s="9">
+        <v>0</v>
+      </c>
+      <c r="L61" s="9">
         <v>634</v>
       </c>
-      <c r="H61" s="9">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9">
+      <c r="M61" s="9">
+        <v>0</v>
+      </c>
+      <c r="N61" s="9">
         <v>2930</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
+        <v>17588</v>
+      </c>
+      <c r="F62" s="11">
+        <v>24471</v>
+      </c>
+      <c r="G62" s="11">
+        <v>19568</v>
+      </c>
+      <c r="H62" s="11">
+        <v>18697</v>
+      </c>
+      <c r="I62" s="11">
+        <v>13079</v>
+      </c>
+      <c r="J62" s="11">
         <v>13563</v>
       </c>
-      <c r="F62" s="11">
+      <c r="K62" s="11">
         <v>18300</v>
       </c>
-      <c r="G62" s="11">
+      <c r="L62" s="11">
         <v>16034</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>15510</v>
       </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>18105</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
+        <v>119140</v>
+      </c>
+      <c r="F63" s="9">
+        <v>30315</v>
+      </c>
+      <c r="G63" s="9">
+        <v>29585</v>
+      </c>
+      <c r="H63" s="9">
+        <v>23026</v>
+      </c>
+      <c r="I63" s="9">
+        <v>8870</v>
+      </c>
+      <c r="J63" s="9">
         <v>295</v>
       </c>
-      <c r="F63" s="9">
-        <v>0</v>
-      </c>
-      <c r="G63" s="9">
+      <c r="K63" s="9">
+        <v>0</v>
+      </c>
+      <c r="L63" s="9">
         <v>20774</v>
       </c>
-      <c r="H63" s="9">
-        <v>0</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M63" s="9">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>3625460</v>
+      </c>
+      <c r="F64" s="11">
+        <v>3851700</v>
+      </c>
+      <c r="G64" s="11">
+        <v>4533303</v>
+      </c>
+      <c r="H64" s="11">
+        <v>3435071</v>
+      </c>
+      <c r="I64" s="11">
+        <v>3292976</v>
+      </c>
+      <c r="J64" s="11">
         <v>2889530</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>4251670</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>3329004</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>3462800</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>3427060</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>19368</v>
+      </c>
+      <c r="F65" s="9">
+        <v>22400</v>
+      </c>
+      <c r="G65" s="9">
+        <v>19611</v>
+      </c>
+      <c r="H65" s="9">
+        <v>22117</v>
+      </c>
+      <c r="I65" s="9">
+        <v>17014</v>
+      </c>
+      <c r="J65" s="9">
         <v>12876</v>
       </c>
-      <c r="F65" s="9">
+      <c r="K65" s="9">
         <v>23863</v>
       </c>
-      <c r="G65" s="9">
+      <c r="L65" s="9">
         <v>22890</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>21086</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>23125</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>4959</v>
+      </c>
+      <c r="I67" s="9">
+        <v>15390</v>
+      </c>
+      <c r="J67" s="9">
         <v>9188</v>
       </c>
-      <c r="F67" s="9">
+      <c r="K67" s="9">
         <v>11088</v>
       </c>
-      <c r="G67" s="9">
+      <c r="L67" s="9">
         <v>3408</v>
       </c>
-      <c r="H67" s="9">
+      <c r="M67" s="9">
         <v>8909</v>
       </c>
-      <c r="I67" s="9">
+      <c r="N67" s="9">
         <v>6680</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
+        <v>4279191</v>
+      </c>
+      <c r="F68" s="13">
+        <v>4920344</v>
+      </c>
+      <c r="G68" s="13">
+        <v>5026291</v>
+      </c>
+      <c r="H68" s="13">
+        <v>5238589</v>
+      </c>
+      <c r="I68" s="13">
+        <v>4304990</v>
+      </c>
+      <c r="J68" s="13">
         <v>3647542</v>
       </c>
-      <c r="F68" s="13">
+      <c r="K68" s="13">
         <v>5347702</v>
       </c>
-      <c r="G68" s="13">
+      <c r="L68" s="13">
         <v>4651727</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>4446184</v>
       </c>
-      <c r="I68" s="13">
+      <c r="N68" s="13">
         <v>4358296</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1995,8 +2830,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2005,8 +2845,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2015,10 +2860,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2037,8 +2887,23 @@
       <c r="I72" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2047,13 +2912,18 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
@@ -2071,222 +2941,372 @@
       <c r="I74" s="9">
         <v>187</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="9">
+        <v>187</v>
+      </c>
+      <c r="K74" s="9">
+        <v>187</v>
+      </c>
+      <c r="L74" s="9">
+        <v>187</v>
+      </c>
+      <c r="M74" s="9">
+        <v>187</v>
+      </c>
+      <c r="N74" s="9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>906662</v>
+      </c>
+      <c r="F75" s="11">
+        <v>732825</v>
+      </c>
+      <c r="G75" s="11">
+        <v>1179021</v>
+      </c>
+      <c r="H75" s="11">
+        <v>333470</v>
+      </c>
+      <c r="I75" s="11">
+        <v>266746</v>
+      </c>
+      <c r="J75" s="11">
         <v>447565</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>434934</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>353808</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>557957</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>1022603</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
+        <v>65135</v>
+      </c>
+      <c r="F76" s="9">
+        <v>63903</v>
+      </c>
+      <c r="G76" s="9">
+        <v>58311</v>
+      </c>
+      <c r="H76" s="9">
+        <v>54555</v>
+      </c>
+      <c r="I76" s="9">
+        <v>52933</v>
+      </c>
+      <c r="J76" s="9">
         <v>52847</v>
       </c>
-      <c r="F76" s="9">
+      <c r="K76" s="9">
         <v>52847</v>
       </c>
-      <c r="G76" s="9">
+      <c r="L76" s="9">
         <v>52888</v>
       </c>
-      <c r="H76" s="9">
+      <c r="M76" s="9">
         <v>52888</v>
       </c>
-      <c r="I76" s="9">
+      <c r="N76" s="9">
         <v>49959</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
+        <v>30332</v>
+      </c>
+      <c r="F77" s="11">
+        <v>17134</v>
+      </c>
+      <c r="G77" s="11">
+        <v>22844</v>
+      </c>
+      <c r="H77" s="11">
+        <v>21880</v>
+      </c>
+      <c r="I77" s="11">
+        <v>18818</v>
+      </c>
+      <c r="J77" s="11">
         <v>14812</v>
       </c>
-      <c r="F77" s="11">
+      <c r="K77" s="11">
         <v>5357</v>
       </c>
-      <c r="G77" s="11">
+      <c r="L77" s="11">
         <v>7286</v>
       </c>
-      <c r="H77" s="11">
+      <c r="M77" s="11">
         <v>29447</v>
       </c>
-      <c r="I77" s="11">
+      <c r="N77" s="11">
         <v>42120</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
+        <v>100859</v>
+      </c>
+      <c r="F78" s="9">
+        <v>90451</v>
+      </c>
+      <c r="G78" s="9">
+        <v>62369</v>
+      </c>
+      <c r="H78" s="9">
+        <v>39343</v>
+      </c>
+      <c r="I78" s="9">
+        <v>30474</v>
+      </c>
+      <c r="J78" s="9">
         <v>33311</v>
       </c>
-      <c r="F78" s="9">
+      <c r="K78" s="9">
         <v>33311</v>
       </c>
-      <c r="G78" s="9">
+      <c r="L78" s="9">
         <v>13173</v>
       </c>
-      <c r="H78" s="9">
+      <c r="M78" s="9">
         <v>13173</v>
       </c>
-      <c r="I78" s="9">
+      <c r="N78" s="9">
         <v>13173</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
+        <v>3122963</v>
+      </c>
+      <c r="F79" s="11">
+        <v>515063</v>
+      </c>
+      <c r="G79" s="11">
+        <v>1572040</v>
+      </c>
+      <c r="H79" s="11">
+        <v>5790937</v>
+      </c>
+      <c r="I79" s="11">
+        <v>3415490</v>
+      </c>
+      <c r="J79" s="11">
         <v>1820100</v>
       </c>
-      <c r="F79" s="11">
+      <c r="K79" s="11">
         <v>2860490</v>
       </c>
-      <c r="G79" s="11">
+      <c r="L79" s="11">
         <v>13778486</v>
       </c>
-      <c r="H79" s="11">
+      <c r="M79" s="11">
         <v>11073986</v>
       </c>
-      <c r="I79" s="11">
+      <c r="N79" s="11">
         <v>9660986</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
+        <v>44885</v>
+      </c>
+      <c r="F80" s="9">
+        <v>35003</v>
+      </c>
+      <c r="G80" s="9">
+        <v>23566</v>
+      </c>
+      <c r="H80" s="9">
+        <v>18484</v>
+      </c>
+      <c r="I80" s="9">
+        <v>21308</v>
+      </c>
+      <c r="J80" s="9">
         <v>52813</v>
       </c>
-      <c r="F80" s="9">
+      <c r="K80" s="9">
         <v>73829</v>
       </c>
-      <c r="G80" s="9">
+      <c r="L80" s="9">
         <v>51735</v>
       </c>
-      <c r="H80" s="9">
+      <c r="M80" s="9">
         <v>30649</v>
       </c>
-      <c r="I80" s="9">
+      <c r="N80" s="9">
         <v>30858</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I81" s="11">
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
+        <v>235</v>
+      </c>
+      <c r="F82" s="9">
+        <v>235</v>
+      </c>
+      <c r="G82" s="9">
+        <v>4861</v>
+      </c>
+      <c r="H82" s="9">
+        <v>5412</v>
+      </c>
+      <c r="I82" s="9">
+        <v>4611</v>
+      </c>
+      <c r="J82" s="9">
         <v>298</v>
       </c>
-      <c r="F82" s="9">
+      <c r="K82" s="9">
         <v>869</v>
       </c>
-      <c r="G82" s="9">
+      <c r="L82" s="9">
         <v>8898</v>
       </c>
-      <c r="H82" s="9">
+      <c r="M82" s="9">
         <v>1706</v>
       </c>
-      <c r="I82" s="9">
+      <c r="N82" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
+        <v>4271258</v>
+      </c>
+      <c r="F83" s="13">
+        <v>1454801</v>
+      </c>
+      <c r="G83" s="13">
+        <v>2923199</v>
+      </c>
+      <c r="H83" s="13">
+        <v>6264268</v>
+      </c>
+      <c r="I83" s="13">
+        <v>3810567</v>
+      </c>
+      <c r="J83" s="13">
         <v>2421933</v>
       </c>
-      <c r="F83" s="13">
+      <c r="K83" s="13">
         <v>3461824</v>
       </c>
-      <c r="G83" s="13">
+      <c r="L83" s="13">
         <v>14266461</v>
       </c>
-      <c r="H83" s="13">
+      <c r="M83" s="13">
         <v>11759993</v>
       </c>
-      <c r="I83" s="13">
+      <c r="N83" s="13">
         <v>10819895</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2295,8 +3315,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2305,8 +3330,13 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2315,10 +3345,15 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2337,8 +3372,23 @@
       <c r="I87" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2347,32 +3397,52 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
+        <v>5321</v>
+      </c>
+      <c r="F89" s="9">
+        <v>7764</v>
+      </c>
+      <c r="G89" s="9">
+        <v>6812</v>
+      </c>
+      <c r="H89" s="9">
+        <v>15229</v>
+      </c>
+      <c r="I89" s="9">
+        <v>8595</v>
+      </c>
+      <c r="J89" s="9">
         <v>12929</v>
       </c>
-      <c r="F89" s="9">
+      <c r="K89" s="9">
         <v>-1627</v>
       </c>
-      <c r="G89" s="9">
+      <c r="L89" s="9">
         <v>14465</v>
       </c>
-      <c r="H89" s="9">
+      <c r="M89" s="9">
         <v>12325</v>
       </c>
-      <c r="I89" s="9">
+      <c r="N89" s="9">
         <v>9292</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -2391,10 +3461,25 @@
       <c r="I90" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="11">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11">
+        <v>0</v>
+      </c>
+      <c r="M90" s="11">
+        <v>0</v>
+      </c>
+      <c r="N90" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2413,10 +3498,25 @@
       <c r="I91" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="9">
+        <v>0</v>
+      </c>
+      <c r="K91" s="9">
+        <v>0</v>
+      </c>
+      <c r="L91" s="9">
+        <v>0</v>
+      </c>
+      <c r="M91" s="9">
+        <v>0</v>
+      </c>
+      <c r="N91" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2435,10 +3535,25 @@
       <c r="I92" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="11">
+        <v>0</v>
+      </c>
+      <c r="K92" s="11">
+        <v>0</v>
+      </c>
+      <c r="L92" s="11">
+        <v>0</v>
+      </c>
+      <c r="M92" s="11">
+        <v>0</v>
+      </c>
+      <c r="N92" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2457,76 +3572,136 @@
       <c r="I93" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="9">
+        <v>0</v>
+      </c>
+      <c r="K93" s="9">
+        <v>0</v>
+      </c>
+      <c r="L93" s="9">
+        <v>0</v>
+      </c>
+      <c r="M93" s="9">
+        <v>0</v>
+      </c>
+      <c r="N93" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
+        <v>125362</v>
+      </c>
+      <c r="F94" s="11">
+        <v>145859</v>
+      </c>
+      <c r="G94" s="11">
+        <v>82974</v>
+      </c>
+      <c r="H94" s="11">
+        <v>180265</v>
+      </c>
+      <c r="I94" s="11">
+        <v>217806</v>
+      </c>
+      <c r="J94" s="11">
         <v>240475</v>
       </c>
-      <c r="F94" s="11">
+      <c r="K94" s="11">
         <v>444099</v>
       </c>
-      <c r="G94" s="11">
+      <c r="L94" s="11">
         <v>470491</v>
       </c>
-      <c r="H94" s="11">
+      <c r="M94" s="11">
         <v>444162</v>
       </c>
-      <c r="I94" s="11">
+      <c r="N94" s="11">
         <v>437770</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
+        <v>98254</v>
+      </c>
+      <c r="F95" s="9">
+        <v>65099</v>
+      </c>
+      <c r="G95" s="9">
+        <v>136353</v>
+      </c>
+      <c r="H95" s="9">
+        <v>-21428</v>
+      </c>
+      <c r="I95" s="9">
+        <v>101425</v>
+      </c>
+      <c r="J95" s="9">
         <v>-59636</v>
       </c>
-      <c r="F95" s="9">
+      <c r="K95" s="9">
         <v>26952</v>
       </c>
-      <c r="G95" s="9">
+      <c r="L95" s="9">
         <v>22163</v>
       </c>
-      <c r="H95" s="9">
+      <c r="M95" s="9">
         <v>26694</v>
       </c>
-      <c r="I95" s="9">
+      <c r="N95" s="9">
         <v>27050</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
+        <v>101251</v>
+      </c>
+      <c r="F96" s="11">
+        <v>92348</v>
+      </c>
+      <c r="G96" s="11">
+        <v>142515</v>
+      </c>
+      <c r="H96" s="11">
+        <v>66060</v>
+      </c>
+      <c r="I96" s="11">
+        <v>136281</v>
+      </c>
+      <c r="J96" s="11">
         <v>153234</v>
       </c>
-      <c r="F96" s="11">
+      <c r="K96" s="11">
         <v>85870</v>
       </c>
-      <c r="G96" s="11">
+      <c r="L96" s="11">
         <v>150718</v>
       </c>
-      <c r="H96" s="11">
+      <c r="M96" s="11">
         <v>252011</v>
       </c>
-      <c r="I96" s="11">
+      <c r="N96" s="11">
         <v>229871</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -2545,52 +3720,97 @@
       <c r="I97" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="9">
+        <v>0</v>
+      </c>
+      <c r="K97" s="9">
+        <v>0</v>
+      </c>
+      <c r="L97" s="9">
+        <v>0</v>
+      </c>
+      <c r="M97" s="9">
+        <v>0</v>
+      </c>
+      <c r="N97" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
+        <v>200312</v>
+      </c>
+      <c r="F98" s="11">
+        <v>404612</v>
+      </c>
+      <c r="G98" s="11">
+        <v>296908</v>
+      </c>
+      <c r="H98" s="11">
+        <v>569347</v>
+      </c>
+      <c r="I98" s="11">
+        <v>302049</v>
+      </c>
+      <c r="J98" s="11">
         <v>681583</v>
       </c>
-      <c r="F98" s="11">
+      <c r="K98" s="11">
         <v>558996</v>
       </c>
-      <c r="G98" s="11">
+      <c r="L98" s="11">
         <v>954298</v>
       </c>
-      <c r="H98" s="11">
+      <c r="M98" s="11">
         <v>634354</v>
       </c>
-      <c r="I98" s="11">
+      <c r="N98" s="11">
         <v>819957</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15">
+        <v>530500</v>
+      </c>
+      <c r="F99" s="15">
+        <v>715682</v>
+      </c>
+      <c r="G99" s="15">
+        <v>665562</v>
+      </c>
+      <c r="H99" s="15">
+        <v>809473</v>
+      </c>
+      <c r="I99" s="15">
+        <v>766156</v>
+      </c>
+      <c r="J99" s="15">
         <v>1028585</v>
       </c>
-      <c r="F99" s="15">
+      <c r="K99" s="15">
         <v>1114290</v>
       </c>
-      <c r="G99" s="15">
+      <c r="L99" s="15">
         <v>1612135</v>
       </c>
-      <c r="H99" s="15">
+      <c r="M99" s="15">
         <v>1369546</v>
       </c>
-      <c r="I99" s="15">
+      <c r="N99" s="15">
         <v>1523940</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2599,8 +3819,13 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2609,8 +3834,13 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2619,10 +3849,15 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -2631,8 +3866,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2641,13 +3881,18 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -2655,13 +3900,18 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
@@ -2669,13 +3919,18 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -2683,13 +3938,18 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
@@ -2697,13 +3957,18 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -2711,13 +3976,18 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
@@ -2725,13 +3995,18 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -2739,13 +4014,18 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
@@ -2753,13 +4033,18 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -2767,35 +4052,40 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>

--- a/database/industries/siman/sekhouz/cost/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42887019-FE38-4946-AB0A-12BBAD0EFDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -157,6 +158,36 @@
   </si>
   <si>
     <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>عدد / ریال</t>
+  </si>
+  <si>
+    <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی پایان دوره</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -258,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,7 +459,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -440,7 +471,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -487,6 +518,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -522,6 +570,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -673,17 +738,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -698,7 +763,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,7 +780,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -732,7 +797,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -747,7 +812,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -764,7 +829,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -781,7 +846,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -796,7 +861,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -833,7 +898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -848,7 +913,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -885,7 +950,7 @@
         <v>571475</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -922,7 +987,7 @@
         <v>50788</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -959,7 +1024,7 @@
         <v>1523940</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -996,7 +1061,7 @@
         <v>2146203</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1033,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1135,7 @@
         <v>2146203</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1172,7 @@
         <v>-26757</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1144,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1181,7 +1246,7 @@
         <v>2119446</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1209,16 +1274,16 @@
         <v>0</v>
       </c>
       <c r="L19" s="11">
-        <v>0</v>
+        <v>21950</v>
       </c>
       <c r="M19" s="11">
         <v>70728</v>
       </c>
       <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>70451</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1246,16 +1311,16 @@
         <v>37745</v>
       </c>
       <c r="L20" s="9">
-        <v>-48778</v>
+        <v>-70728</v>
       </c>
       <c r="M20" s="9">
         <v>-70451</v>
       </c>
       <c r="N20" s="9">
-        <v>-48602</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-119053</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1292,7 +1357,7 @@
         <v>2070844</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1329,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1431,7 @@
         <v>2070844</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1381,7 +1446,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1396,7 +1461,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1411,7 +1476,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1448,7 +1513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1463,7 +1528,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1502,7 +1567,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1541,7 +1606,7 @@
         <v>557957</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1580,7 +1645,7 @@
         <v>52888</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1619,7 +1684,7 @@
         <v>29447</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1658,7 +1723,7 @@
         <v>13173</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
@@ -1697,7 +1762,7 @@
         <v>11073986</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
@@ -1736,7 +1801,7 @@
         <v>30649</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>39</v>
       </c>
@@ -1775,7 +1840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>41</v>
       </c>
@@ -1814,7 +1879,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>17</v>
       </c>
@@ -1851,7 +1916,7 @@
         <v>11759993</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1866,7 +1931,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1881,7 +1946,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1896,7 +1961,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>42</v>
       </c>
@@ -1933,7 +1998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1948,7 +2013,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>29</v>
       </c>
@@ -1987,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>32</v>
       </c>
@@ -2026,7 +2091,7 @@
         <v>1345042</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>33</v>
       </c>
@@ -2065,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>34</v>
       </c>
@@ -2104,7 +2169,7 @@
         <v>30779</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>35</v>
       </c>
@@ -2143,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>36</v>
       </c>
@@ -2182,7 +2247,7 @@
         <v>2014060</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>38</v>
       </c>
@@ -2221,7 +2286,7 @@
         <v>23334</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>39</v>
       </c>
@@ -2260,7 +2325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>41</v>
       </c>
@@ -2299,7 +2364,7 @@
         <v>4983</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>17</v>
       </c>
@@ -2336,7 +2401,7 @@
         <v>3418198</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2351,7 +2416,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2366,7 +2431,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2381,7 +2446,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>44</v>
       </c>
@@ -2418,7 +2483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2433,7 +2498,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>29</v>
       </c>
@@ -2472,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
@@ -2511,7 +2576,7 @@
         <v>880396</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>33</v>
       </c>
@@ -2550,7 +2615,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>34</v>
       </c>
@@ -2589,7 +2654,7 @@
         <v>18105</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>35</v>
       </c>
@@ -2628,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>36</v>
       </c>
@@ -2667,7 +2732,7 @@
         <v>3427060</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>38</v>
       </c>
@@ -2706,7 +2771,7 @@
         <v>23125</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>39</v>
       </c>
@@ -2745,7 +2810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>41</v>
       </c>
@@ -2784,7 +2849,7 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>17</v>
       </c>
@@ -2821,7 +2886,7 @@
         <v>4358296</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2836,7 +2901,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2851,7 +2916,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2866,7 +2931,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>45</v>
       </c>
@@ -2903,7 +2968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2918,7 +2983,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>29</v>
       </c>
@@ -2957,7 +3022,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>32</v>
       </c>
@@ -2996,7 +3061,7 @@
         <v>1022603</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>33</v>
       </c>
@@ -3035,7 +3100,7 @@
         <v>49959</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>34</v>
       </c>
@@ -3074,7 +3139,7 @@
         <v>42120</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>35</v>
       </c>
@@ -3113,7 +3178,7 @@
         <v>13173</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>36</v>
       </c>
@@ -3152,7 +3217,7 @@
         <v>9660986</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>38</v>
       </c>
@@ -3191,7 +3256,7 @@
         <v>30858</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>39</v>
       </c>
@@ -3230,7 +3295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>41</v>
       </c>
@@ -3269,7 +3334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>17</v>
       </c>
@@ -3306,7 +3371,7 @@
         <v>10819895</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3321,7 +3386,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3336,7 +3401,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3351,7 +3416,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>46</v>
       </c>
@@ -3388,7 +3453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3403,414 +3468,410 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>5321</v>
+        <v>72</v>
       </c>
       <c r="F89" s="9">
-        <v>7764</v>
+        <v>72</v>
       </c>
       <c r="G89" s="9">
-        <v>6812</v>
+        <v>72</v>
       </c>
       <c r="H89" s="9">
-        <v>15229</v>
+        <v>72</v>
       </c>
       <c r="I89" s="9">
-        <v>8595</v>
+        <v>72</v>
       </c>
       <c r="J89" s="9">
-        <v>12929</v>
+        <v>72</v>
       </c>
       <c r="K89" s="9">
-        <v>-1627</v>
-      </c>
-      <c r="L89" s="9">
-        <v>14465</v>
+        <v>72</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="M89" s="9">
-        <v>12325</v>
+        <v>72</v>
       </c>
       <c r="N89" s="9">
-        <v>9292</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>0</v>
+        <v>47976</v>
       </c>
       <c r="F90" s="11">
-        <v>0</v>
+        <v>55761</v>
       </c>
       <c r="G90" s="11">
-        <v>0</v>
+        <v>46188</v>
       </c>
       <c r="H90" s="11">
-        <v>0</v>
+        <v>60811</v>
       </c>
       <c r="I90" s="11">
-        <v>0</v>
+        <v>38097</v>
       </c>
       <c r="J90" s="11">
-        <v>0</v>
+        <v>35080</v>
       </c>
       <c r="K90" s="11">
-        <v>0</v>
-      </c>
-      <c r="L90" s="11">
-        <v>0</v>
+        <v>115913</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="M90" s="11">
-        <v>0</v>
+        <v>100211</v>
       </c>
       <c r="N90" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>158410</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>0</v>
+        <v>3085</v>
       </c>
       <c r="F91" s="9">
-        <v>0</v>
+        <v>36885</v>
       </c>
       <c r="G91" s="9">
-        <v>0</v>
+        <v>36195</v>
       </c>
       <c r="H91" s="9">
-        <v>0</v>
+        <v>33025</v>
       </c>
       <c r="I91" s="9">
-        <v>0</v>
+        <v>30895</v>
       </c>
       <c r="J91" s="9">
-        <v>0</v>
+        <v>30021</v>
       </c>
       <c r="K91" s="9">
-        <v>0</v>
-      </c>
-      <c r="L91" s="9">
-        <v>0</v>
+        <v>29972</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="M91" s="9">
-        <v>0</v>
+        <v>29994</v>
       </c>
       <c r="N91" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29994</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C92" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>0</v>
+        <v>4541</v>
       </c>
       <c r="F92" s="11">
-        <v>0</v>
+        <v>4672</v>
       </c>
       <c r="G92" s="11">
-        <v>0</v>
+        <v>3172</v>
       </c>
       <c r="H92" s="11">
-        <v>0</v>
+        <v>6819</v>
       </c>
       <c r="I92" s="11">
-        <v>0</v>
+        <v>7047</v>
       </c>
       <c r="J92" s="11">
-        <v>0</v>
+        <v>6735</v>
       </c>
       <c r="K92" s="11">
-        <v>0</v>
-      </c>
-      <c r="L92" s="11">
-        <v>0</v>
+        <v>5599</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="M92" s="11">
-        <v>0</v>
+        <v>5348</v>
       </c>
       <c r="N92" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26057</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>0</v>
+        <v>3867</v>
       </c>
       <c r="F93" s="9">
-        <v>0</v>
+        <v>5149</v>
       </c>
       <c r="G93" s="9">
-        <v>0</v>
+        <v>4697</v>
       </c>
       <c r="H93" s="9">
-        <v>0</v>
+        <v>3471</v>
       </c>
       <c r="I93" s="9">
-        <v>0</v>
+        <v>1794</v>
       </c>
       <c r="J93" s="9">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="K93" s="9">
-        <v>0</v>
-      </c>
-      <c r="L93" s="9">
-        <v>0</v>
+        <v>2119</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="M93" s="9">
-        <v>0</v>
+        <v>948</v>
       </c>
       <c r="N93" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C94" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>125362</v>
+        <v>14541</v>
       </c>
       <c r="F94" s="11">
-        <v>145859</v>
+        <v>47349</v>
       </c>
       <c r="G94" s="11">
-        <v>82974</v>
+        <v>9299</v>
       </c>
       <c r="H94" s="11">
-        <v>180265</v>
+        <v>70730</v>
       </c>
       <c r="I94" s="11">
-        <v>217806</v>
+        <v>199820</v>
       </c>
       <c r="J94" s="11">
-        <v>240475</v>
+        <v>172787</v>
       </c>
       <c r="K94" s="11">
-        <v>444099</v>
-      </c>
-      <c r="L94" s="11">
-        <v>470491</v>
+        <v>63503</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="M94" s="11">
-        <v>444162</v>
+        <v>610660</v>
       </c>
       <c r="N94" s="11">
-        <v>437770</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>512339</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C95" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>98254</v>
+        <v>23607</v>
       </c>
       <c r="F95" s="9">
-        <v>65099</v>
+        <v>50910</v>
       </c>
       <c r="G95" s="9">
-        <v>136353</v>
+        <v>40863</v>
       </c>
       <c r="H95" s="9">
-        <v>-21428</v>
+        <v>29708</v>
       </c>
       <c r="I95" s="9">
-        <v>101425</v>
+        <v>44992</v>
       </c>
       <c r="J95" s="9">
-        <v>-59636</v>
+        <v>72010</v>
       </c>
       <c r="K95" s="9">
-        <v>26952</v>
-      </c>
-      <c r="L95" s="9">
-        <v>22163</v>
+        <v>201415</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="M95" s="9">
-        <v>26694</v>
+        <v>201949</v>
       </c>
       <c r="N95" s="9">
-        <v>27050</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>119639</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C96" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11">
-        <v>101251</v>
-      </c>
-      <c r="F96" s="11">
-        <v>92348</v>
-      </c>
-      <c r="G96" s="11">
-        <v>142515</v>
-      </c>
-      <c r="H96" s="11">
-        <v>66060</v>
+      <c r="E96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I96" s="11">
-        <v>136281</v>
-      </c>
-      <c r="J96" s="11">
-        <v>153234</v>
-      </c>
-      <c r="K96" s="11">
-        <v>85870</v>
-      </c>
-      <c r="L96" s="11">
-        <v>150718</v>
-      </c>
-      <c r="M96" s="11">
-        <v>252011</v>
-      </c>
-      <c r="N96" s="11">
-        <v>229871</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C97" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F97" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G97" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H97" s="9">
-        <v>0</v>
+        <v>2274</v>
       </c>
       <c r="I97" s="9">
-        <v>0</v>
+        <v>2787</v>
       </c>
       <c r="J97" s="9">
-        <v>0</v>
+        <v>2825</v>
       </c>
       <c r="K97" s="9">
-        <v>0</v>
-      </c>
-      <c r="L97" s="9">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="M97" s="9">
-        <v>0</v>
+        <v>7777</v>
       </c>
       <c r="N97" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11">
-        <v>200312</v>
-      </c>
-      <c r="F98" s="11">
-        <v>404612</v>
-      </c>
-      <c r="G98" s="11">
-        <v>296908</v>
-      </c>
-      <c r="H98" s="11">
-        <v>569347</v>
-      </c>
-      <c r="I98" s="11">
-        <v>302049</v>
-      </c>
-      <c r="J98" s="11">
-        <v>681583</v>
-      </c>
-      <c r="K98" s="11">
-        <v>558996</v>
-      </c>
-      <c r="L98" s="11">
-        <v>954298</v>
-      </c>
-      <c r="M98" s="11">
-        <v>634354</v>
-      </c>
-      <c r="N98" s="11">
-        <v>819957</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B99" s="14" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B98" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15">
-        <v>530500</v>
-      </c>
-      <c r="F99" s="15">
-        <v>715682</v>
-      </c>
-      <c r="G99" s="15">
-        <v>665562</v>
-      </c>
-      <c r="H99" s="15">
-        <v>809473</v>
-      </c>
-      <c r="I99" s="15">
-        <v>766156</v>
-      </c>
-      <c r="J99" s="15">
-        <v>1028585</v>
-      </c>
-      <c r="K99" s="15">
-        <v>1114290</v>
-      </c>
-      <c r="L99" s="15">
-        <v>1612135</v>
-      </c>
-      <c r="M99" s="15">
-        <v>1369546</v>
-      </c>
-      <c r="N99" s="15">
-        <v>1523940</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13">
+        <v>97720</v>
+      </c>
+      <c r="F98" s="13">
+        <v>200829</v>
+      </c>
+      <c r="G98" s="13">
+        <v>140517</v>
+      </c>
+      <c r="H98" s="13">
+        <v>206910</v>
+      </c>
+      <c r="I98" s="13">
+        <v>325504</v>
+      </c>
+      <c r="J98" s="13">
+        <v>320919</v>
+      </c>
+      <c r="K98" s="13">
+        <v>418833</v>
+      </c>
+      <c r="L98" s="13">
+        <v>0</v>
+      </c>
+      <c r="M98" s="13">
+        <v>956959</v>
+      </c>
+      <c r="N98" s="13">
+        <v>848951</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3825,7 +3886,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3840,29 +3901,49 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
+    <row r="102" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B102" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -3872,224 +3953,3681 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B105" s="8" t="s">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B104" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9">
+        <v>0</v>
+      </c>
+      <c r="F104" s="9">
+        <v>0</v>
+      </c>
+      <c r="G104" s="9">
+        <v>0</v>
+      </c>
+      <c r="H104" s="9">
+        <v>0</v>
+      </c>
+      <c r="I104" s="9">
+        <v>0</v>
+      </c>
+      <c r="J104" s="9">
+        <v>0</v>
+      </c>
+      <c r="K104" s="9">
+        <v>0</v>
+      </c>
+      <c r="L104" s="9">
+        <v>0</v>
+      </c>
+      <c r="M104" s="9">
+        <v>0</v>
+      </c>
+      <c r="N104" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B105" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11">
+        <v>35134</v>
+      </c>
+      <c r="F105" s="11">
+        <v>53124</v>
+      </c>
+      <c r="G105" s="11">
+        <v>88162</v>
+      </c>
+      <c r="H105" s="11">
+        <v>107754</v>
+      </c>
+      <c r="I105" s="11">
+        <v>119179</v>
+      </c>
+      <c r="J105" s="11">
+        <v>256401</v>
+      </c>
+      <c r="K105" s="11">
+        <v>292563</v>
+      </c>
+      <c r="L105" s="11">
+        <v>334512</v>
+      </c>
+      <c r="M105" s="11">
+        <v>324336</v>
+      </c>
+      <c r="N105" s="11">
+        <v>508421</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B106" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9">
+        <v>54916</v>
+      </c>
+      <c r="F106" s="9">
+        <v>1850</v>
+      </c>
+      <c r="G106" s="9">
+        <v>390</v>
+      </c>
+      <c r="H106" s="9">
+        <v>0</v>
+      </c>
+      <c r="I106" s="9">
+        <v>0</v>
+      </c>
+      <c r="J106" s="9">
+        <v>0</v>
+      </c>
+      <c r="K106" s="9">
+        <v>0</v>
+      </c>
+      <c r="L106" s="9">
+        <v>382</v>
+      </c>
+      <c r="M106" s="9">
+        <v>0</v>
+      </c>
+      <c r="N106" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B107" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11">
+        <v>3100</v>
+      </c>
+      <c r="F107" s="11">
+        <v>3357</v>
+      </c>
+      <c r="G107" s="11">
+        <v>9256</v>
+      </c>
+      <c r="H107" s="11">
+        <v>6482</v>
+      </c>
+      <c r="I107" s="11">
+        <v>4333</v>
+      </c>
+      <c r="J107" s="11">
+        <v>3918</v>
+      </c>
+      <c r="K107" s="11">
+        <v>3626</v>
+      </c>
+      <c r="L107" s="11">
+        <v>11303</v>
+      </c>
+      <c r="M107" s="11">
+        <v>33904</v>
+      </c>
+      <c r="N107" s="11">
+        <v>27701</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B108" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9">
+        <v>6508</v>
+      </c>
+      <c r="F108" s="9">
+        <v>912</v>
+      </c>
+      <c r="G108" s="9">
+        <v>123</v>
+      </c>
+      <c r="H108" s="9">
+        <v>0</v>
+      </c>
+      <c r="I108" s="9">
+        <v>0</v>
+      </c>
+      <c r="J108" s="9">
+        <v>744</v>
+      </c>
+      <c r="K108" s="9">
+        <v>0</v>
+      </c>
+      <c r="L108" s="9">
+        <v>151</v>
+      </c>
+      <c r="M108" s="9">
+        <v>0</v>
+      </c>
+      <c r="N108" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11">
+        <v>91370</v>
+      </c>
+      <c r="F109" s="11">
+        <v>24922</v>
+      </c>
+      <c r="G109" s="11">
+        <v>177591</v>
+      </c>
+      <c r="H109" s="11">
+        <v>258282</v>
+      </c>
+      <c r="I109" s="11">
+        <v>27542</v>
+      </c>
+      <c r="J109" s="11">
+        <v>44882</v>
+      </c>
+      <c r="K109" s="11">
+        <v>198641</v>
+      </c>
+      <c r="L109" s="11">
+        <v>520016</v>
+      </c>
+      <c r="M109" s="11">
+        <v>27678</v>
+      </c>
+      <c r="N109" s="11">
+        <v>67471</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B110" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9">
+        <v>49852</v>
+      </c>
+      <c r="F110" s="9">
+        <v>16209</v>
+      </c>
+      <c r="G110" s="9">
+        <v>13668</v>
+      </c>
+      <c r="H110" s="9">
+        <v>61366</v>
+      </c>
+      <c r="I110" s="9">
+        <v>76392</v>
+      </c>
+      <c r="J110" s="9">
+        <v>177523</v>
+      </c>
+      <c r="K110" s="9">
+        <v>179514</v>
+      </c>
+      <c r="L110" s="9">
+        <v>3110</v>
+      </c>
+      <c r="M110" s="9">
+        <v>0</v>
+      </c>
+      <c r="N110" s="9">
+        <v>154006</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B111" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" s="11">
+        <v>0</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M111" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B112" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9">
+        <v>0</v>
+      </c>
+      <c r="F112" s="9">
+        <v>0</v>
+      </c>
+      <c r="G112" s="9">
+        <v>2243</v>
+      </c>
+      <c r="H112" s="9">
+        <v>2835</v>
+      </c>
+      <c r="I112" s="9">
+        <v>7964</v>
+      </c>
+      <c r="J112" s="9">
+        <v>3319</v>
+      </c>
+      <c r="K112" s="9">
+        <v>9910</v>
+      </c>
+      <c r="L112" s="9">
+        <v>9982</v>
+      </c>
+      <c r="M112" s="9">
+        <v>1511</v>
+      </c>
+      <c r="N112" s="9">
+        <v>7934</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B113" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13">
+        <v>240880</v>
+      </c>
+      <c r="F113" s="13">
+        <v>100374</v>
+      </c>
+      <c r="G113" s="13">
+        <v>291433</v>
+      </c>
+      <c r="H113" s="13">
+        <v>436719</v>
+      </c>
+      <c r="I113" s="13">
+        <v>235410</v>
+      </c>
+      <c r="J113" s="13">
+        <v>486787</v>
+      </c>
+      <c r="K113" s="13">
+        <v>684254</v>
+      </c>
+      <c r="L113" s="13">
+        <v>879456</v>
+      </c>
+      <c r="M113" s="13">
+        <v>387429</v>
+      </c>
+      <c r="N113" s="13">
+        <v>765533</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B117" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B119" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9">
+        <v>0</v>
+      </c>
+      <c r="F119" s="9">
+        <v>0</v>
+      </c>
+      <c r="G119" s="9">
+        <v>0</v>
+      </c>
+      <c r="H119" s="9">
+        <v>0</v>
+      </c>
+      <c r="I119" s="9">
+        <v>0</v>
+      </c>
+      <c r="J119" s="9">
+        <v>0</v>
+      </c>
+      <c r="K119" s="9">
+        <v>0</v>
+      </c>
+      <c r="L119" s="9">
+        <v>0</v>
+      </c>
+      <c r="M119" s="9">
+        <v>0</v>
+      </c>
+      <c r="N119" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B120" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11">
+        <v>27349</v>
+      </c>
+      <c r="F120" s="11">
+        <v>62697</v>
+      </c>
+      <c r="G120" s="11">
+        <v>73539</v>
+      </c>
+      <c r="H120" s="11">
+        <v>129474</v>
+      </c>
+      <c r="I120" s="11">
+        <v>122196</v>
+      </c>
+      <c r="J120" s="11">
+        <v>175568</v>
+      </c>
+      <c r="K120" s="11">
+        <v>286925</v>
+      </c>
+      <c r="L120" s="11">
+        <v>355852</v>
+      </c>
+      <c r="M120" s="11">
+        <v>266137</v>
+      </c>
+      <c r="N120" s="11">
+        <v>310232</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B121" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9">
+        <v>21116</v>
+      </c>
+      <c r="F121" s="9">
+        <v>2540</v>
+      </c>
+      <c r="G121" s="9">
+        <v>3560</v>
+      </c>
+      <c r="H121" s="9">
+        <v>2131</v>
+      </c>
+      <c r="I121" s="9">
+        <v>874</v>
+      </c>
+      <c r="J121" s="9">
+        <v>49</v>
+      </c>
+      <c r="K121" s="9">
+        <v>0</v>
+      </c>
+      <c r="L121" s="9">
+        <v>360</v>
+      </c>
+      <c r="M121" s="9">
+        <v>0</v>
+      </c>
+      <c r="N121" s="9">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B122" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11">
+        <v>2969</v>
+      </c>
+      <c r="F122" s="11">
+        <v>4857</v>
+      </c>
+      <c r="G122" s="11">
+        <v>5609</v>
+      </c>
+      <c r="H122" s="11">
+        <v>6449</v>
+      </c>
+      <c r="I122" s="11">
+        <v>4645</v>
+      </c>
+      <c r="J122" s="11">
+        <v>5054</v>
+      </c>
+      <c r="K122" s="11">
+        <v>7130</v>
+      </c>
+      <c r="L122" s="11">
+        <v>8050</v>
+      </c>
+      <c r="M122" s="11">
+        <v>13195</v>
+      </c>
+      <c r="N122" s="11">
+        <v>16140</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B123" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9">
+        <v>5226</v>
+      </c>
+      <c r="F123" s="9">
+        <v>1364</v>
+      </c>
+      <c r="G123" s="9">
+        <v>1349</v>
+      </c>
+      <c r="H123" s="9">
+        <v>1050</v>
+      </c>
+      <c r="I123" s="9">
+        <v>405</v>
+      </c>
+      <c r="J123" s="9">
+        <v>14</v>
+      </c>
+      <c r="K123" s="9">
+        <v>0</v>
+      </c>
+      <c r="L123" s="9">
+        <v>1322</v>
+      </c>
+      <c r="M123" s="9">
+        <v>0</v>
+      </c>
+      <c r="N123" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B124" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11">
+        <v>58562</v>
+      </c>
+      <c r="F124" s="11">
+        <v>62972</v>
+      </c>
+      <c r="G124" s="11">
+        <v>116160</v>
+      </c>
+      <c r="H124" s="11">
+        <v>216721</v>
+      </c>
+      <c r="I124" s="11">
+        <v>54575</v>
+      </c>
+      <c r="J124" s="11">
+        <v>154166</v>
+      </c>
+      <c r="K124" s="11">
+        <v>156128</v>
+      </c>
+      <c r="L124" s="11">
+        <v>15372</v>
+      </c>
+      <c r="M124" s="11">
+        <v>125999</v>
+      </c>
+      <c r="N124" s="11">
+        <v>124169</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B125" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9">
+        <v>22549</v>
+      </c>
+      <c r="F125" s="9">
+        <v>26256</v>
+      </c>
+      <c r="G125" s="9">
+        <v>24823</v>
+      </c>
+      <c r="H125" s="9">
+        <v>47212</v>
+      </c>
+      <c r="I125" s="9">
+        <v>49374</v>
+      </c>
+      <c r="J125" s="9">
+        <v>48118</v>
+      </c>
+      <c r="K125" s="9">
+        <v>92738</v>
+      </c>
+      <c r="L125" s="9">
+        <v>89352</v>
+      </c>
+      <c r="M125" s="9">
+        <v>82310</v>
+      </c>
+      <c r="N125" s="9">
+        <v>109859</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B126" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" s="11">
+        <v>0</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N126" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B127" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9">
+        <v>0</v>
+      </c>
+      <c r="F127" s="9">
+        <v>0</v>
+      </c>
+      <c r="G127" s="9">
+        <v>0</v>
+      </c>
+      <c r="H127" s="9">
+        <v>2323</v>
+      </c>
+      <c r="I127" s="9">
+        <v>7926</v>
+      </c>
+      <c r="J127" s="9">
+        <v>3739</v>
+      </c>
+      <c r="K127" s="9">
+        <v>9412</v>
+      </c>
+      <c r="L127" s="9">
+        <v>2943</v>
+      </c>
+      <c r="M127" s="9">
+        <v>7796</v>
+      </c>
+      <c r="N127" s="9">
+        <v>9413</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B128" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13">
+        <v>137771</v>
+      </c>
+      <c r="F128" s="13">
+        <v>160686</v>
+      </c>
+      <c r="G128" s="13">
+        <v>225040</v>
+      </c>
+      <c r="H128" s="13">
+        <v>405360</v>
+      </c>
+      <c r="I128" s="13">
+        <v>239995</v>
+      </c>
+      <c r="J128" s="13">
+        <v>386708</v>
+      </c>
+      <c r="K128" s="13">
+        <v>552333</v>
+      </c>
+      <c r="L128" s="13">
+        <v>473251</v>
+      </c>
+      <c r="M128" s="13">
+        <v>495437</v>
+      </c>
+      <c r="N128" s="13">
+        <v>571475</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B132" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B134" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9">
+        <v>72</v>
+      </c>
+      <c r="F134" s="9">
+        <v>72</v>
+      </c>
+      <c r="G134" s="9">
+        <v>72</v>
+      </c>
+      <c r="H134" s="9">
+        <v>72</v>
+      </c>
+      <c r="I134" s="9">
+        <v>72</v>
+      </c>
+      <c r="J134" s="9">
+        <v>72</v>
+      </c>
+      <c r="K134" s="9">
+        <v>72</v>
+      </c>
+      <c r="L134" s="9">
+        <v>72</v>
+      </c>
+      <c r="M134" s="9">
+        <v>72</v>
+      </c>
+      <c r="N134" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B135" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11">
+        <v>55761</v>
+      </c>
+      <c r="F135" s="11">
+        <v>46188</v>
+      </c>
+      <c r="G135" s="11">
+        <v>60811</v>
+      </c>
+      <c r="H135" s="11">
+        <v>39091</v>
+      </c>
+      <c r="I135" s="11">
+        <v>35080</v>
+      </c>
+      <c r="J135" s="11">
+        <v>115913</v>
+      </c>
+      <c r="K135" s="11">
+        <v>121551</v>
+      </c>
+      <c r="L135" s="11">
+        <v>100211</v>
+      </c>
+      <c r="M135" s="11">
+        <v>158410</v>
+      </c>
+      <c r="N135" s="11">
+        <v>356599</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B136" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9">
+        <v>36885</v>
+      </c>
+      <c r="F136" s="9">
+        <v>36195</v>
+      </c>
+      <c r="G136" s="9">
+        <v>33025</v>
+      </c>
+      <c r="H136" s="9">
+        <v>30894</v>
+      </c>
+      <c r="I136" s="9">
+        <v>30021</v>
+      </c>
+      <c r="J136" s="9">
+        <v>29972</v>
+      </c>
+      <c r="K136" s="9">
+        <v>29972</v>
+      </c>
+      <c r="L136" s="9">
+        <v>29994</v>
+      </c>
+      <c r="M136" s="9">
+        <v>29994</v>
+      </c>
+      <c r="N136" s="9">
+        <v>28333</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B137" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11">
+        <v>4672</v>
+      </c>
+      <c r="F137" s="11">
+        <v>3172</v>
+      </c>
+      <c r="G137" s="11">
+        <v>6819</v>
+      </c>
+      <c r="H137" s="11">
+        <v>6852</v>
+      </c>
+      <c r="I137" s="11">
+        <v>6735</v>
+      </c>
+      <c r="J137" s="11">
+        <v>5599</v>
+      </c>
+      <c r="K137" s="11">
+        <v>2095</v>
+      </c>
+      <c r="L137" s="11">
+        <v>5348</v>
+      </c>
+      <c r="M137" s="11">
+        <v>26057</v>
+      </c>
+      <c r="N137" s="11">
+        <v>37618</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B138" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9">
+        <v>5149</v>
+      </c>
+      <c r="F138" s="9">
+        <v>4697</v>
+      </c>
+      <c r="G138" s="9">
+        <v>3471</v>
+      </c>
+      <c r="H138" s="9">
+        <v>2421</v>
+      </c>
+      <c r="I138" s="9">
+        <v>1389</v>
+      </c>
+      <c r="J138" s="9">
+        <v>2119</v>
+      </c>
+      <c r="K138" s="9">
+        <v>2119</v>
+      </c>
+      <c r="L138" s="9">
+        <v>948</v>
+      </c>
+      <c r="M138" s="9">
+        <v>948</v>
+      </c>
+      <c r="N138" s="9">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B139" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11">
+        <v>47349</v>
+      </c>
+      <c r="F139" s="11">
+        <v>9299</v>
+      </c>
+      <c r="G139" s="11">
+        <v>70730</v>
+      </c>
+      <c r="H139" s="11">
+        <v>112291</v>
+      </c>
+      <c r="I139" s="11">
+        <v>172787</v>
+      </c>
+      <c r="J139" s="11">
+        <v>63503</v>
+      </c>
+      <c r="K139" s="11">
+        <v>106016</v>
+      </c>
+      <c r="L139" s="11">
+        <v>610660</v>
+      </c>
+      <c r="M139" s="11">
+        <v>512339</v>
+      </c>
+      <c r="N139" s="11">
+        <v>348790</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B140" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9">
+        <v>50910</v>
+      </c>
+      <c r="F140" s="9">
+        <v>40863</v>
+      </c>
+      <c r="G140" s="9">
+        <v>29708</v>
+      </c>
+      <c r="H140" s="9">
+        <v>43862</v>
+      </c>
+      <c r="I140" s="9">
+        <v>72010</v>
+      </c>
+      <c r="J140" s="9">
+        <v>201415</v>
+      </c>
+      <c r="K140" s="9">
+        <v>288191</v>
+      </c>
+      <c r="L140" s="9">
+        <v>201949</v>
+      </c>
+      <c r="M140" s="9">
+        <v>119639</v>
+      </c>
+      <c r="N140" s="9">
+        <v>163787</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B141" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I141" s="11">
+        <v>0</v>
+      </c>
+      <c r="J141" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K141" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L141" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M141" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B142" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9">
+        <v>31</v>
+      </c>
+      <c r="F142" s="9">
+        <v>31</v>
+      </c>
+      <c r="G142" s="9">
+        <v>2274</v>
+      </c>
+      <c r="H142" s="9">
+        <v>2786</v>
+      </c>
+      <c r="I142" s="9">
+        <v>2825</v>
+      </c>
+      <c r="J142" s="9">
+        <v>240</v>
+      </c>
+      <c r="K142" s="9">
+        <v>738</v>
+      </c>
+      <c r="L142" s="9">
+        <v>7777</v>
+      </c>
+      <c r="M142" s="9">
+        <v>1492</v>
+      </c>
+      <c r="N142" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B143" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13">
+        <v>200829</v>
+      </c>
+      <c r="F143" s="13">
+        <v>140517</v>
+      </c>
+      <c r="G143" s="13">
+        <v>206910</v>
+      </c>
+      <c r="H143" s="13">
+        <v>238269</v>
+      </c>
+      <c r="I143" s="13">
+        <v>320919</v>
+      </c>
+      <c r="J143" s="13">
+        <v>418833</v>
+      </c>
+      <c r="K143" s="13">
+        <v>550754</v>
+      </c>
+      <c r="L143" s="13">
+        <v>956959</v>
+      </c>
+      <c r="M143" s="13">
+        <v>848951</v>
+      </c>
+      <c r="N143" s="13">
+        <v>936161</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B147" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B149" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9">
+        <v>385027</v>
+      </c>
+      <c r="F149" s="9">
+        <v>385027</v>
+      </c>
+      <c r="G149" s="9">
+        <v>385027</v>
+      </c>
+      <c r="H149" s="9">
+        <v>385027</v>
+      </c>
+      <c r="I149" s="9">
+        <v>385027</v>
+      </c>
+      <c r="J149" s="9">
+        <v>385027</v>
+      </c>
+      <c r="K149" s="9">
+        <v>385027</v>
+      </c>
+      <c r="L149" s="9">
+        <v>385027</v>
+      </c>
+      <c r="M149" s="9">
+        <v>385027</v>
+      </c>
+      <c r="N149" s="9">
+        <v>385027</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B150" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11">
+        <v>57878</v>
+      </c>
+      <c r="F150" s="11">
+        <v>61501</v>
+      </c>
+      <c r="G150" s="11">
+        <v>63027</v>
+      </c>
+      <c r="H150" s="11">
+        <v>51578</v>
+      </c>
+      <c r="I150" s="11">
+        <v>114244</v>
+      </c>
+      <c r="J150" s="11">
+        <v>131511</v>
+      </c>
+      <c r="K150" s="11">
+        <v>258986</v>
+      </c>
+      <c r="L150" s="11">
+        <v>279470</v>
+      </c>
+      <c r="M150" s="11">
+        <v>283236</v>
+      </c>
+      <c r="N150" s="11">
+        <v>283911</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B151" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9">
+        <v>482559</v>
+      </c>
+      <c r="F151" s="9">
+        <v>566285</v>
+      </c>
+      <c r="G151" s="9">
+        <v>566405</v>
+      </c>
+      <c r="H151" s="9">
+        <v>566360</v>
+      </c>
+      <c r="I151" s="9">
+        <v>567141</v>
+      </c>
+      <c r="J151" s="9">
+        <v>567151</v>
+      </c>
+      <c r="K151" s="9">
+        <v>567147</v>
+      </c>
+      <c r="L151" s="9">
+        <v>567147</v>
+      </c>
+      <c r="M151" s="9">
+        <v>567123</v>
+      </c>
+      <c r="N151" s="9">
+        <v>567123</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B152" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11">
+        <v>151873</v>
+      </c>
+      <c r="F152" s="11">
+        <v>154029</v>
+      </c>
+      <c r="G152" s="11">
+        <v>185129</v>
+      </c>
+      <c r="H152" s="11">
+        <v>298503</v>
+      </c>
+      <c r="I152" s="11">
+        <v>347417</v>
+      </c>
+      <c r="J152" s="11">
+        <v>357902</v>
+      </c>
+      <c r="K152" s="11">
+        <v>378004</v>
+      </c>
+      <c r="L152" s="11">
+        <v>391077</v>
+      </c>
+      <c r="M152" s="11">
+        <v>734010</v>
+      </c>
+      <c r="N152" s="11">
+        <v>884878</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B153" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9">
+        <v>49579</v>
+      </c>
+      <c r="F153" s="9">
+        <v>51051</v>
+      </c>
+      <c r="G153" s="9">
+        <v>51929</v>
+      </c>
+      <c r="H153" s="9">
+        <v>55653</v>
+      </c>
+      <c r="I153" s="9">
+        <v>45598</v>
+      </c>
+      <c r="J153" s="9">
+        <v>45580</v>
+      </c>
+      <c r="K153" s="9">
+        <v>63613</v>
+      </c>
+      <c r="L153" s="9">
+        <v>63613</v>
+      </c>
+      <c r="M153" s="9">
+        <v>71965</v>
+      </c>
+      <c r="N153" s="9">
+        <v>71965</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B154" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11">
+        <v>20876</v>
+      </c>
+      <c r="F154" s="11">
+        <v>15162</v>
+      </c>
+      <c r="G154" s="11">
+        <v>18054</v>
+      </c>
+      <c r="H154" s="11">
+        <v>44992</v>
+      </c>
+      <c r="I154" s="11">
+        <v>33094</v>
+      </c>
+      <c r="J154" s="11">
+        <v>50589</v>
+      </c>
+      <c r="K154" s="11">
+        <v>34890</v>
+      </c>
+      <c r="L154" s="11">
+        <v>37062</v>
+      </c>
+      <c r="M154" s="11">
+        <v>44320</v>
+      </c>
+      <c r="N154" s="11">
+        <v>46265</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B155" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9">
+        <v>1129305</v>
+      </c>
+      <c r="F155" s="9">
+        <v>1134232</v>
+      </c>
+      <c r="G155" s="9">
+        <v>1167414</v>
+      </c>
+      <c r="H155" s="9">
+        <v>1260630</v>
+      </c>
+      <c r="I155" s="9">
+        <v>2434764</v>
+      </c>
+      <c r="J155" s="9">
+        <v>3379482</v>
+      </c>
+      <c r="K155" s="9">
+        <v>3813739</v>
+      </c>
+      <c r="L155" s="9">
+        <v>3903493</v>
+      </c>
+      <c r="M155" s="9">
+        <v>3903528</v>
+      </c>
+      <c r="N155" s="9">
+        <v>3903521</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B156" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11">
+        <v>131915</v>
+      </c>
+      <c r="F156" s="11">
+        <v>131915</v>
+      </c>
+      <c r="G156" s="11">
+        <v>131915</v>
+      </c>
+      <c r="H156" s="11">
+        <v>467805</v>
+      </c>
+      <c r="I156" s="11">
+        <v>514967</v>
+      </c>
+      <c r="J156" s="11">
+        <v>612665</v>
+      </c>
+      <c r="K156" s="11">
+        <v>805369</v>
+      </c>
+      <c r="L156" s="11">
+        <v>849252</v>
+      </c>
+      <c r="M156" s="11">
+        <v>874017</v>
+      </c>
+      <c r="N156" s="11">
+        <v>874560</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B160" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L160" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M160" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N160" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B162" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9">
+        <v>65332</v>
+      </c>
+      <c r="F162" s="9">
+        <v>65332</v>
+      </c>
+      <c r="G162" s="9">
+        <v>102023</v>
+      </c>
+      <c r="H162" s="9">
+        <v>121699</v>
+      </c>
+      <c r="I162" s="9">
+        <v>134000</v>
+      </c>
+      <c r="J162" s="9">
+        <v>283999</v>
+      </c>
+      <c r="K162" s="9">
+        <v>284000</v>
+      </c>
+      <c r="L162" s="9">
+        <v>284001</v>
+      </c>
+      <c r="M162" s="9">
+        <v>284000</v>
+      </c>
+      <c r="N162" s="9">
+        <v>377996</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B163" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11">
+        <v>570005</v>
+      </c>
+      <c r="F163" s="11">
+        <v>569932</v>
+      </c>
+      <c r="G163" s="11">
+        <v>568513</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J163" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K163" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L163" s="11">
+        <v>565926</v>
+      </c>
+      <c r="M163" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N163" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B164" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9">
+        <v>172031</v>
+      </c>
+      <c r="F164" s="9">
+        <v>297791</v>
+      </c>
+      <c r="G164" s="9">
+        <v>366168</v>
+      </c>
+      <c r="H164" s="9">
+        <v>365533</v>
+      </c>
+      <c r="I164" s="9">
+        <v>373116</v>
+      </c>
+      <c r="J164" s="9">
+        <v>409961</v>
+      </c>
+      <c r="K164" s="9">
+        <v>409949</v>
+      </c>
+      <c r="L164" s="9">
+        <v>629238</v>
+      </c>
+      <c r="M164" s="9">
+        <v>900003</v>
+      </c>
+      <c r="N164" s="9">
+        <v>899997</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B165" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11">
+        <v>45830</v>
+      </c>
+      <c r="F165" s="11">
+        <v>45813</v>
+      </c>
+      <c r="G165" s="11">
+        <v>81836</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J165" s="11">
+        <v>237548</v>
+      </c>
+      <c r="K165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L165" s="11">
+        <v>237421</v>
+      </c>
+      <c r="M165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N165" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B166" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9">
+        <v>15098</v>
+      </c>
+      <c r="F166" s="9">
+        <v>20037</v>
+      </c>
+      <c r="G166" s="9">
+        <v>31768</v>
+      </c>
+      <c r="H166" s="9">
+        <v>33745</v>
+      </c>
+      <c r="I166" s="9">
+        <v>41081</v>
+      </c>
+      <c r="J166" s="9">
+        <v>34681</v>
+      </c>
+      <c r="K166" s="9">
+        <v>37536</v>
+      </c>
+      <c r="L166" s="9">
+        <v>36500</v>
+      </c>
+      <c r="M166" s="9">
+        <v>36500</v>
+      </c>
+      <c r="N166" s="9">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B167" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11">
+        <v>1150015</v>
+      </c>
+      <c r="F167" s="11">
+        <v>1294855</v>
+      </c>
+      <c r="G167" s="11">
+        <v>1672131</v>
+      </c>
+      <c r="H167" s="11">
+        <v>3602348</v>
+      </c>
+      <c r="I167" s="11">
+        <v>3849821</v>
+      </c>
+      <c r="J167" s="11">
+        <v>3999977</v>
+      </c>
+      <c r="K167" s="11">
+        <v>3999955</v>
+      </c>
+      <c r="L167" s="11">
+        <v>3907035</v>
+      </c>
+      <c r="M167" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N167" s="11">
+        <v>6600069</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B168" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" s="9">
+        <v>484868</v>
+      </c>
+      <c r="H168" s="9">
+        <v>514519</v>
+      </c>
+      <c r="I168" s="9">
+        <v>545891</v>
+      </c>
+      <c r="J168" s="9">
+        <v>680821</v>
+      </c>
+      <c r="K168" s="9">
+        <v>849987</v>
+      </c>
+      <c r="L168" s="9">
+        <v>872781</v>
+      </c>
+      <c r="M168" s="9">
+        <v>880023</v>
+      </c>
+      <c r="N168" s="9">
+        <v>1592214</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B172" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K172" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L172" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M172" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N172" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B174" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N174" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B175" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11">
+        <v>59450</v>
+      </c>
+      <c r="F175" s="11">
+        <v>63524</v>
+      </c>
+      <c r="G175" s="11">
+        <v>175953</v>
+      </c>
+      <c r="H175" s="11">
+        <v>74799</v>
+      </c>
+      <c r="I175" s="11">
+        <v>127804</v>
+      </c>
+      <c r="J175" s="11">
+        <v>243168</v>
+      </c>
+      <c r="K175" s="11">
+        <v>275154</v>
+      </c>
+      <c r="L175" s="11">
+        <v>282650</v>
+      </c>
+      <c r="M175" s="11">
+        <v>283765</v>
+      </c>
+      <c r="N175" s="11">
+        <v>352378</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B176" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9">
+        <v>561581</v>
+      </c>
+      <c r="F176" s="9">
+        <v>567218</v>
+      </c>
+      <c r="G176" s="9">
+        <v>567060</v>
+      </c>
+      <c r="H176" s="9">
+        <v>567359</v>
+      </c>
+      <c r="I176" s="9">
+        <v>566796</v>
+      </c>
+      <c r="J176" s="9">
+        <v>569767</v>
+      </c>
+      <c r="K176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L176" s="9">
+        <v>567823</v>
+      </c>
+      <c r="M176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N176" s="9">
+        <v>567235</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B177" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11">
+        <v>168808</v>
+      </c>
+      <c r="F177" s="11">
+        <v>198480</v>
+      </c>
+      <c r="G177" s="11">
+        <v>286641</v>
+      </c>
+      <c r="H177" s="11">
+        <v>344922</v>
+      </c>
+      <c r="I177" s="11">
+        <v>355149</v>
+      </c>
+      <c r="J177" s="11">
+        <v>372631</v>
+      </c>
+      <c r="K177" s="11">
+        <v>389617</v>
+      </c>
+      <c r="L177" s="11">
+        <v>502058</v>
+      </c>
+      <c r="M177" s="11">
+        <v>850741</v>
+      </c>
+      <c r="N177" s="11">
+        <v>891466</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B178" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9">
+        <v>43864</v>
+      </c>
+      <c r="F178" s="9">
+        <v>44994</v>
+      </c>
+      <c r="G178" s="9">
+        <v>45597</v>
+      </c>
+      <c r="H178" s="9">
+        <v>45601</v>
+      </c>
+      <c r="I178" s="9">
+        <v>45660</v>
+      </c>
+      <c r="J178" s="9">
+        <v>47458</v>
+      </c>
+      <c r="K178" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L178" s="9">
+        <v>63637</v>
+      </c>
+      <c r="M178" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N178" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B179" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11">
+        <v>16153</v>
+      </c>
+      <c r="F179" s="11">
+        <v>16349</v>
+      </c>
+      <c r="G179" s="11">
+        <v>25624</v>
+      </c>
+      <c r="H179" s="11">
+        <v>63091</v>
+      </c>
+      <c r="I179" s="11">
+        <v>16573</v>
+      </c>
+      <c r="J179" s="11">
+        <v>53353</v>
+      </c>
+      <c r="K179" s="11">
+        <v>36722</v>
+      </c>
+      <c r="L179" s="11">
+        <v>4618</v>
+      </c>
+      <c r="M179" s="11">
+        <v>36386</v>
+      </c>
+      <c r="N179" s="11">
+        <v>36232</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B180" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9">
+        <v>1164240</v>
+      </c>
+      <c r="F180" s="9">
+        <v>1172143</v>
+      </c>
+      <c r="G180" s="9">
+        <v>1265769</v>
+      </c>
+      <c r="H180" s="9">
+        <v>2134648</v>
+      </c>
+      <c r="I180" s="9">
+        <v>2901963</v>
+      </c>
+      <c r="J180" s="9">
+        <v>3737030</v>
+      </c>
+      <c r="K180" s="9">
+        <v>3886267</v>
+      </c>
+      <c r="L180" s="9">
+        <v>3903539</v>
+      </c>
+      <c r="M180" s="9">
+        <v>3903538</v>
+      </c>
+      <c r="N180" s="9">
+        <v>4750659</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B181" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G181" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H181" s="11">
+        <v>468441</v>
+      </c>
+      <c r="I181" s="11">
+        <v>515010</v>
+      </c>
+      <c r="J181" s="11">
+        <v>406944</v>
+      </c>
+      <c r="K181" s="11">
+        <v>848846</v>
+      </c>
+      <c r="L181" s="11">
+        <v>863556</v>
+      </c>
+      <c r="M181" s="11">
+        <v>875070</v>
+      </c>
+      <c r="N181" s="11">
+        <v>1409132</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B185" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K185" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M185" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N185" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B187" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H187" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I187" s="9">
+        <v>385027</v>
+      </c>
+      <c r="J187" s="9">
+        <v>385027</v>
+      </c>
+      <c r="K187" s="9">
+        <v>385027</v>
+      </c>
+      <c r="L187" s="9">
+        <v>385027</v>
+      </c>
+      <c r="M187" s="9">
+        <v>385027</v>
+      </c>
+      <c r="N187" s="9">
+        <v>385027</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B188" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H188" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I188" s="11">
+        <v>131511</v>
+      </c>
+      <c r="J188" s="11">
+        <v>258986</v>
+      </c>
+      <c r="K188" s="11">
+        <v>279470</v>
+      </c>
+      <c r="L188" s="11">
+        <v>283236</v>
+      </c>
+      <c r="M188" s="11">
+        <v>283911</v>
+      </c>
+      <c r="N188" s="11">
+        <v>348717</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B189" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I189" s="9">
+        <v>567151</v>
+      </c>
+      <c r="J189" s="9">
+        <v>567147</v>
+      </c>
+      <c r="K189" s="9">
+        <v>567147</v>
+      </c>
+      <c r="L189" s="9">
+        <v>567123</v>
+      </c>
+      <c r="M189" s="9">
+        <v>567123</v>
+      </c>
+      <c r="N189" s="9">
+        <v>567125</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B190" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H190" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I190" s="11">
+        <v>357902</v>
+      </c>
+      <c r="J190" s="11">
+        <v>378004</v>
+      </c>
+      <c r="K190" s="11">
+        <v>391077</v>
+      </c>
+      <c r="L190" s="11">
+        <v>734010</v>
+      </c>
+      <c r="M190" s="11">
+        <v>884878</v>
+      </c>
+      <c r="N190" s="11">
+        <v>893115</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B191" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I191" s="9">
+        <v>45580</v>
+      </c>
+      <c r="J191" s="9">
+        <v>63613</v>
+      </c>
+      <c r="K191" s="9">
+        <v>63613</v>
+      </c>
+      <c r="L191" s="9">
+        <v>71965</v>
+      </c>
+      <c r="M191" s="9">
+        <v>71965</v>
+      </c>
+      <c r="N191" s="9">
+        <v>72041</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B192" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F192" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G192" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H192" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I192" s="11">
+        <v>50589</v>
+      </c>
+      <c r="J192" s="11">
+        <v>34890</v>
+      </c>
+      <c r="K192" s="11">
+        <v>37062</v>
+      </c>
+      <c r="L192" s="11">
+        <v>44320</v>
+      </c>
+      <c r="M192" s="11">
+        <v>46265</v>
+      </c>
+      <c r="N192" s="11">
+        <v>36103</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B193" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H193" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I193" s="9">
+        <v>3379482</v>
+      </c>
+      <c r="J193" s="9">
+        <v>3813739</v>
+      </c>
+      <c r="K193" s="9">
+        <v>3903493</v>
+      </c>
+      <c r="L193" s="9">
+        <v>3903528</v>
+      </c>
+      <c r="M193" s="9">
+        <v>3903521</v>
+      </c>
+      <c r="N193" s="9">
+        <v>5307765</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B194" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F194" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G194" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H194" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I194" s="11">
+        <v>612665</v>
+      </c>
+      <c r="J194" s="11">
+        <v>805369</v>
+      </c>
+      <c r="K194" s="11">
+        <v>849252</v>
+      </c>
+      <c r="L194" s="11">
+        <v>874017</v>
+      </c>
+      <c r="M194" s="11">
+        <v>874560</v>
+      </c>
+      <c r="N194" s="11">
+        <v>1444444</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B198" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K198" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M198" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N198" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B200" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9">
+        <v>5321</v>
+      </c>
+      <c r="F200" s="9">
+        <v>7764</v>
+      </c>
+      <c r="G200" s="9">
+        <v>6812</v>
+      </c>
+      <c r="H200" s="9">
+        <v>15229</v>
+      </c>
+      <c r="I200" s="9">
+        <v>8595</v>
+      </c>
+      <c r="J200" s="9">
+        <v>12929</v>
+      </c>
+      <c r="K200" s="9">
+        <v>-1627</v>
+      </c>
+      <c r="L200" s="9">
+        <v>14465</v>
+      </c>
+      <c r="M200" s="9">
+        <v>12325</v>
+      </c>
+      <c r="N200" s="9">
+        <v>9292</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B201" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11">
+        <v>0</v>
+      </c>
+      <c r="F201" s="11">
+        <v>0</v>
+      </c>
+      <c r="G201" s="11">
+        <v>0</v>
+      </c>
+      <c r="H201" s="11">
+        <v>0</v>
+      </c>
+      <c r="I201" s="11">
+        <v>0</v>
+      </c>
+      <c r="J201" s="11">
+        <v>0</v>
+      </c>
+      <c r="K201" s="11">
+        <v>0</v>
+      </c>
+      <c r="L201" s="11">
+        <v>0</v>
+      </c>
+      <c r="M201" s="11">
+        <v>0</v>
+      </c>
+      <c r="N201" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B202" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B106" s="10" t="s">
+      <c r="C202" s="9"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="9">
+        <v>0</v>
+      </c>
+      <c r="F202" s="9">
+        <v>0</v>
+      </c>
+      <c r="G202" s="9">
+        <v>0</v>
+      </c>
+      <c r="H202" s="9">
+        <v>0</v>
+      </c>
+      <c r="I202" s="9">
+        <v>0</v>
+      </c>
+      <c r="J202" s="9">
+        <v>0</v>
+      </c>
+      <c r="K202" s="9">
+        <v>0</v>
+      </c>
+      <c r="L202" s="9">
+        <v>0</v>
+      </c>
+      <c r="M202" s="9">
+        <v>0</v>
+      </c>
+      <c r="N202" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B203" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11">
+        <v>0</v>
+      </c>
+      <c r="F203" s="11">
+        <v>0</v>
+      </c>
+      <c r="G203" s="11">
+        <v>0</v>
+      </c>
+      <c r="H203" s="11">
+        <v>0</v>
+      </c>
+      <c r="I203" s="11">
+        <v>0</v>
+      </c>
+      <c r="J203" s="11">
+        <v>0</v>
+      </c>
+      <c r="K203" s="11">
+        <v>0</v>
+      </c>
+      <c r="L203" s="11">
+        <v>0</v>
+      </c>
+      <c r="M203" s="11">
+        <v>0</v>
+      </c>
+      <c r="N203" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B204" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B107" s="8" t="s">
+      <c r="C204" s="9"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="9">
+        <v>0</v>
+      </c>
+      <c r="F204" s="9">
+        <v>0</v>
+      </c>
+      <c r="G204" s="9">
+        <v>0</v>
+      </c>
+      <c r="H204" s="9">
+        <v>0</v>
+      </c>
+      <c r="I204" s="9">
+        <v>0</v>
+      </c>
+      <c r="J204" s="9">
+        <v>0</v>
+      </c>
+      <c r="K204" s="9">
+        <v>0</v>
+      </c>
+      <c r="L204" s="9">
+        <v>0</v>
+      </c>
+      <c r="M204" s="9">
+        <v>0</v>
+      </c>
+      <c r="N204" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B205" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C107" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11">
+        <v>125362</v>
+      </c>
+      <c r="F205" s="11">
+        <v>145859</v>
+      </c>
+      <c r="G205" s="11">
+        <v>82974</v>
+      </c>
+      <c r="H205" s="11">
+        <v>180265</v>
+      </c>
+      <c r="I205" s="11">
+        <v>217806</v>
+      </c>
+      <c r="J205" s="11">
+        <v>240475</v>
+      </c>
+      <c r="K205" s="11">
+        <v>444099</v>
+      </c>
+      <c r="L205" s="11">
+        <v>470491</v>
+      </c>
+      <c r="M205" s="11">
+        <v>444162</v>
+      </c>
+      <c r="N205" s="11">
+        <v>437770</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B206" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C206" s="9"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="9">
+        <v>98254</v>
+      </c>
+      <c r="F206" s="9">
+        <v>65099</v>
+      </c>
+      <c r="G206" s="9">
+        <v>136353</v>
+      </c>
+      <c r="H206" s="9">
+        <v>-21428</v>
+      </c>
+      <c r="I206" s="9">
+        <v>101425</v>
+      </c>
+      <c r="J206" s="9">
+        <v>-59636</v>
+      </c>
+      <c r="K206" s="9">
+        <v>26952</v>
+      </c>
+      <c r="L206" s="9">
+        <v>22163</v>
+      </c>
+      <c r="M206" s="9">
+        <v>26694</v>
+      </c>
+      <c r="N206" s="9">
+        <v>27050</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B207" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B109" s="8" t="s">
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11">
+        <v>101251</v>
+      </c>
+      <c r="F207" s="11">
+        <v>92348</v>
+      </c>
+      <c r="G207" s="11">
+        <v>142515</v>
+      </c>
+      <c r="H207" s="11">
+        <v>66060</v>
+      </c>
+      <c r="I207" s="11">
+        <v>136281</v>
+      </c>
+      <c r="J207" s="11">
+        <v>153234</v>
+      </c>
+      <c r="K207" s="11">
+        <v>85870</v>
+      </c>
+      <c r="L207" s="11">
+        <v>150718</v>
+      </c>
+      <c r="M207" s="11">
+        <v>252011</v>
+      </c>
+      <c r="N207" s="11">
+        <v>229871</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B208" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9">
+        <v>0</v>
+      </c>
+      <c r="F208" s="9">
+        <v>0</v>
+      </c>
+      <c r="G208" s="9">
+        <v>0</v>
+      </c>
+      <c r="H208" s="9">
+        <v>0</v>
+      </c>
+      <c r="I208" s="9">
+        <v>0</v>
+      </c>
+      <c r="J208" s="9">
+        <v>0</v>
+      </c>
+      <c r="K208" s="9">
+        <v>0</v>
+      </c>
+      <c r="L208" s="9">
+        <v>0</v>
+      </c>
+      <c r="M208" s="9">
+        <v>0</v>
+      </c>
+      <c r="N208" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B209" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B110" s="10" t="s">
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11">
+        <v>200312</v>
+      </c>
+      <c r="F209" s="11">
+        <v>404612</v>
+      </c>
+      <c r="G209" s="11">
+        <v>296908</v>
+      </c>
+      <c r="H209" s="11">
+        <v>569347</v>
+      </c>
+      <c r="I209" s="11">
+        <v>302049</v>
+      </c>
+      <c r="J209" s="11">
+        <v>681583</v>
+      </c>
+      <c r="K209" s="11">
+        <v>558996</v>
+      </c>
+      <c r="L209" s="11">
+        <v>954298</v>
+      </c>
+      <c r="M209" s="11">
+        <v>634354</v>
+      </c>
+      <c r="N209" s="11">
+        <v>819957</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B210" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15">
+        <v>530500</v>
+      </c>
+      <c r="F210" s="15">
+        <v>715682</v>
+      </c>
+      <c r="G210" s="15">
+        <v>665562</v>
+      </c>
+      <c r="H210" s="15">
+        <v>809473</v>
+      </c>
+      <c r="I210" s="15">
+        <v>766156</v>
+      </c>
+      <c r="J210" s="15">
+        <v>1028585</v>
+      </c>
+      <c r="K210" s="15">
+        <v>1114290</v>
+      </c>
+      <c r="L210" s="15">
+        <v>1612135</v>
+      </c>
+      <c r="M210" s="15">
+        <v>1369546</v>
+      </c>
+      <c r="N210" s="15">
+        <v>1523940</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B214" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B216" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="8" t="s">
+      <c r="C216" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B217" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B112" s="10" t="s">
+      <c r="C217" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B218" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
+      <c r="C218" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B219" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C219" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B114" s="10" t="s">
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B220" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B115" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
+      <c r="C220" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B221" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
+      <c r="C221" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B222" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B223" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B224" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B225" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B226" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B227" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/sekhouz/cost/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553A7D0C-B5C9-4B91-973D-865D4EE98651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -267,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,7 +438,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -449,7 +450,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -496,6 +497,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -531,6 +549,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,17 +717,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -702,7 +737,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -714,7 +749,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -726,7 +761,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -736,7 +771,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -748,7 +783,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -760,7 +795,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -770,7 +805,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -792,7 +827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -802,95 +837,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>386708</v>
+        <v>552333</v>
       </c>
       <c r="F10" s="9">
-        <v>552333</v>
+        <v>473251</v>
       </c>
       <c r="G10" s="9">
-        <v>473251</v>
+        <v>495437</v>
       </c>
       <c r="H10" s="9">
-        <v>495437</v>
+        <v>571475</v>
       </c>
       <c r="I10" s="9">
-        <v>571475</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>747168</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>17155</v>
+        <v>34266</v>
       </c>
       <c r="F11" s="11">
-        <v>34266</v>
+        <v>4535</v>
       </c>
       <c r="G11" s="11">
-        <v>4535</v>
+        <v>32044</v>
       </c>
       <c r="H11" s="11">
-        <v>32044</v>
+        <v>50788</v>
       </c>
       <c r="I11" s="11">
-        <v>50788</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63155</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1028585</v>
+        <v>1114290</v>
       </c>
       <c r="F12" s="9">
-        <v>1114290</v>
+        <v>1612135</v>
       </c>
       <c r="G12" s="9">
-        <v>1612135</v>
+        <v>1369546</v>
       </c>
       <c r="H12" s="9">
-        <v>1369546</v>
+        <v>1523940</v>
       </c>
       <c r="I12" s="9">
-        <v>1523940</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2193669</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1432448</v>
+        <v>1700889</v>
       </c>
       <c r="F13" s="13">
-        <v>1700889</v>
+        <v>2089921</v>
       </c>
       <c r="G13" s="13">
-        <v>2089921</v>
+        <v>1897027</v>
       </c>
       <c r="H13" s="13">
-        <v>1897027</v>
+        <v>2146203</v>
       </c>
       <c r="I13" s="13">
-        <v>2146203</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3003992</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -912,51 +947,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1432448</v>
+        <v>1700889</v>
       </c>
       <c r="F15" s="13">
-        <v>1700889</v>
+        <v>2089921</v>
       </c>
       <c r="G15" s="13">
-        <v>2089921</v>
+        <v>1897027</v>
       </c>
       <c r="H15" s="13">
-        <v>1897027</v>
+        <v>2146203</v>
       </c>
       <c r="I15" s="13">
-        <v>2146203</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3003992</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-125676</v>
+        <v>32862</v>
       </c>
       <c r="F16" s="9">
-        <v>32862</v>
+        <v>50080</v>
       </c>
       <c r="G16" s="9">
-        <v>50080</v>
+        <v>-69201</v>
       </c>
       <c r="H16" s="9">
-        <v>-69201</v>
+        <v>-26757</v>
       </c>
       <c r="I16" s="9">
-        <v>-26757</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>73913</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -978,95 +1013,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1306772</v>
+        <v>1733751</v>
       </c>
       <c r="F18" s="15">
-        <v>1733751</v>
+        <v>2140001</v>
       </c>
       <c r="G18" s="15">
-        <v>2140001</v>
+        <v>1827826</v>
       </c>
       <c r="H18" s="15">
-        <v>1827826</v>
+        <v>2119446</v>
       </c>
       <c r="I18" s="15">
-        <v>2119446</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3077905</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>34283</v>
+        <v>59695</v>
       </c>
       <c r="F19" s="11">
-        <v>59695</v>
+        <v>21950</v>
       </c>
       <c r="G19" s="11">
-        <v>21950</v>
+        <v>70728</v>
       </c>
       <c r="H19" s="11">
-        <v>70728</v>
+        <v>70451</v>
       </c>
       <c r="I19" s="11">
-        <v>70451</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>119053</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-59695</v>
+        <v>-21950</v>
       </c>
       <c r="F20" s="9">
-        <v>-21950</v>
+        <v>-70728</v>
       </c>
       <c r="G20" s="9">
-        <v>-70728</v>
+        <v>-70451</v>
       </c>
       <c r="H20" s="9">
-        <v>-70451</v>
+        <v>-119053</v>
       </c>
       <c r="I20" s="9">
-        <v>-119053</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-170700</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1281360</v>
+        <v>1771496</v>
       </c>
       <c r="F21" s="13">
-        <v>1771496</v>
+        <v>2091223</v>
       </c>
       <c r="G21" s="13">
-        <v>2091223</v>
+        <v>1828103</v>
       </c>
       <c r="H21" s="13">
-        <v>1828103</v>
+        <v>2070844</v>
       </c>
       <c r="I21" s="13">
-        <v>2070844</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3026258</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1088,29 +1123,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1281360</v>
+        <v>1771496</v>
       </c>
       <c r="F23" s="13">
-        <v>1771496</v>
+        <v>2091223</v>
       </c>
       <c r="G23" s="13">
-        <v>2091223</v>
+        <v>1828103</v>
       </c>
       <c r="H23" s="13">
-        <v>1828103</v>
+        <v>2070844</v>
       </c>
       <c r="I23" s="13">
-        <v>2070844</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3026258</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1120,7 +1155,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1130,7 +1165,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1140,7 +1175,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1162,7 +1197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1172,7 +1207,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1196,7 +1231,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -1205,22 +1240,22 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>266746</v>
+        <v>447565</v>
       </c>
       <c r="F30" s="11">
-        <v>447565</v>
+        <v>434934</v>
       </c>
       <c r="G30" s="11">
-        <v>434934</v>
+        <v>353808</v>
       </c>
       <c r="H30" s="11">
-        <v>353808</v>
+        <v>557957</v>
       </c>
       <c r="I30" s="11">
-        <v>557957</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1022603</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
@@ -1229,22 +1264,22 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>52933</v>
+        <v>52847</v>
       </c>
       <c r="F31" s="9">
         <v>52847</v>
       </c>
       <c r="G31" s="9">
-        <v>52847</v>
+        <v>52888</v>
       </c>
       <c r="H31" s="9">
         <v>52888</v>
       </c>
       <c r="I31" s="9">
-        <v>52888</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49959</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>28</v>
       </c>
@@ -1253,22 +1288,22 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>18818</v>
+        <v>14812</v>
       </c>
       <c r="F32" s="11">
-        <v>14812</v>
+        <v>5357</v>
       </c>
       <c r="G32" s="11">
-        <v>5357</v>
+        <v>7286</v>
       </c>
       <c r="H32" s="11">
-        <v>7286</v>
+        <v>29447</v>
       </c>
       <c r="I32" s="11">
-        <v>29447</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>42120</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>29</v>
       </c>
@@ -1277,13 +1312,13 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>30474</v>
+        <v>33311</v>
       </c>
       <c r="F33" s="9">
         <v>33311</v>
       </c>
       <c r="G33" s="9">
-        <v>33311</v>
+        <v>13173</v>
       </c>
       <c r="H33" s="9">
         <v>13173</v>
@@ -1292,7 +1327,7 @@
         <v>13173</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>30</v>
       </c>
@@ -1301,22 +1336,22 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>3415490</v>
+        <v>1820100</v>
       </c>
       <c r="F34" s="11">
-        <v>1820100</v>
+        <v>2860490</v>
       </c>
       <c r="G34" s="11">
-        <v>2860490</v>
+        <v>13778486</v>
       </c>
       <c r="H34" s="11">
-        <v>13778486</v>
+        <v>11073986</v>
       </c>
       <c r="I34" s="11">
-        <v>11073986</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9660986</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1325,22 +1360,22 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>21308</v>
+        <v>52813</v>
       </c>
       <c r="F35" s="9">
-        <v>52813</v>
+        <v>73829</v>
       </c>
       <c r="G35" s="9">
-        <v>73829</v>
+        <v>51735</v>
       </c>
       <c r="H35" s="9">
-        <v>51735</v>
+        <v>30649</v>
       </c>
       <c r="I35" s="9">
-        <v>30649</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30858</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>33</v>
       </c>
@@ -1349,44 +1384,44 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>4611</v>
+        <v>298</v>
       </c>
       <c r="F36" s="11">
-        <v>298</v>
+        <v>869</v>
       </c>
       <c r="G36" s="11">
-        <v>869</v>
+        <v>8898</v>
       </c>
       <c r="H36" s="11">
-        <v>8898</v>
+        <v>1706</v>
       </c>
       <c r="I36" s="11">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>3810567</v>
+        <v>2421933</v>
       </c>
       <c r="F37" s="15">
-        <v>2421933</v>
+        <v>3461824</v>
       </c>
       <c r="G37" s="15">
-        <v>3461824</v>
+        <v>14266461</v>
       </c>
       <c r="H37" s="15">
-        <v>14266461</v>
+        <v>11759993</v>
       </c>
       <c r="I37" s="15">
-        <v>11759993</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10819895</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1396,7 +1431,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1406,7 +1441,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1416,7 +1451,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>34</v>
       </c>
@@ -1438,7 +1473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1448,7 +1483,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
@@ -1472,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>26</v>
       </c>
@@ -1481,22 +1516,22 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>902823</v>
+        <v>1030150</v>
       </c>
       <c r="F44" s="11">
-        <v>1030150</v>
+        <v>1177857</v>
       </c>
       <c r="G44" s="11">
-        <v>1177857</v>
+        <v>1142028</v>
       </c>
       <c r="H44" s="11">
-        <v>1142028</v>
+        <v>1345042</v>
       </c>
       <c r="I44" s="11">
-        <v>1345042</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>423466</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>27</v>
       </c>
@@ -1508,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="G45" s="9">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="H45" s="9">
         <v>0</v>
@@ -1520,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>28</v>
       </c>
@@ -1529,22 +1564,22 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>9557</v>
+        <v>8845</v>
       </c>
       <c r="F46" s="11">
-        <v>8845</v>
+        <v>17963</v>
       </c>
       <c r="G46" s="11">
-        <v>17963</v>
+        <v>37671</v>
       </c>
       <c r="H46" s="11">
-        <v>37671</v>
+        <v>30779</v>
       </c>
       <c r="I46" s="11">
-        <v>30779</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9359</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>29</v>
       </c>
@@ -1553,22 +1588,22 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>3132</v>
+        <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="G47" s="9">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="H47" s="9">
         <v>0</v>
       </c>
       <c r="I47" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>94213</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>30</v>
       </c>
@@ -1577,22 +1612,22 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>1294140</v>
+        <v>5292060</v>
       </c>
       <c r="F48" s="11">
-        <v>5292060</v>
+        <v>14247000</v>
       </c>
       <c r="G48" s="11">
-        <v>14247000</v>
+        <v>758300</v>
       </c>
       <c r="H48" s="11">
-        <v>758300</v>
+        <v>2014060</v>
       </c>
       <c r="I48" s="11">
-        <v>2014060</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2770680</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>32</v>
       </c>
@@ -1601,22 +1636,22 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>44381</v>
+        <v>44879</v>
       </c>
       <c r="F49" s="9">
-        <v>44879</v>
+        <v>796</v>
       </c>
       <c r="G49" s="9">
-        <v>796</v>
+        <v>0</v>
       </c>
       <c r="H49" s="9">
-        <v>0</v>
+        <v>23334</v>
       </c>
       <c r="I49" s="9">
-        <v>23334</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32697</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>33</v>
       </c>
@@ -1625,44 +1660,44 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>4875</v>
+        <v>11659</v>
       </c>
       <c r="F50" s="11">
-        <v>11659</v>
+        <v>11437</v>
       </c>
       <c r="G50" s="11">
-        <v>11437</v>
+        <v>1717</v>
       </c>
       <c r="H50" s="11">
-        <v>1717</v>
+        <v>4983</v>
       </c>
       <c r="I50" s="11">
-        <v>4983</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4965</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
-        <v>2258908</v>
+        <v>6387593</v>
       </c>
       <c r="F51" s="15">
-        <v>6387593</v>
+        <v>15456364</v>
       </c>
       <c r="G51" s="15">
-        <v>15456364</v>
+        <v>1939716</v>
       </c>
       <c r="H51" s="15">
-        <v>1939716</v>
+        <v>3418198</v>
       </c>
       <c r="I51" s="15">
-        <v>3418198</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3335380</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1672,7 +1707,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1682,7 +1717,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1692,7 +1727,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>35</v>
       </c>
@@ -1714,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1724,7 +1759,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
@@ -1748,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>26</v>
       </c>
@@ -1757,22 +1792,22 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>722004</v>
+        <v>1042781</v>
       </c>
       <c r="F58" s="11">
-        <v>1042781</v>
+        <v>1258983</v>
       </c>
       <c r="G58" s="11">
-        <v>1258983</v>
+        <v>937879</v>
       </c>
       <c r="H58" s="11">
-        <v>937879</v>
+        <v>880396</v>
       </c>
       <c r="I58" s="11">
-        <v>880396</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>993974</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>27</v>
       </c>
@@ -1781,22 +1816,22 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F59" s="9">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="G59" s="9">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="H59" s="9">
-        <v>0</v>
+        <v>2930</v>
       </c>
       <c r="I59" s="9">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24344</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>28</v>
       </c>
@@ -1805,22 +1840,22 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>13563</v>
+        <v>18300</v>
       </c>
       <c r="F60" s="11">
-        <v>18300</v>
+        <v>16034</v>
       </c>
       <c r="G60" s="11">
-        <v>16034</v>
+        <v>15510</v>
       </c>
       <c r="H60" s="11">
-        <v>15510</v>
+        <v>18105</v>
       </c>
       <c r="I60" s="11">
-        <v>18105</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26072</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
@@ -1829,22 +1864,22 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="F61" s="9">
-        <v>0</v>
+        <v>20774</v>
       </c>
       <c r="G61" s="9">
-        <v>20774</v>
+        <v>0</v>
       </c>
       <c r="H61" s="9">
         <v>0</v>
       </c>
       <c r="I61" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>39866</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>30</v>
       </c>
@@ -1853,22 +1888,22 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>2889530</v>
+        <v>4251670</v>
       </c>
       <c r="F62" s="11">
-        <v>4251670</v>
+        <v>3329004</v>
       </c>
       <c r="G62" s="11">
-        <v>3329004</v>
+        <v>3462800</v>
       </c>
       <c r="H62" s="11">
-        <v>3462800</v>
+        <v>3427060</v>
       </c>
       <c r="I62" s="11">
-        <v>3427060</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4856183</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>32</v>
       </c>
@@ -1877,22 +1912,22 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>12876</v>
+        <v>23863</v>
       </c>
       <c r="F63" s="9">
-        <v>23863</v>
+        <v>22890</v>
       </c>
       <c r="G63" s="9">
-        <v>22890</v>
+        <v>21086</v>
       </c>
       <c r="H63" s="9">
-        <v>21086</v>
+        <v>23125</v>
       </c>
       <c r="I63" s="9">
-        <v>23125</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27050</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>33</v>
       </c>
@@ -1901,44 +1936,44 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>9188</v>
+        <v>11088</v>
       </c>
       <c r="F64" s="11">
-        <v>11088</v>
+        <v>3408</v>
       </c>
       <c r="G64" s="11">
-        <v>3408</v>
+        <v>8909</v>
       </c>
       <c r="H64" s="11">
-        <v>8909</v>
+        <v>6680</v>
       </c>
       <c r="I64" s="11">
-        <v>6680</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
-        <v>3647542</v>
+        <v>5347702</v>
       </c>
       <c r="F65" s="15">
-        <v>5347702</v>
+        <v>4651727</v>
       </c>
       <c r="G65" s="15">
-        <v>4651727</v>
+        <v>4446184</v>
       </c>
       <c r="H65" s="15">
-        <v>4446184</v>
+        <v>4358296</v>
       </c>
       <c r="I65" s="15">
-        <v>4358296</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5969435</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1948,7 +1983,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1958,7 +1993,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1968,7 +2003,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>36</v>
       </c>
@@ -1990,7 +2025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2000,7 +2035,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
@@ -2024,7 +2059,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>26</v>
       </c>
@@ -2033,22 +2068,22 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>447565</v>
+        <v>434934</v>
       </c>
       <c r="F72" s="11">
-        <v>434934</v>
+        <v>353808</v>
       </c>
       <c r="G72" s="11">
-        <v>353808</v>
+        <v>557957</v>
       </c>
       <c r="H72" s="11">
-        <v>557957</v>
+        <v>1022603</v>
       </c>
       <c r="I72" s="11">
-        <v>1022603</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>452095</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>27</v>
       </c>
@@ -2060,19 +2095,19 @@
         <v>52847</v>
       </c>
       <c r="F73" s="9">
-        <v>52847</v>
+        <v>52888</v>
       </c>
       <c r="G73" s="9">
         <v>52888</v>
       </c>
       <c r="H73" s="9">
-        <v>52888</v>
+        <v>49959</v>
       </c>
       <c r="I73" s="9">
-        <v>49959</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25615</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>28</v>
       </c>
@@ -2081,22 +2116,22 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>14812</v>
+        <v>5357</v>
       </c>
       <c r="F74" s="11">
-        <v>5357</v>
+        <v>7286</v>
       </c>
       <c r="G74" s="11">
-        <v>7286</v>
+        <v>29447</v>
       </c>
       <c r="H74" s="11">
-        <v>29447</v>
+        <v>42120</v>
       </c>
       <c r="I74" s="11">
-        <v>42120</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25407</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>29</v>
       </c>
@@ -2108,7 +2143,7 @@
         <v>33311</v>
       </c>
       <c r="F75" s="9">
-        <v>33311</v>
+        <v>13173</v>
       </c>
       <c r="G75" s="9">
         <v>13173</v>
@@ -2117,10 +2152,10 @@
         <v>13173</v>
       </c>
       <c r="I75" s="9">
-        <v>13173</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>67520</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>30</v>
       </c>
@@ -2129,22 +2164,22 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>1820100</v>
+        <v>2860490</v>
       </c>
       <c r="F76" s="11">
-        <v>2860490</v>
+        <v>13778486</v>
       </c>
       <c r="G76" s="11">
-        <v>13778486</v>
+        <v>11073986</v>
       </c>
       <c r="H76" s="11">
-        <v>11073986</v>
+        <v>9660986</v>
       </c>
       <c r="I76" s="11">
-        <v>9660986</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7575483</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>32</v>
       </c>
@@ -2153,22 +2188,22 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>52813</v>
+        <v>73829</v>
       </c>
       <c r="F77" s="9">
-        <v>73829</v>
+        <v>51735</v>
       </c>
       <c r="G77" s="9">
-        <v>51735</v>
+        <v>30649</v>
       </c>
       <c r="H77" s="9">
-        <v>30649</v>
+        <v>30858</v>
       </c>
       <c r="I77" s="9">
-        <v>30858</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36505</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>33</v>
       </c>
@@ -2177,44 +2212,44 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>298</v>
+        <v>869</v>
       </c>
       <c r="F78" s="11">
-        <v>869</v>
+        <v>8898</v>
       </c>
       <c r="G78" s="11">
-        <v>8898</v>
+        <v>1706</v>
       </c>
       <c r="H78" s="11">
-        <v>1706</v>
+        <v>9</v>
       </c>
       <c r="I78" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>2421933</v>
+        <v>3461824</v>
       </c>
       <c r="F79" s="15">
-        <v>3461824</v>
+        <v>14266461</v>
       </c>
       <c r="G79" s="15">
-        <v>14266461</v>
+        <v>11759993</v>
       </c>
       <c r="H79" s="15">
-        <v>11759993</v>
+        <v>10819895</v>
       </c>
       <c r="I79" s="15">
-        <v>10819895</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8185840</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2224,7 +2259,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2234,7 +2269,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2244,7 +2279,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>37</v>
       </c>
@@ -2266,7 +2301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2276,7 +2311,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -2300,7 +2335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>26</v>
       </c>
@@ -2309,22 +2344,22 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>35080</v>
+        <v>115913</v>
       </c>
       <c r="F86" s="11">
-        <v>115913</v>
+        <v>121551</v>
       </c>
       <c r="G86" s="11">
-        <v>121551</v>
+        <v>100211</v>
       </c>
       <c r="H86" s="11">
-        <v>100211</v>
+        <v>158410</v>
       </c>
       <c r="I86" s="11">
-        <v>158410</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>356599</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>27</v>
       </c>
@@ -2333,22 +2368,22 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>30021</v>
+        <v>29972</v>
       </c>
       <c r="F87" s="9">
         <v>29972</v>
       </c>
       <c r="G87" s="9">
-        <v>29972</v>
+        <v>29994</v>
       </c>
       <c r="H87" s="9">
         <v>29994</v>
       </c>
       <c r="I87" s="9">
-        <v>29994</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28333</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>28</v>
       </c>
@@ -2357,22 +2392,22 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>6735</v>
+        <v>5599</v>
       </c>
       <c r="F88" s="11">
-        <v>5599</v>
+        <v>2095</v>
       </c>
       <c r="G88" s="11">
-        <v>2095</v>
+        <v>5348</v>
       </c>
       <c r="H88" s="11">
-        <v>5348</v>
+        <v>26057</v>
       </c>
       <c r="I88" s="11">
-        <v>26057</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37618</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>29</v>
       </c>
@@ -2381,22 +2416,22 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>1389</v>
+        <v>2119</v>
       </c>
       <c r="F89" s="9">
         <v>2119</v>
       </c>
       <c r="G89" s="9">
-        <v>2119</v>
+        <v>948</v>
       </c>
       <c r="H89" s="9">
         <v>948</v>
       </c>
       <c r="I89" s="9">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>30</v>
       </c>
@@ -2405,22 +2440,22 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>172787</v>
+        <v>63503</v>
       </c>
       <c r="F90" s="11">
-        <v>63503</v>
+        <v>106016</v>
       </c>
       <c r="G90" s="11">
-        <v>106016</v>
+        <v>610660</v>
       </c>
       <c r="H90" s="11">
-        <v>610660</v>
+        <v>512339</v>
       </c>
       <c r="I90" s="11">
-        <v>512339</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>348790</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>32</v>
       </c>
@@ -2429,22 +2464,22 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>72010</v>
+        <v>201415</v>
       </c>
       <c r="F91" s="9">
-        <v>201415</v>
+        <v>288191</v>
       </c>
       <c r="G91" s="9">
-        <v>288191</v>
+        <v>201949</v>
       </c>
       <c r="H91" s="9">
-        <v>201949</v>
+        <v>119639</v>
       </c>
       <c r="I91" s="9">
-        <v>119639</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>163787</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>33</v>
       </c>
@@ -2453,44 +2488,44 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>2825</v>
+        <v>240</v>
       </c>
       <c r="F92" s="11">
-        <v>240</v>
+        <v>738</v>
       </c>
       <c r="G92" s="11">
-        <v>738</v>
+        <v>7777</v>
       </c>
       <c r="H92" s="11">
-        <v>7777</v>
+        <v>1492</v>
       </c>
       <c r="I92" s="11">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>320919</v>
+        <v>418833</v>
       </c>
       <c r="F93" s="15">
-        <v>418833</v>
+        <v>550754</v>
       </c>
       <c r="G93" s="15">
-        <v>550754</v>
+        <v>956959</v>
       </c>
       <c r="H93" s="15">
-        <v>956959</v>
+        <v>848951</v>
       </c>
       <c r="I93" s="15">
-        <v>848951</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>936161</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2500,7 +2535,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2510,7 +2545,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2520,7 +2555,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>39</v>
       </c>
@@ -2542,7 +2577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2552,7 +2587,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>24</v>
       </c>
@@ -2576,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>26</v>
       </c>
@@ -2585,22 +2620,22 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>256401</v>
+        <v>292563</v>
       </c>
       <c r="F100" s="11">
-        <v>292563</v>
+        <v>334512</v>
       </c>
       <c r="G100" s="11">
-        <v>334512</v>
+        <v>324336</v>
       </c>
       <c r="H100" s="11">
-        <v>324336</v>
+        <v>508421</v>
       </c>
       <c r="I100" s="11">
-        <v>508421</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>545747</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>27</v>
       </c>
@@ -2612,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="9">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="G101" s="9">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="H101" s="9">
         <v>0</v>
@@ -2624,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>28</v>
       </c>
@@ -2633,22 +2668,22 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>3918</v>
+        <v>3626</v>
       </c>
       <c r="F102" s="11">
-        <v>3626</v>
+        <v>11303</v>
       </c>
       <c r="G102" s="11">
-        <v>11303</v>
+        <v>33904</v>
       </c>
       <c r="H102" s="11">
-        <v>33904</v>
+        <v>27701</v>
       </c>
       <c r="I102" s="11">
-        <v>27701</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8423</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>29</v>
       </c>
@@ -2657,22 +2692,22 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="F103" s="9">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="G103" s="9">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="H103" s="9">
         <v>0</v>
       </c>
       <c r="I103" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30220</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
@@ -2681,22 +2716,22 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>44882</v>
+        <v>198641</v>
       </c>
       <c r="F104" s="11">
-        <v>198641</v>
+        <v>520016</v>
       </c>
       <c r="G104" s="11">
-        <v>520016</v>
+        <v>27678</v>
       </c>
       <c r="H104" s="11">
-        <v>27678</v>
+        <v>67471</v>
       </c>
       <c r="I104" s="11">
-        <v>67471</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>92784</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>32</v>
       </c>
@@ -2705,22 +2740,22 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>177523</v>
+        <v>179514</v>
       </c>
       <c r="F105" s="9">
-        <v>179514</v>
+        <v>3110</v>
       </c>
       <c r="G105" s="9">
-        <v>3110</v>
+        <v>0</v>
       </c>
       <c r="H105" s="9">
-        <v>0</v>
+        <v>154006</v>
       </c>
       <c r="I105" s="9">
-        <v>154006</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215800</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>33</v>
       </c>
@@ -2729,44 +2764,44 @@
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>3319</v>
+        <v>9910</v>
       </c>
       <c r="F106" s="11">
-        <v>9910</v>
+        <v>9982</v>
       </c>
       <c r="G106" s="11">
-        <v>9982</v>
+        <v>1511</v>
       </c>
       <c r="H106" s="11">
-        <v>1511</v>
+        <v>7934</v>
       </c>
       <c r="I106" s="11">
-        <v>7934</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>486787</v>
+        <v>684254</v>
       </c>
       <c r="F107" s="15">
-        <v>684254</v>
+        <v>879456</v>
       </c>
       <c r="G107" s="15">
-        <v>879456</v>
+        <v>387429</v>
       </c>
       <c r="H107" s="15">
-        <v>387429</v>
+        <v>765533</v>
       </c>
       <c r="I107" s="15">
-        <v>765533</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>900258</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2776,7 +2811,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2786,7 +2821,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2796,7 +2831,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>40</v>
       </c>
@@ -2818,7 +2853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2828,7 +2863,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>24</v>
       </c>
@@ -2852,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>26</v>
       </c>
@@ -2861,22 +2896,22 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>175568</v>
+        <v>286925</v>
       </c>
       <c r="F114" s="11">
-        <v>286925</v>
+        <v>355852</v>
       </c>
       <c r="G114" s="11">
-        <v>355852</v>
+        <v>266137</v>
       </c>
       <c r="H114" s="11">
-        <v>266137</v>
+        <v>310232</v>
       </c>
       <c r="I114" s="11">
-        <v>310232</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>362165</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>27</v>
       </c>
@@ -2885,22 +2920,22 @@
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F115" s="9">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G115" s="9">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="H115" s="9">
-        <v>0</v>
+        <v>1662</v>
       </c>
       <c r="I115" s="9">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13806</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>28</v>
       </c>
@@ -2909,22 +2944,22 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>5054</v>
+        <v>7130</v>
       </c>
       <c r="F116" s="11">
-        <v>7130</v>
+        <v>8050</v>
       </c>
       <c r="G116" s="11">
-        <v>8050</v>
+        <v>13195</v>
       </c>
       <c r="H116" s="11">
-        <v>13195</v>
+        <v>16140</v>
       </c>
       <c r="I116" s="11">
-        <v>16140</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23307</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>29</v>
       </c>
@@ -2933,22 +2968,22 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F117" s="9">
-        <v>0</v>
+        <v>1322</v>
       </c>
       <c r="G117" s="9">
-        <v>1322</v>
+        <v>0</v>
       </c>
       <c r="H117" s="9">
         <v>0</v>
       </c>
       <c r="I117" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11344</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>30</v>
       </c>
@@ -2957,22 +2992,22 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>154166</v>
+        <v>156128</v>
       </c>
       <c r="F118" s="11">
-        <v>156128</v>
+        <v>15372</v>
       </c>
       <c r="G118" s="11">
-        <v>15372</v>
+        <v>125999</v>
       </c>
       <c r="H118" s="11">
-        <v>125999</v>
+        <v>124169</v>
       </c>
       <c r="I118" s="11">
-        <v>124169</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>173858</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>32</v>
       </c>
@@ -2981,22 +3016,22 @@
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
-        <v>48118</v>
+        <v>92738</v>
       </c>
       <c r="F119" s="9">
-        <v>92738</v>
+        <v>89352</v>
       </c>
       <c r="G119" s="9">
-        <v>89352</v>
+        <v>82310</v>
       </c>
       <c r="H119" s="9">
-        <v>82310</v>
+        <v>109859</v>
       </c>
       <c r="I119" s="9">
-        <v>109859</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>159832</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>33</v>
       </c>
@@ -3005,44 +3040,44 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
-        <v>3739</v>
+        <v>9412</v>
       </c>
       <c r="F120" s="11">
-        <v>9412</v>
+        <v>2943</v>
       </c>
       <c r="G120" s="11">
-        <v>2943</v>
+        <v>7796</v>
       </c>
       <c r="H120" s="11">
-        <v>7796</v>
+        <v>9413</v>
       </c>
       <c r="I120" s="11">
-        <v>9413</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
-        <v>386708</v>
+        <v>552333</v>
       </c>
       <c r="F121" s="15">
-        <v>552333</v>
+        <v>473251</v>
       </c>
       <c r="G121" s="15">
-        <v>473251</v>
+        <v>495437</v>
       </c>
       <c r="H121" s="15">
-        <v>495437</v>
+        <v>571475</v>
       </c>
       <c r="I121" s="15">
-        <v>571475</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>747168</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3052,7 +3087,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3062,7 +3097,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3072,7 +3107,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>41</v>
       </c>
@@ -3094,7 +3129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3104,7 +3139,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>24</v>
       </c>
@@ -3128,7 +3163,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>26</v>
       </c>
@@ -3137,22 +3172,22 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>115913</v>
+        <v>121551</v>
       </c>
       <c r="F128" s="11">
-        <v>121551</v>
+        <v>100211</v>
       </c>
       <c r="G128" s="11">
-        <v>100211</v>
+        <v>158410</v>
       </c>
       <c r="H128" s="11">
-        <v>158410</v>
+        <v>356599</v>
       </c>
       <c r="I128" s="11">
-        <v>356599</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>540181</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>27</v>
       </c>
@@ -3164,19 +3199,19 @@
         <v>29972</v>
       </c>
       <c r="F129" s="9">
-        <v>29972</v>
+        <v>29994</v>
       </c>
       <c r="G129" s="9">
         <v>29994</v>
       </c>
       <c r="H129" s="9">
-        <v>29994</v>
+        <v>28333</v>
       </c>
       <c r="I129" s="9">
-        <v>28333</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14527</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>28</v>
       </c>
@@ -3185,22 +3220,22 @@
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>5599</v>
+        <v>2095</v>
       </c>
       <c r="F130" s="11">
-        <v>2095</v>
+        <v>5348</v>
       </c>
       <c r="G130" s="11">
-        <v>5348</v>
+        <v>26057</v>
       </c>
       <c r="H130" s="11">
-        <v>26057</v>
+        <v>37618</v>
       </c>
       <c r="I130" s="11">
-        <v>37618</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22734</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>29</v>
       </c>
@@ -3212,19 +3247,19 @@
         <v>2119</v>
       </c>
       <c r="F131" s="9">
-        <v>2119</v>
+        <v>948</v>
       </c>
       <c r="G131" s="9">
         <v>948</v>
       </c>
       <c r="H131" s="9">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="I131" s="9">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19825</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>30</v>
       </c>
@@ -3233,22 +3268,22 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>63503</v>
+        <v>106016</v>
       </c>
       <c r="F132" s="11">
-        <v>106016</v>
+        <v>610660</v>
       </c>
       <c r="G132" s="11">
-        <v>610660</v>
+        <v>512339</v>
       </c>
       <c r="H132" s="11">
-        <v>512339</v>
+        <v>348790</v>
       </c>
       <c r="I132" s="11">
-        <v>348790</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+        <v>267716</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>32</v>
       </c>
@@ -3257,22 +3292,22 @@
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>201415</v>
+        <v>288191</v>
       </c>
       <c r="F133" s="9">
-        <v>288191</v>
+        <v>201949</v>
       </c>
       <c r="G133" s="9">
-        <v>201949</v>
+        <v>119639</v>
       </c>
       <c r="H133" s="9">
-        <v>119639</v>
+        <v>163787</v>
       </c>
       <c r="I133" s="9">
-        <v>163787</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <v>219755</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>33</v>
       </c>
@@ -3281,44 +3316,44 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>240</v>
+        <v>738</v>
       </c>
       <c r="F134" s="11">
-        <v>738</v>
+        <v>7777</v>
       </c>
       <c r="G134" s="11">
-        <v>7777</v>
+        <v>1492</v>
       </c>
       <c r="H134" s="11">
-        <v>1492</v>
+        <v>13</v>
       </c>
       <c r="I134" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>418833</v>
+        <v>550754</v>
       </c>
       <c r="F135" s="15">
-        <v>550754</v>
+        <v>956959</v>
       </c>
       <c r="G135" s="15">
-        <v>956959</v>
+        <v>848951</v>
       </c>
       <c r="H135" s="15">
-        <v>848951</v>
+        <v>936161</v>
       </c>
       <c r="I135" s="15">
-        <v>936161</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1089251</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3328,7 +3363,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3338,7 +3373,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3348,7 +3383,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>42</v>
       </c>
@@ -3370,7 +3405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3380,7 +3415,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>24</v>
       </c>
@@ -3404,7 +3439,7 @@
         <v>385027</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>26</v>
       </c>
@@ -3413,22 +3448,22 @@
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
-        <v>131511</v>
+        <v>258986</v>
       </c>
       <c r="F142" s="11">
-        <v>258986</v>
+        <v>279470</v>
       </c>
       <c r="G142" s="11">
-        <v>279470</v>
+        <v>283236</v>
       </c>
       <c r="H142" s="11">
-        <v>283236</v>
+        <v>283911</v>
       </c>
       <c r="I142" s="11">
-        <v>283911</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>348717</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>27</v>
       </c>
@@ -3437,22 +3472,22 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>567151</v>
+        <v>567147</v>
       </c>
       <c r="F143" s="9">
         <v>567147</v>
       </c>
       <c r="G143" s="9">
-        <v>567147</v>
+        <v>567123</v>
       </c>
       <c r="H143" s="9">
         <v>567123</v>
       </c>
       <c r="I143" s="9">
-        <v>567123</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+        <v>567125</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>28</v>
       </c>
@@ -3461,22 +3496,22 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>357902</v>
+        <v>378004</v>
       </c>
       <c r="F144" s="11">
-        <v>378004</v>
+        <v>391077</v>
       </c>
       <c r="G144" s="11">
-        <v>391077</v>
+        <v>734010</v>
       </c>
       <c r="H144" s="11">
-        <v>734010</v>
+        <v>884878</v>
       </c>
       <c r="I144" s="11">
-        <v>884878</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>893115</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>29</v>
       </c>
@@ -3485,22 +3520,22 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>45580</v>
+        <v>63613</v>
       </c>
       <c r="F145" s="9">
         <v>63613</v>
       </c>
       <c r="G145" s="9">
-        <v>63613</v>
+        <v>71965</v>
       </c>
       <c r="H145" s="9">
         <v>71965</v>
       </c>
       <c r="I145" s="9">
-        <v>71965</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+        <v>72041</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>30</v>
       </c>
@@ -3509,22 +3544,22 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>50589</v>
+        <v>34890</v>
       </c>
       <c r="F146" s="11">
-        <v>34890</v>
+        <v>37062</v>
       </c>
       <c r="G146" s="11">
-        <v>37062</v>
+        <v>44320</v>
       </c>
       <c r="H146" s="11">
-        <v>44320</v>
+        <v>46265</v>
       </c>
       <c r="I146" s="11">
-        <v>46265</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36103</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>32</v>
       </c>
@@ -3533,22 +3568,22 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>3379482</v>
+        <v>3813739</v>
       </c>
       <c r="F147" s="9">
-        <v>3813739</v>
+        <v>3903493</v>
       </c>
       <c r="G147" s="9">
-        <v>3903493</v>
+        <v>3903528</v>
       </c>
       <c r="H147" s="9">
-        <v>3903528</v>
+        <v>3903521</v>
       </c>
       <c r="I147" s="9">
-        <v>3903521</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5307765</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>33</v>
       </c>
@@ -3557,22 +3592,22 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>612665</v>
+        <v>805369</v>
       </c>
       <c r="F148" s="11">
-        <v>805369</v>
+        <v>849252</v>
       </c>
       <c r="G148" s="11">
-        <v>849252</v>
+        <v>874017</v>
       </c>
       <c r="H148" s="11">
-        <v>874017</v>
+        <v>874560</v>
       </c>
       <c r="I148" s="11">
-        <v>874560</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1444444</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3582,7 +3617,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3592,7 +3627,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3602,7 +3637,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
         <v>45</v>
       </c>
@@ -3624,7 +3659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3634,7 +3669,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>26</v>
       </c>
@@ -3643,22 +3678,22 @@
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
-        <v>283999</v>
+        <v>284000</v>
       </c>
       <c r="F154" s="9">
+        <v>284001</v>
+      </c>
+      <c r="G154" s="9">
         <v>284000</v>
       </c>
-      <c r="G154" s="9">
-        <v>284001</v>
-      </c>
       <c r="H154" s="9">
-        <v>284000</v>
+        <v>377996</v>
       </c>
       <c r="I154" s="9">
-        <v>377996</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1288762</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>27</v>
       </c>
@@ -3669,11 +3704,11 @@
       <c r="E155" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F155" s="11" t="s">
+      <c r="F155" s="11">
+        <v>565926</v>
+      </c>
+      <c r="G155" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="G155" s="11">
-        <v>565926</v>
       </c>
       <c r="H155" s="11" t="s">
         <v>46</v>
@@ -3682,7 +3717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>28</v>
       </c>
@@ -3691,22 +3726,22 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
-        <v>409961</v>
+        <v>409949</v>
       </c>
       <c r="F156" s="9">
-        <v>409949</v>
+        <v>629238</v>
       </c>
       <c r="G156" s="9">
-        <v>629238</v>
+        <v>900003</v>
       </c>
       <c r="H156" s="9">
-        <v>900003</v>
+        <v>899997</v>
       </c>
       <c r="I156" s="9">
-        <v>899997</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>899989</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>29</v>
       </c>
@@ -3714,23 +3749,23 @@
         <v>43</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="11">
-        <v>237548</v>
-      </c>
-      <c r="F157" s="11" t="s">
+      <c r="E157" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G157" s="11">
+      <c r="F157" s="11">
         <v>237421</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="H157" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I157" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I157" s="11">
+        <v>320763</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>30</v>
       </c>
@@ -3739,22 +3774,22 @@
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9">
-        <v>34681</v>
+        <v>37536</v>
       </c>
       <c r="F158" s="9">
-        <v>37536</v>
+        <v>36500</v>
       </c>
       <c r="G158" s="9">
         <v>36500</v>
       </c>
       <c r="H158" s="9">
-        <v>36500</v>
+        <v>33500</v>
       </c>
       <c r="I158" s="9">
-        <v>33500</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33488</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>32</v>
       </c>
@@ -3763,22 +3798,22 @@
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="11">
-        <v>3999977</v>
+        <v>3999955</v>
       </c>
       <c r="F159" s="11">
-        <v>3999955</v>
-      </c>
-      <c r="G159" s="11">
         <v>3907035</v>
       </c>
-      <c r="H159" s="11" t="s">
+      <c r="G159" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="H159" s="11">
+        <v>6600069</v>
+      </c>
       <c r="I159" s="11">
-        <v>6600069</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6599994</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>33</v>
       </c>
@@ -3787,22 +3822,22 @@
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9">
-        <v>680821</v>
+        <v>849987</v>
       </c>
       <c r="F160" s="9">
-        <v>849987</v>
+        <v>872781</v>
       </c>
       <c r="G160" s="9">
-        <v>872781</v>
+        <v>880023</v>
       </c>
       <c r="H160" s="9">
-        <v>880023</v>
+        <v>1592214</v>
       </c>
       <c r="I160" s="9">
-        <v>1592214</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1467069</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3812,7 +3847,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3822,7 +3857,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3832,7 +3867,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B164" s="7" t="s">
         <v>47</v>
       </c>
@@ -3854,7 +3889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3864,7 +3899,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>24</v>
       </c>
@@ -3888,7 +3923,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>26</v>
       </c>
@@ -3897,22 +3932,22 @@
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="11">
-        <v>243168</v>
+        <v>275154</v>
       </c>
       <c r="F167" s="11">
-        <v>275154</v>
+        <v>282650</v>
       </c>
       <c r="G167" s="11">
-        <v>282650</v>
+        <v>283765</v>
       </c>
       <c r="H167" s="11">
-        <v>283765</v>
+        <v>352378</v>
       </c>
       <c r="I167" s="11">
-        <v>352378</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+        <v>364361</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>27</v>
       </c>
@@ -3920,23 +3955,23 @@
         <v>43</v>
       </c>
       <c r="D168" s="9"/>
-      <c r="E168" s="9">
-        <v>569767</v>
-      </c>
-      <c r="F168" s="9" t="s">
+      <c r="E168" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G168" s="9">
+      <c r="F168" s="9">
         <v>567823</v>
       </c>
-      <c r="H168" s="9" t="s">
+      <c r="G168" s="9" t="s">
         <v>46</v>
       </c>
+      <c r="H168" s="9">
+        <v>567235</v>
+      </c>
       <c r="I168" s="9">
-        <v>567235</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+        <v>567121</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>28</v>
       </c>
@@ -3945,22 +3980,22 @@
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11">
-        <v>372631</v>
+        <v>389617</v>
       </c>
       <c r="F169" s="11">
-        <v>389617</v>
+        <v>502058</v>
       </c>
       <c r="G169" s="11">
-        <v>502058</v>
+        <v>850741</v>
       </c>
       <c r="H169" s="11">
-        <v>850741</v>
+        <v>891466</v>
       </c>
       <c r="I169" s="11">
-        <v>891466</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+        <v>893948</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>29</v>
       </c>
@@ -3968,23 +4003,23 @@
         <v>43</v>
       </c>
       <c r="D170" s="9"/>
-      <c r="E170" s="9">
-        <v>47458</v>
-      </c>
-      <c r="F170" s="9" t="s">
+      <c r="E170" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G170" s="9">
+      <c r="F170" s="9">
         <v>63637</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="H170" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I170" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I170" s="9">
+        <v>284553</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>30</v>
       </c>
@@ -3993,22 +4028,22 @@
       </c>
       <c r="D171" s="11"/>
       <c r="E171" s="11">
-        <v>53353</v>
+        <v>36722</v>
       </c>
       <c r="F171" s="11">
-        <v>36722</v>
+        <v>4618</v>
       </c>
       <c r="G171" s="11">
-        <v>4618</v>
+        <v>36386</v>
       </c>
       <c r="H171" s="11">
-        <v>36386</v>
+        <v>36232</v>
       </c>
       <c r="I171" s="11">
-        <v>36232</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>32</v>
       </c>
@@ -4017,22 +4052,22 @@
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9">
-        <v>3737030</v>
+        <v>3886267</v>
       </c>
       <c r="F172" s="9">
-        <v>3886267</v>
+        <v>3903539</v>
       </c>
       <c r="G172" s="9">
-        <v>3903539</v>
+        <v>3903538</v>
       </c>
       <c r="H172" s="9">
-        <v>3903538</v>
+        <v>4750659</v>
       </c>
       <c r="I172" s="9">
-        <v>4750659</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5908762</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>33</v>
       </c>
@@ -4041,22 +4076,22 @@
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11">
-        <v>406944</v>
+        <v>848846</v>
       </c>
       <c r="F173" s="11">
-        <v>848846</v>
+        <v>863556</v>
       </c>
       <c r="G173" s="11">
-        <v>863556</v>
+        <v>875070</v>
       </c>
       <c r="H173" s="11">
-        <v>875070</v>
+        <v>1409132</v>
       </c>
       <c r="I173" s="11">
-        <v>1409132</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1467626</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4066,7 +4101,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4076,7 +4111,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4086,7 +4121,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>48</v>
       </c>
@@ -4108,7 +4143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4118,7 +4153,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>24</v>
       </c>
@@ -4142,7 +4177,7 @@
         <v>385027</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>26</v>
       </c>
@@ -4151,22 +4186,22 @@
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
-        <v>258986</v>
+        <v>279470</v>
       </c>
       <c r="F180" s="11">
-        <v>279470</v>
+        <v>283236</v>
       </c>
       <c r="G180" s="11">
-        <v>283236</v>
+        <v>283911</v>
       </c>
       <c r="H180" s="11">
-        <v>283911</v>
+        <v>348717</v>
       </c>
       <c r="I180" s="11">
-        <v>348717</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1194840</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>27</v>
       </c>
@@ -4178,19 +4213,19 @@
         <v>567147</v>
       </c>
       <c r="F181" s="9">
-        <v>567147</v>
+        <v>567123</v>
       </c>
       <c r="G181" s="9">
         <v>567123</v>
       </c>
       <c r="H181" s="9">
-        <v>567123</v>
+        <v>567125</v>
       </c>
       <c r="I181" s="9">
-        <v>567125</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+        <v>567129</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>28</v>
       </c>
@@ -4199,22 +4234,22 @@
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
-        <v>378004</v>
+        <v>391077</v>
       </c>
       <c r="F182" s="11">
-        <v>391077</v>
+        <v>734010</v>
       </c>
       <c r="G182" s="11">
-        <v>734010</v>
+        <v>884878</v>
       </c>
       <c r="H182" s="11">
-        <v>884878</v>
+        <v>893115</v>
       </c>
       <c r="I182" s="11">
-        <v>893115</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+        <v>894793</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>29</v>
       </c>
@@ -4226,19 +4261,19 @@
         <v>63613</v>
       </c>
       <c r="F183" s="9">
-        <v>63613</v>
+        <v>71965</v>
       </c>
       <c r="G183" s="9">
         <v>71965</v>
       </c>
       <c r="H183" s="9">
-        <v>71965</v>
+        <v>72041</v>
       </c>
       <c r="I183" s="9">
-        <v>72041</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+        <v>293617</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>30</v>
       </c>
@@ -4247,22 +4282,22 @@
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
-        <v>34890</v>
+        <v>37062</v>
       </c>
       <c r="F184" s="11">
-        <v>37062</v>
+        <v>44320</v>
       </c>
       <c r="G184" s="11">
-        <v>44320</v>
+        <v>46265</v>
       </c>
       <c r="H184" s="11">
-        <v>46265</v>
+        <v>36103</v>
       </c>
       <c r="I184" s="11">
-        <v>36103</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35340</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>32</v>
       </c>
@@ -4271,22 +4306,22 @@
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9">
-        <v>3813739</v>
+        <v>3903493</v>
       </c>
       <c r="F185" s="9">
-        <v>3903493</v>
+        <v>3903528</v>
       </c>
       <c r="G185" s="9">
-        <v>3903528</v>
+        <v>3903521</v>
       </c>
       <c r="H185" s="9">
-        <v>3903521</v>
+        <v>5307765</v>
       </c>
       <c r="I185" s="9">
-        <v>5307765</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6019860</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>33</v>
       </c>
@@ -4295,22 +4330,22 @@
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
-        <v>805369</v>
+        <v>849252</v>
       </c>
       <c r="F186" s="11">
-        <v>849252</v>
+        <v>874017</v>
       </c>
       <c r="G186" s="11">
-        <v>874017</v>
+        <v>874560</v>
       </c>
       <c r="H186" s="11">
-        <v>874560</v>
+        <v>1444444</v>
       </c>
       <c r="I186" s="11">
-        <v>1444444</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1466645</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4320,7 +4355,7 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4330,7 +4365,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4340,7 +4375,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B190" s="7" t="s">
         <v>49</v>
       </c>
@@ -4362,7 +4397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4372,29 +4407,29 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9">
-        <v>12929</v>
+        <v>-1627</v>
       </c>
       <c r="F192" s="9">
-        <v>-1627</v>
+        <v>14465</v>
       </c>
       <c r="G192" s="9">
-        <v>14465</v>
+        <v>12325</v>
       </c>
       <c r="H192" s="9">
-        <v>12325</v>
+        <v>9292</v>
       </c>
       <c r="I192" s="9">
-        <v>9292</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-21617</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>51</v>
       </c>
@@ -4416,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>52</v>
       </c>
@@ -4438,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>53</v>
       </c>
@@ -4460,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>54</v>
       </c>
@@ -4479,76 +4514,76 @@
         <v>0</v>
       </c>
       <c r="I196" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+        <v>252897</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11">
-        <v>240475</v>
+        <v>444099</v>
       </c>
       <c r="F197" s="11">
-        <v>444099</v>
+        <v>470491</v>
       </c>
       <c r="G197" s="11">
-        <v>470491</v>
+        <v>444162</v>
       </c>
       <c r="H197" s="11">
-        <v>444162</v>
+        <v>437770</v>
       </c>
       <c r="I197" s="11">
-        <v>437770</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+        <v>758652</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9">
-        <v>-59636</v>
+        <v>26952</v>
       </c>
       <c r="F198" s="9">
-        <v>26952</v>
+        <v>22163</v>
       </c>
       <c r="G198" s="9">
-        <v>22163</v>
+        <v>26694</v>
       </c>
       <c r="H198" s="9">
-        <v>26694</v>
+        <v>27050</v>
       </c>
       <c r="I198" s="9">
-        <v>27050</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26945</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11">
-        <v>153234</v>
+        <v>85870</v>
       </c>
       <c r="F199" s="11">
-        <v>85870</v>
+        <v>150718</v>
       </c>
       <c r="G199" s="11">
-        <v>150718</v>
+        <v>252011</v>
       </c>
       <c r="H199" s="11">
-        <v>252011</v>
+        <v>229871</v>
       </c>
       <c r="I199" s="11">
-        <v>229871</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+        <v>627470</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="8" t="s">
         <v>58</v>
       </c>
@@ -4570,51 +4605,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11">
-        <v>681583</v>
+        <v>558996</v>
       </c>
       <c r="F201" s="11">
-        <v>558996</v>
+        <v>954298</v>
       </c>
       <c r="G201" s="11">
-        <v>954298</v>
+        <v>634354</v>
       </c>
       <c r="H201" s="11">
-        <v>634354</v>
+        <v>819957</v>
       </c>
       <c r="I201" s="11">
-        <v>819957</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+        <v>549322</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15">
-        <v>1028585</v>
+        <v>1114290</v>
       </c>
       <c r="F202" s="15">
-        <v>1114290</v>
+        <v>1612135</v>
       </c>
       <c r="G202" s="15">
-        <v>1612135</v>
+        <v>1369546</v>
       </c>
       <c r="H202" s="15">
-        <v>1369546</v>
+        <v>1523940</v>
       </c>
       <c r="I202" s="15">
-        <v>1523940</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2193669</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -4624,7 +4659,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4634,7 +4669,7 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -4644,7 +4679,7 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B206" s="7" t="s">
         <v>60</v>
       </c>
@@ -4656,7 +4691,7 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -4666,7 +4701,7 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B208" s="8" t="s">
         <v>61</v>
       </c>
@@ -4680,7 +4715,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="10" t="s">
         <v>63</v>
       </c>
@@ -4691,7 +4726,7 @@
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="8" t="s">
         <v>65</v>
       </c>
@@ -4702,7 +4737,7 @@
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="10" t="s">
         <v>66</v>
       </c>
@@ -4713,7 +4748,7 @@
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="8" t="s">
         <v>68</v>
       </c>
@@ -4724,7 +4759,7 @@
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="10" t="s">
         <v>70</v>
       </c>
@@ -4735,7 +4770,7 @@
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="8" t="s">
         <v>72</v>
       </c>
@@ -4746,7 +4781,7 @@
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="10" t="s">
         <v>74</v>
       </c>
@@ -4757,7 +4792,7 @@
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="8" t="s">
         <v>76</v>
       </c>
@@ -4768,7 +4803,7 @@
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" s="10" t="s">
         <v>78</v>
       </c>
@@ -4779,7 +4814,7 @@
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="8" t="s">
         <v>80</v>
       </c>
@@ -4790,7 +4825,7 @@
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="10" t="s">
         <v>74</v>
       </c>

--- a/database/industries/siman/sekhouz/cost/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553A7D0C-B5C9-4B91-973D-865D4EE98651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979AD257-C15B-420E-BC59-BB09E3DA08F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -718,16 +733,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I219"/>
+  <dimension ref="B1:N219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -736,8 +751,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -748,8 +768,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -760,8 +785,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -770,8 +800,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -782,8 +817,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -794,8 +834,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -804,8 +849,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -826,8 +876,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -836,98 +901,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>160686</v>
+      </c>
+      <c r="F10" s="9">
+        <v>225040</v>
+      </c>
+      <c r="G10" s="9">
+        <v>405360</v>
+      </c>
+      <c r="H10" s="9">
+        <v>239995</v>
+      </c>
+      <c r="I10" s="9">
+        <v>386708</v>
+      </c>
+      <c r="J10" s="9">
         <v>552333</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>473251</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>495437</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>571475</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>747168</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>21561</v>
+      </c>
+      <c r="F11" s="11">
+        <v>12799</v>
+      </c>
+      <c r="G11" s="11">
+        <v>29841</v>
+      </c>
+      <c r="H11" s="11">
+        <v>22142</v>
+      </c>
+      <c r="I11" s="11">
+        <v>17155</v>
+      </c>
+      <c r="J11" s="11">
         <v>34266</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>4535</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>32044</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>50788</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>63155</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>715682</v>
+      </c>
+      <c r="F12" s="9">
+        <v>665562</v>
+      </c>
+      <c r="G12" s="9">
+        <v>809473</v>
+      </c>
+      <c r="H12" s="9">
+        <v>766156</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1028585</v>
+      </c>
+      <c r="J12" s="9">
         <v>1114290</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>1612135</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>1369546</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>1523940</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>2193669</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>897929</v>
+      </c>
+      <c r="F13" s="13">
+        <v>903401</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1244674</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1028293</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1432448</v>
+      </c>
+      <c r="J13" s="13">
         <v>1700889</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>2089921</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1897027</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>2146203</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>3003992</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -946,54 +1076,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>897929</v>
+      </c>
+      <c r="F15" s="13">
+        <v>903401</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1244674</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1028293</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1432448</v>
+      </c>
+      <c r="J15" s="13">
         <v>1700889</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>2089921</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>1897027</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>2146203</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>3003992</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>49719</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-14734</v>
+      </c>
+      <c r="G16" s="9">
+        <v>61660</v>
+      </c>
+      <c r="H16" s="9">
+        <v>31154</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-125676</v>
+      </c>
+      <c r="J16" s="9">
         <v>32862</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>50080</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-69201</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-26757</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>73913</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1012,98 +1187,173 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>947648</v>
+      </c>
+      <c r="F18" s="15">
+        <v>888667</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1306334</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1059447</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1306772</v>
+      </c>
+      <c r="J18" s="15">
         <v>1733751</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>2140001</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>1827826</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>2119446</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>3077905</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>15151</v>
+      </c>
+      <c r="H19" s="11">
+        <v>39509</v>
+      </c>
+      <c r="I19" s="11">
+        <v>34283</v>
+      </c>
+      <c r="J19" s="11">
         <v>59695</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>21950</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>70728</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>70451</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>119053</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-3293</v>
+      </c>
+      <c r="F20" s="9">
+        <v>15151</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-39509</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-34283</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-59695</v>
+      </c>
+      <c r="J20" s="9">
         <v>-21950</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-70728</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-70451</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-119053</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-170700</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>944355</v>
+      </c>
+      <c r="F21" s="13">
+        <v>903818</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1288775</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1064673</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1281360</v>
+      </c>
+      <c r="J21" s="13">
         <v>1771496</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>2091223</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>1828103</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>2070844</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>3026258</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1122,30 +1372,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>944355</v>
+      </c>
+      <c r="F23" s="13">
+        <v>903818</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1288775</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1064673</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1281360</v>
+      </c>
+      <c r="J23" s="13">
         <v>1771496</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>2091223</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>1828103</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>2070844</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>3026258</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1154,8 +1434,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1164,8 +1449,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1174,10 +1464,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1196,8 +1491,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1206,13 +1516,18 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
@@ -1230,198 +1545,333 @@
       <c r="I29" s="9">
         <v>187</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="9">
+        <v>187</v>
+      </c>
+      <c r="K29" s="9">
+        <v>187</v>
+      </c>
+      <c r="L29" s="9">
+        <v>187</v>
+      </c>
+      <c r="M29" s="9">
+        <v>187</v>
+      </c>
+      <c r="N29" s="9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>906662</v>
+      </c>
+      <c r="F30" s="11">
+        <v>732825</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1179021</v>
+      </c>
+      <c r="H30" s="11">
+        <v>333470</v>
+      </c>
+      <c r="I30" s="11">
+        <v>266746</v>
+      </c>
+      <c r="J30" s="11">
         <v>447565</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>434934</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>353808</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>557957</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>1022603</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>65135</v>
+      </c>
+      <c r="F31" s="9">
+        <v>63903</v>
+      </c>
+      <c r="G31" s="9">
+        <v>58311</v>
+      </c>
+      <c r="H31" s="9">
+        <v>54475</v>
+      </c>
+      <c r="I31" s="9">
+        <v>52933</v>
+      </c>
+      <c r="J31" s="9">
         <v>52847</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>52847</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>52888</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>52888</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>49959</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>30332</v>
+      </c>
+      <c r="F32" s="11">
+        <v>17134</v>
+      </c>
+      <c r="G32" s="11">
+        <v>22844</v>
+      </c>
+      <c r="H32" s="11">
+        <v>20284</v>
+      </c>
+      <c r="I32" s="11">
+        <v>18818</v>
+      </c>
+      <c r="J32" s="11">
         <v>14812</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>5357</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>7286</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>29447</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>42120</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>100859</v>
+      </c>
+      <c r="F33" s="9">
+        <v>90451</v>
+      </c>
+      <c r="G33" s="9">
+        <v>62369</v>
+      </c>
+      <c r="H33" s="9">
+        <v>39344</v>
+      </c>
+      <c r="I33" s="9">
+        <v>30474</v>
+      </c>
+      <c r="J33" s="9">
         <v>33311</v>
       </c>
-      <c r="F33" s="9">
+      <c r="K33" s="9">
         <v>33311</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>13173</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>13173</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>13173</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>3122963</v>
+      </c>
+      <c r="F34" s="11">
+        <v>515063</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1572040</v>
+      </c>
+      <c r="H34" s="11">
+        <v>6038036</v>
+      </c>
+      <c r="I34" s="11">
+        <v>3415490</v>
+      </c>
+      <c r="J34" s="11">
         <v>1820100</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>2860490</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>13778486</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>11073986</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>9660986</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>44885</v>
+      </c>
+      <c r="F35" s="9">
+        <v>35003</v>
+      </c>
+      <c r="G35" s="9">
+        <v>23566</v>
+      </c>
+      <c r="H35" s="9">
+        <v>18479</v>
+      </c>
+      <c r="I35" s="9">
+        <v>21308</v>
+      </c>
+      <c r="J35" s="9">
         <v>52813</v>
       </c>
-      <c r="F35" s="9">
+      <c r="K35" s="9">
         <v>73829</v>
       </c>
-      <c r="G35" s="9">
+      <c r="L35" s="9">
         <v>51735</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>30649</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>30858</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>235</v>
+      </c>
+      <c r="F36" s="11">
+        <v>235</v>
+      </c>
+      <c r="G36" s="11">
+        <v>4861</v>
+      </c>
+      <c r="H36" s="11">
+        <v>5412</v>
+      </c>
+      <c r="I36" s="11">
+        <v>4611</v>
+      </c>
+      <c r="J36" s="11">
         <v>298</v>
       </c>
-      <c r="F36" s="11">
+      <c r="K36" s="11">
         <v>869</v>
       </c>
-      <c r="G36" s="11">
+      <c r="L36" s="11">
         <v>8898</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>1706</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
+        <v>4271258</v>
+      </c>
+      <c r="F37" s="15">
+        <v>1454801</v>
+      </c>
+      <c r="G37" s="15">
+        <v>2923199</v>
+      </c>
+      <c r="H37" s="15">
+        <v>6509687</v>
+      </c>
+      <c r="I37" s="15">
+        <v>3810567</v>
+      </c>
+      <c r="J37" s="15">
         <v>2421933</v>
       </c>
-      <c r="F37" s="15">
+      <c r="K37" s="15">
         <v>3461824</v>
       </c>
-      <c r="G37" s="15">
+      <c r="L37" s="15">
         <v>14266461</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>11759993</v>
       </c>
-      <c r="I37" s="15">
+      <c r="N37" s="15">
         <v>10819895</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1430,8 +1880,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1440,8 +1895,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1450,10 +1910,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1472,8 +1937,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1482,13 +1962,18 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
@@ -1506,198 +1991,333 @@
       <c r="I43" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="9">
+        <v>0</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
+        <v>813143</v>
+      </c>
+      <c r="F44" s="11">
+        <v>864142</v>
+      </c>
+      <c r="G44" s="11">
+        <v>885412</v>
+      </c>
+      <c r="H44" s="11">
+        <v>889395</v>
+      </c>
+      <c r="I44" s="11">
+        <v>902823</v>
+      </c>
+      <c r="J44" s="11">
         <v>1030150</v>
       </c>
-      <c r="F44" s="11">
+      <c r="K44" s="11">
         <v>1177857</v>
       </c>
-      <c r="G44" s="11">
+      <c r="L44" s="11">
         <v>1142028</v>
       </c>
-      <c r="H44" s="11">
+      <c r="M44" s="11">
         <v>1345042</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>423466</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>0</v>
+        <v>3246</v>
       </c>
       <c r="F45" s="9">
+        <v>686</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9">
         <v>675</v>
       </c>
-      <c r="G45" s="9">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L45" s="9">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>11273</v>
+      </c>
+      <c r="F46" s="11">
+        <v>25278</v>
+      </c>
+      <c r="G46" s="11">
+        <v>17733</v>
+      </c>
+      <c r="H46" s="11">
+        <v>11613</v>
+      </c>
+      <c r="I46" s="11">
+        <v>9557</v>
+      </c>
+      <c r="J46" s="11">
         <v>8845</v>
       </c>
-      <c r="F46" s="11">
+      <c r="K46" s="11">
         <v>17963</v>
       </c>
-      <c r="G46" s="11">
+      <c r="L46" s="11">
         <v>37671</v>
       </c>
-      <c r="H46" s="11">
+      <c r="M46" s="11">
         <v>30779</v>
       </c>
-      <c r="I46" s="11">
+      <c r="N46" s="11">
         <v>9359</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>0</v>
+        <v>19907</v>
       </c>
       <c r="F47" s="9">
+        <v>1503</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>3132</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
         <v>636</v>
       </c>
-      <c r="G47" s="9">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9">
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9">
         <v>94213</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>1243800</v>
+      </c>
+      <c r="F48" s="11">
+        <v>5590280</v>
+      </c>
+      <c r="G48" s="11">
+        <v>7653968</v>
+      </c>
+      <c r="H48" s="11">
+        <v>670430</v>
+      </c>
+      <c r="I48" s="11">
+        <v>1294140</v>
+      </c>
+      <c r="J48" s="11">
         <v>5292060</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>14247000</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>758300</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>2014060</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>2770680</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
+        <v>12518</v>
+      </c>
+      <c r="F49" s="9">
+        <v>8174</v>
+      </c>
+      <c r="G49" s="9">
+        <v>17035</v>
+      </c>
+      <c r="H49" s="9">
+        <v>19843</v>
+      </c>
+      <c r="I49" s="9">
+        <v>44381</v>
+      </c>
+      <c r="J49" s="9">
         <v>44879</v>
       </c>
-      <c r="F49" s="9">
+      <c r="K49" s="9">
         <v>796</v>
       </c>
-      <c r="G49" s="9">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9">
+      <c r="L49" s="9">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
         <v>23334</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>32697</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>4626</v>
+      </c>
+      <c r="G50" s="11">
+        <v>5510</v>
+      </c>
+      <c r="H50" s="11">
+        <v>14589</v>
+      </c>
+      <c r="I50" s="11">
+        <v>4875</v>
+      </c>
+      <c r="J50" s="11">
         <v>11659</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>11437</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>1717</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>4983</v>
       </c>
-      <c r="I50" s="11">
+      <c r="N50" s="11">
         <v>4965</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
+        <v>2103887</v>
+      </c>
+      <c r="F51" s="15">
+        <v>6494689</v>
+      </c>
+      <c r="G51" s="15">
+        <v>8579658</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1605870</v>
+      </c>
+      <c r="I51" s="15">
+        <v>2258908</v>
+      </c>
+      <c r="J51" s="15">
         <v>6387593</v>
       </c>
-      <c r="F51" s="15">
+      <c r="K51" s="15">
         <v>15456364</v>
       </c>
-      <c r="G51" s="15">
+      <c r="L51" s="15">
         <v>1939716</v>
       </c>
-      <c r="H51" s="15">
+      <c r="M51" s="15">
         <v>3418198</v>
       </c>
-      <c r="I51" s="15">
+      <c r="N51" s="15">
         <v>3335380</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1706,8 +2326,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1716,8 +2341,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1726,10 +2356,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1748,8 +2383,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1758,13 +2408,18 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
@@ -1782,198 +2437,333 @@
       <c r="I57" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="9">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0</v>
+      </c>
+      <c r="M57" s="9">
+        <v>0</v>
+      </c>
+      <c r="N57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>986980</v>
+      </c>
+      <c r="F58" s="11">
+        <v>417946</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1730963</v>
+      </c>
+      <c r="H58" s="11">
+        <v>956119</v>
+      </c>
+      <c r="I58" s="11">
+        <v>722004</v>
+      </c>
+      <c r="J58" s="11">
         <v>1042781</v>
       </c>
-      <c r="F58" s="11">
+      <c r="K58" s="11">
         <v>1258983</v>
       </c>
-      <c r="G58" s="11">
+      <c r="L58" s="11">
         <v>937879</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>880396</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>993974</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>0</v>
+        <v>4478</v>
       </c>
       <c r="F59" s="9">
+        <v>6278</v>
+      </c>
+      <c r="G59" s="9">
+        <v>3756</v>
+      </c>
+      <c r="H59" s="9">
+        <v>1542</v>
+      </c>
+      <c r="I59" s="9">
+        <v>86</v>
+      </c>
+      <c r="J59" s="9">
+        <v>0</v>
+      </c>
+      <c r="K59" s="9">
         <v>634</v>
       </c>
-      <c r="G59" s="9">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9">
+      <c r="L59" s="9">
+        <v>0</v>
+      </c>
+      <c r="M59" s="9">
         <v>2930</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>24344</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>24471</v>
+      </c>
+      <c r="F60" s="11">
+        <v>19568</v>
+      </c>
+      <c r="G60" s="11">
+        <v>18697</v>
+      </c>
+      <c r="H60" s="11">
+        <v>13079</v>
+      </c>
+      <c r="I60" s="11">
+        <v>13563</v>
+      </c>
+      <c r="J60" s="11">
         <v>18300</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>16034</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>15510</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>18105</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>26072</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>0</v>
+        <v>30315</v>
       </c>
       <c r="F61" s="9">
+        <v>29585</v>
+      </c>
+      <c r="G61" s="9">
+        <v>23026</v>
+      </c>
+      <c r="H61" s="9">
+        <v>8870</v>
+      </c>
+      <c r="I61" s="9">
+        <v>295</v>
+      </c>
+      <c r="J61" s="9">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9">
         <v>20774</v>
       </c>
-      <c r="G61" s="9">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9">
+      <c r="L61" s="9">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9">
+        <v>0</v>
+      </c>
+      <c r="N61" s="9">
         <v>39866</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
+        <v>3851700</v>
+      </c>
+      <c r="F62" s="11">
+        <v>4533303</v>
+      </c>
+      <c r="G62" s="11">
+        <v>3435071</v>
+      </c>
+      <c r="H62" s="11">
+        <v>3292976</v>
+      </c>
+      <c r="I62" s="11">
+        <v>2889530</v>
+      </c>
+      <c r="J62" s="11">
         <v>4251670</v>
       </c>
-      <c r="F62" s="11">
+      <c r="K62" s="11">
         <v>3329004</v>
       </c>
-      <c r="G62" s="11">
+      <c r="L62" s="11">
         <v>3462800</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>3427060</v>
       </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>4856183</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
+        <v>22400</v>
+      </c>
+      <c r="F63" s="9">
+        <v>19611</v>
+      </c>
+      <c r="G63" s="9">
+        <v>22117</v>
+      </c>
+      <c r="H63" s="9">
+        <v>17014</v>
+      </c>
+      <c r="I63" s="9">
+        <v>12876</v>
+      </c>
+      <c r="J63" s="9">
         <v>23863</v>
       </c>
-      <c r="F63" s="9">
+      <c r="K63" s="9">
         <v>22890</v>
       </c>
-      <c r="G63" s="9">
+      <c r="L63" s="9">
         <v>21086</v>
       </c>
-      <c r="H63" s="9">
+      <c r="M63" s="9">
         <v>23125</v>
       </c>
-      <c r="I63" s="9">
+      <c r="N63" s="9">
         <v>27050</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <v>4959</v>
+      </c>
+      <c r="H64" s="11">
+        <v>15390</v>
+      </c>
+      <c r="I64" s="11">
+        <v>9188</v>
+      </c>
+      <c r="J64" s="11">
         <v>11088</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>3408</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>8909</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>6680</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>1946</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
+        <v>4920344</v>
+      </c>
+      <c r="F65" s="15">
+        <v>5026291</v>
+      </c>
+      <c r="G65" s="15">
+        <v>5238589</v>
+      </c>
+      <c r="H65" s="15">
+        <v>4304990</v>
+      </c>
+      <c r="I65" s="15">
+        <v>3647542</v>
+      </c>
+      <c r="J65" s="15">
         <v>5347702</v>
       </c>
-      <c r="F65" s="15">
+      <c r="K65" s="15">
         <v>4651727</v>
       </c>
-      <c r="G65" s="15">
+      <c r="L65" s="15">
         <v>4446184</v>
       </c>
-      <c r="H65" s="15">
+      <c r="M65" s="15">
         <v>4358296</v>
       </c>
-      <c r="I65" s="15">
+      <c r="N65" s="15">
         <v>5969435</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1982,8 +2772,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1992,8 +2787,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2002,10 +2802,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2024,8 +2829,23 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2034,13 +2854,18 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
@@ -2058,198 +2883,333 @@
       <c r="I71" s="9">
         <v>187</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="9">
+        <v>187</v>
+      </c>
+      <c r="K71" s="9">
+        <v>187</v>
+      </c>
+      <c r="L71" s="9">
+        <v>187</v>
+      </c>
+      <c r="M71" s="9">
+        <v>187</v>
+      </c>
+      <c r="N71" s="9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>732825</v>
+      </c>
+      <c r="F72" s="11">
+        <v>1179021</v>
+      </c>
+      <c r="G72" s="11">
+        <v>333470</v>
+      </c>
+      <c r="H72" s="11">
+        <v>266746</v>
+      </c>
+      <c r="I72" s="11">
+        <v>447565</v>
+      </c>
+      <c r="J72" s="11">
         <v>434934</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>353808</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>557957</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>1022603</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>452095</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
+        <v>63903</v>
+      </c>
+      <c r="F73" s="9">
+        <v>58311</v>
+      </c>
+      <c r="G73" s="9">
+        <v>54555</v>
+      </c>
+      <c r="H73" s="9">
+        <v>52933</v>
+      </c>
+      <c r="I73" s="9">
         <v>52847</v>
       </c>
-      <c r="F73" s="9">
+      <c r="J73" s="9">
+        <v>52847</v>
+      </c>
+      <c r="K73" s="9">
         <v>52888</v>
       </c>
-      <c r="G73" s="9">
+      <c r="L73" s="9">
         <v>52888</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>49959</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>25615</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
+        <v>17134</v>
+      </c>
+      <c r="F74" s="11">
+        <v>22844</v>
+      </c>
+      <c r="G74" s="11">
+        <v>21880</v>
+      </c>
+      <c r="H74" s="11">
+        <v>18818</v>
+      </c>
+      <c r="I74" s="11">
+        <v>14812</v>
+      </c>
+      <c r="J74" s="11">
         <v>5357</v>
       </c>
-      <c r="F74" s="11">
+      <c r="K74" s="11">
         <v>7286</v>
       </c>
-      <c r="G74" s="11">
+      <c r="L74" s="11">
         <v>29447</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>42120</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>25407</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
+        <v>90451</v>
+      </c>
+      <c r="F75" s="9">
+        <v>62369</v>
+      </c>
+      <c r="G75" s="9">
+        <v>39343</v>
+      </c>
+      <c r="H75" s="9">
+        <v>30474</v>
+      </c>
+      <c r="I75" s="9">
         <v>33311</v>
       </c>
-      <c r="F75" s="9">
+      <c r="J75" s="9">
+        <v>33311</v>
+      </c>
+      <c r="K75" s="9">
         <v>13173</v>
       </c>
-      <c r="G75" s="9">
+      <c r="L75" s="9">
         <v>13173</v>
       </c>
-      <c r="H75" s="9">
+      <c r="M75" s="9">
         <v>13173</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>67520</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>515063</v>
+      </c>
+      <c r="F76" s="11">
+        <v>1572040</v>
+      </c>
+      <c r="G76" s="11">
+        <v>5790937</v>
+      </c>
+      <c r="H76" s="11">
+        <v>3415490</v>
+      </c>
+      <c r="I76" s="11">
+        <v>1820100</v>
+      </c>
+      <c r="J76" s="11">
         <v>2860490</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>13778486</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>11073986</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>9660986</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>7575483</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>35003</v>
+      </c>
+      <c r="F77" s="9">
+        <v>23566</v>
+      </c>
+      <c r="G77" s="9">
+        <v>18484</v>
+      </c>
+      <c r="H77" s="9">
+        <v>21308</v>
+      </c>
+      <c r="I77" s="9">
+        <v>52813</v>
+      </c>
+      <c r="J77" s="9">
         <v>73829</v>
       </c>
-      <c r="F77" s="9">
+      <c r="K77" s="9">
         <v>51735</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>30649</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>30858</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>36505</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>235</v>
+      </c>
+      <c r="F78" s="11">
+        <v>4861</v>
+      </c>
+      <c r="G78" s="11">
+        <v>5412</v>
+      </c>
+      <c r="H78" s="11">
+        <v>4611</v>
+      </c>
+      <c r="I78" s="11">
+        <v>298</v>
+      </c>
+      <c r="J78" s="11">
         <v>869</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>8898</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>1706</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>9</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>3028</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
+        <v>1454801</v>
+      </c>
+      <c r="F79" s="15">
+        <v>2923199</v>
+      </c>
+      <c r="G79" s="15">
+        <v>6264268</v>
+      </c>
+      <c r="H79" s="15">
+        <v>3810567</v>
+      </c>
+      <c r="I79" s="15">
+        <v>2421933</v>
+      </c>
+      <c r="J79" s="15">
         <v>3461824</v>
       </c>
-      <c r="F79" s="15">
+      <c r="K79" s="15">
         <v>14266461</v>
       </c>
-      <c r="G79" s="15">
+      <c r="L79" s="15">
         <v>11759993</v>
       </c>
-      <c r="H79" s="15">
+      <c r="M79" s="15">
         <v>10819895</v>
       </c>
-      <c r="I79" s="15">
+      <c r="N79" s="15">
         <v>8185840</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2258,8 +3218,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2268,8 +3233,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2278,10 +3248,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2300,8 +3275,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2310,13 +3300,18 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
@@ -2334,198 +3329,333 @@
       <c r="I85" s="9">
         <v>72</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="9">
+        <v>72</v>
+      </c>
+      <c r="K85" s="9">
+        <v>72</v>
+      </c>
+      <c r="L85" s="9">
+        <v>72</v>
+      </c>
+      <c r="M85" s="9">
+        <v>72</v>
+      </c>
+      <c r="N85" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>55761</v>
+      </c>
+      <c r="F86" s="11">
+        <v>46188</v>
+      </c>
+      <c r="G86" s="11">
+        <v>60811</v>
+      </c>
+      <c r="H86" s="11">
+        <v>38097</v>
+      </c>
+      <c r="I86" s="11">
+        <v>35080</v>
+      </c>
+      <c r="J86" s="11">
         <v>115913</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>121551</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>100211</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>158410</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>356599</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
+        <v>36885</v>
+      </c>
+      <c r="F87" s="9">
+        <v>36195</v>
+      </c>
+      <c r="G87" s="9">
+        <v>33025</v>
+      </c>
+      <c r="H87" s="9">
+        <v>30895</v>
+      </c>
+      <c r="I87" s="9">
+        <v>30021</v>
+      </c>
+      <c r="J87" s="9">
         <v>29972</v>
       </c>
-      <c r="F87" s="9">
+      <c r="K87" s="9">
         <v>29972</v>
       </c>
-      <c r="G87" s="9">
+      <c r="L87" s="9">
         <v>29994</v>
       </c>
-      <c r="H87" s="9">
+      <c r="M87" s="9">
         <v>29994</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>28333</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
+        <v>4672</v>
+      </c>
+      <c r="F88" s="11">
+        <v>3172</v>
+      </c>
+      <c r="G88" s="11">
+        <v>6819</v>
+      </c>
+      <c r="H88" s="11">
+        <v>7047</v>
+      </c>
+      <c r="I88" s="11">
+        <v>6735</v>
+      </c>
+      <c r="J88" s="11">
         <v>5599</v>
       </c>
-      <c r="F88" s="11">
+      <c r="K88" s="11">
         <v>2095</v>
       </c>
-      <c r="G88" s="11">
+      <c r="L88" s="11">
         <v>5348</v>
       </c>
-      <c r="H88" s="11">
+      <c r="M88" s="11">
         <v>26057</v>
       </c>
-      <c r="I88" s="11">
+      <c r="N88" s="11">
         <v>37618</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
+        <v>5149</v>
+      </c>
+      <c r="F89" s="9">
+        <v>4697</v>
+      </c>
+      <c r="G89" s="9">
+        <v>3471</v>
+      </c>
+      <c r="H89" s="9">
+        <v>1794</v>
+      </c>
+      <c r="I89" s="9">
+        <v>1389</v>
+      </c>
+      <c r="J89" s="9">
         <v>2119</v>
       </c>
-      <c r="F89" s="9">
+      <c r="K89" s="9">
         <v>2119</v>
       </c>
-      <c r="G89" s="9">
+      <c r="L89" s="9">
         <v>948</v>
       </c>
-      <c r="H89" s="9">
+      <c r="M89" s="9">
         <v>948</v>
       </c>
-      <c r="I89" s="9">
+      <c r="N89" s="9">
         <v>949</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>47349</v>
+      </c>
+      <c r="F90" s="11">
+        <v>9299</v>
+      </c>
+      <c r="G90" s="11">
+        <v>70730</v>
+      </c>
+      <c r="H90" s="11">
+        <v>199820</v>
+      </c>
+      <c r="I90" s="11">
+        <v>172787</v>
+      </c>
+      <c r="J90" s="11">
         <v>63503</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>106016</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>610660</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>512339</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>348790</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>50910</v>
+      </c>
+      <c r="F91" s="9">
+        <v>40863</v>
+      </c>
+      <c r="G91" s="9">
+        <v>29708</v>
+      </c>
+      <c r="H91" s="9">
+        <v>44992</v>
+      </c>
+      <c r="I91" s="9">
+        <v>72010</v>
+      </c>
+      <c r="J91" s="9">
         <v>201415</v>
       </c>
-      <c r="F91" s="9">
+      <c r="K91" s="9">
         <v>288191</v>
       </c>
-      <c r="G91" s="9">
+      <c r="L91" s="9">
         <v>201949</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>119639</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>163787</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>31</v>
+      </c>
+      <c r="F92" s="11">
+        <v>31</v>
+      </c>
+      <c r="G92" s="11">
+        <v>2274</v>
+      </c>
+      <c r="H92" s="11">
+        <v>2787</v>
+      </c>
+      <c r="I92" s="11">
+        <v>2825</v>
+      </c>
+      <c r="J92" s="11">
         <v>240</v>
       </c>
-      <c r="F92" s="11">
+      <c r="K92" s="11">
         <v>738</v>
       </c>
-      <c r="G92" s="11">
+      <c r="L92" s="11">
         <v>7777</v>
       </c>
-      <c r="H92" s="11">
+      <c r="M92" s="11">
         <v>1492</v>
       </c>
-      <c r="I92" s="11">
+      <c r="N92" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
+        <v>200829</v>
+      </c>
+      <c r="F93" s="15">
+        <v>140517</v>
+      </c>
+      <c r="G93" s="15">
+        <v>206910</v>
+      </c>
+      <c r="H93" s="15">
+        <v>325504</v>
+      </c>
+      <c r="I93" s="15">
+        <v>320919</v>
+      </c>
+      <c r="J93" s="15">
         <v>418833</v>
       </c>
-      <c r="F93" s="15">
+      <c r="K93" s="15">
         <v>550754</v>
       </c>
-      <c r="G93" s="15">
+      <c r="L93" s="15">
         <v>956959</v>
       </c>
-      <c r="H93" s="15">
+      <c r="M93" s="15">
         <v>848951</v>
       </c>
-      <c r="I93" s="15">
+      <c r="N93" s="15">
         <v>936161</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2534,8 +3664,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2544,8 +3679,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2554,10 +3694,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2576,8 +3721,23 @@
       <c r="I97" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2586,13 +3746,18 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
@@ -2610,198 +3775,333 @@
       <c r="I99" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="9">
+        <v>0</v>
+      </c>
+      <c r="K99" s="9">
+        <v>0</v>
+      </c>
+      <c r="L99" s="9">
+        <v>0</v>
+      </c>
+      <c r="M99" s="9">
+        <v>0</v>
+      </c>
+      <c r="N99" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>53124</v>
+      </c>
+      <c r="F100" s="11">
+        <v>88162</v>
+      </c>
+      <c r="G100" s="11">
+        <v>107754</v>
+      </c>
+      <c r="H100" s="11">
+        <v>119179</v>
+      </c>
+      <c r="I100" s="11">
+        <v>256401</v>
+      </c>
+      <c r="J100" s="11">
         <v>292563</v>
       </c>
-      <c r="F100" s="11">
+      <c r="K100" s="11">
         <v>334512</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>324336</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>508421</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>545747</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="F101" s="9">
+        <v>390</v>
+      </c>
+      <c r="G101" s="9">
+        <v>0</v>
+      </c>
+      <c r="H101" s="9">
+        <v>0</v>
+      </c>
+      <c r="I101" s="9">
+        <v>0</v>
+      </c>
+      <c r="J101" s="9">
+        <v>0</v>
+      </c>
+      <c r="K101" s="9">
         <v>382</v>
       </c>
-      <c r="G101" s="9">
-        <v>0</v>
-      </c>
-      <c r="H101" s="9">
-        <v>0</v>
-      </c>
-      <c r="I101" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L101" s="9">
+        <v>0</v>
+      </c>
+      <c r="M101" s="9">
+        <v>0</v>
+      </c>
+      <c r="N101" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>3357</v>
+      </c>
+      <c r="F102" s="11">
+        <v>9256</v>
+      </c>
+      <c r="G102" s="11">
+        <v>6482</v>
+      </c>
+      <c r="H102" s="11">
+        <v>4333</v>
+      </c>
+      <c r="I102" s="11">
+        <v>3918</v>
+      </c>
+      <c r="J102" s="11">
         <v>3626</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>11303</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>33904</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>27701</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>8423</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="F103" s="9">
+        <v>123</v>
+      </c>
+      <c r="G103" s="9">
+        <v>0</v>
+      </c>
+      <c r="H103" s="9">
+        <v>0</v>
+      </c>
+      <c r="I103" s="9">
+        <v>744</v>
+      </c>
+      <c r="J103" s="9">
+        <v>0</v>
+      </c>
+      <c r="K103" s="9">
         <v>151</v>
       </c>
-      <c r="G103" s="9">
-        <v>0</v>
-      </c>
-      <c r="H103" s="9">
-        <v>0</v>
-      </c>
-      <c r="I103" s="9">
+      <c r="L103" s="9">
+        <v>0</v>
+      </c>
+      <c r="M103" s="9">
+        <v>0</v>
+      </c>
+      <c r="N103" s="9">
         <v>30220</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>24922</v>
+      </c>
+      <c r="F104" s="11">
+        <v>177591</v>
+      </c>
+      <c r="G104" s="11">
+        <v>258282</v>
+      </c>
+      <c r="H104" s="11">
+        <v>27542</v>
+      </c>
+      <c r="I104" s="11">
+        <v>44882</v>
+      </c>
+      <c r="J104" s="11">
         <v>198641</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>520016</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>27678</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>67471</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>92784</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>16209</v>
+      </c>
+      <c r="F105" s="9">
+        <v>13668</v>
+      </c>
+      <c r="G105" s="9">
+        <v>61366</v>
+      </c>
+      <c r="H105" s="9">
+        <v>76392</v>
+      </c>
+      <c r="I105" s="9">
+        <v>177523</v>
+      </c>
+      <c r="J105" s="9">
         <v>179514</v>
       </c>
-      <c r="F105" s="9">
+      <c r="K105" s="9">
         <v>3110</v>
       </c>
-      <c r="G105" s="9">
-        <v>0</v>
-      </c>
-      <c r="H105" s="9">
+      <c r="L105" s="9">
+        <v>0</v>
+      </c>
+      <c r="M105" s="9">
         <v>154006</v>
       </c>
-      <c r="I105" s="9">
+      <c r="N105" s="9">
         <v>215800</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>0</v>
+      </c>
+      <c r="F106" s="11">
+        <v>2243</v>
+      </c>
+      <c r="G106" s="11">
+        <v>2835</v>
+      </c>
+      <c r="H106" s="11">
+        <v>7964</v>
+      </c>
+      <c r="I106" s="11">
+        <v>3319</v>
+      </c>
+      <c r="J106" s="11">
         <v>9910</v>
       </c>
-      <c r="F106" s="11">
+      <c r="K106" s="11">
         <v>9982</v>
       </c>
-      <c r="G106" s="11">
+      <c r="L106" s="11">
         <v>1511</v>
       </c>
-      <c r="H106" s="11">
+      <c r="M106" s="11">
         <v>7934</v>
       </c>
-      <c r="I106" s="11">
+      <c r="N106" s="11">
         <v>7284</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>100374</v>
+      </c>
+      <c r="F107" s="15">
+        <v>291433</v>
+      </c>
+      <c r="G107" s="15">
+        <v>436719</v>
+      </c>
+      <c r="H107" s="15">
+        <v>235410</v>
+      </c>
+      <c r="I107" s="15">
+        <v>486787</v>
+      </c>
+      <c r="J107" s="15">
         <v>684254</v>
       </c>
-      <c r="F107" s="15">
+      <c r="K107" s="15">
         <v>879456</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>387429</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>765533</v>
       </c>
-      <c r="I107" s="15">
+      <c r="N107" s="15">
         <v>900258</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2810,8 +4110,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2820,8 +4125,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2830,10 +4140,15 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2852,8 +4167,23 @@
       <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2862,13 +4192,18 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
@@ -2886,198 +4221,333 @@
       <c r="I113" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="9">
+        <v>0</v>
+      </c>
+      <c r="K113" s="9">
+        <v>0</v>
+      </c>
+      <c r="L113" s="9">
+        <v>0</v>
+      </c>
+      <c r="M113" s="9">
+        <v>0</v>
+      </c>
+      <c r="N113" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>62697</v>
+      </c>
+      <c r="F114" s="11">
+        <v>73539</v>
+      </c>
+      <c r="G114" s="11">
+        <v>129474</v>
+      </c>
+      <c r="H114" s="11">
+        <v>122196</v>
+      </c>
+      <c r="I114" s="11">
+        <v>175568</v>
+      </c>
+      <c r="J114" s="11">
         <v>286925</v>
       </c>
-      <c r="F114" s="11">
+      <c r="K114" s="11">
         <v>355852</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>266137</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>310232</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>362165</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>0</v>
+        <v>2540</v>
       </c>
       <c r="F115" s="9">
+        <v>3560</v>
+      </c>
+      <c r="G115" s="9">
+        <v>2131</v>
+      </c>
+      <c r="H115" s="9">
+        <v>874</v>
+      </c>
+      <c r="I115" s="9">
+        <v>49</v>
+      </c>
+      <c r="J115" s="9">
+        <v>0</v>
+      </c>
+      <c r="K115" s="9">
         <v>360</v>
       </c>
-      <c r="G115" s="9">
-        <v>0</v>
-      </c>
-      <c r="H115" s="9">
+      <c r="L115" s="9">
+        <v>0</v>
+      </c>
+      <c r="M115" s="9">
         <v>1662</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>13806</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>4857</v>
+      </c>
+      <c r="F116" s="11">
+        <v>5609</v>
+      </c>
+      <c r="G116" s="11">
+        <v>6449</v>
+      </c>
+      <c r="H116" s="11">
+        <v>4645</v>
+      </c>
+      <c r="I116" s="11">
+        <v>5054</v>
+      </c>
+      <c r="J116" s="11">
         <v>7130</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>8050</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>13195</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>16140</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>23307</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>0</v>
+        <v>1364</v>
       </c>
       <c r="F117" s="9">
+        <v>1349</v>
+      </c>
+      <c r="G117" s="9">
+        <v>1050</v>
+      </c>
+      <c r="H117" s="9">
+        <v>405</v>
+      </c>
+      <c r="I117" s="9">
+        <v>14</v>
+      </c>
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
         <v>1322</v>
       </c>
-      <c r="G117" s="9">
-        <v>0</v>
-      </c>
-      <c r="H117" s="9">
-        <v>0</v>
-      </c>
-      <c r="I117" s="9">
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9">
         <v>11344</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>62972</v>
+      </c>
+      <c r="F118" s="11">
+        <v>116160</v>
+      </c>
+      <c r="G118" s="11">
+        <v>216721</v>
+      </c>
+      <c r="H118" s="11">
+        <v>54575</v>
+      </c>
+      <c r="I118" s="11">
+        <v>154166</v>
+      </c>
+      <c r="J118" s="11">
         <v>156128</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>15372</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>125999</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>124169</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>173858</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
+        <v>26256</v>
+      </c>
+      <c r="F119" s="9">
+        <v>24823</v>
+      </c>
+      <c r="G119" s="9">
+        <v>47212</v>
+      </c>
+      <c r="H119" s="9">
+        <v>49374</v>
+      </c>
+      <c r="I119" s="9">
+        <v>48118</v>
+      </c>
+      <c r="J119" s="9">
         <v>92738</v>
       </c>
-      <c r="F119" s="9">
+      <c r="K119" s="9">
         <v>89352</v>
       </c>
-      <c r="G119" s="9">
+      <c r="L119" s="9">
         <v>82310</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>109859</v>
       </c>
-      <c r="I119" s="9">
+      <c r="N119" s="9">
         <v>159832</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
+        <v>0</v>
+      </c>
+      <c r="F120" s="11">
+        <v>0</v>
+      </c>
+      <c r="G120" s="11">
+        <v>2323</v>
+      </c>
+      <c r="H120" s="11">
+        <v>7926</v>
+      </c>
+      <c r="I120" s="11">
+        <v>3739</v>
+      </c>
+      <c r="J120" s="11">
         <v>9412</v>
       </c>
-      <c r="F120" s="11">
+      <c r="K120" s="11">
         <v>2943</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>7796</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>9413</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>2856</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
+        <v>160686</v>
+      </c>
+      <c r="F121" s="15">
+        <v>225040</v>
+      </c>
+      <c r="G121" s="15">
+        <v>405360</v>
+      </c>
+      <c r="H121" s="15">
+        <v>239995</v>
+      </c>
+      <c r="I121" s="15">
+        <v>386708</v>
+      </c>
+      <c r="J121" s="15">
         <v>552333</v>
       </c>
-      <c r="F121" s="15">
+      <c r="K121" s="15">
         <v>473251</v>
       </c>
-      <c r="G121" s="15">
+      <c r="L121" s="15">
         <v>495437</v>
       </c>
-      <c r="H121" s="15">
+      <c r="M121" s="15">
         <v>571475</v>
       </c>
-      <c r="I121" s="15">
+      <c r="N121" s="15">
         <v>747168</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3086,8 +4556,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3096,8 +4571,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3106,10 +4586,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3128,8 +4613,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3138,13 +4638,18 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
@@ -3162,198 +4667,333 @@
       <c r="I127" s="9">
         <v>72</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="9">
+        <v>72</v>
+      </c>
+      <c r="K127" s="9">
+        <v>72</v>
+      </c>
+      <c r="L127" s="9">
+        <v>72</v>
+      </c>
+      <c r="M127" s="9">
+        <v>72</v>
+      </c>
+      <c r="N127" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>46188</v>
+      </c>
+      <c r="F128" s="11">
+        <v>60811</v>
+      </c>
+      <c r="G128" s="11">
+        <v>39091</v>
+      </c>
+      <c r="H128" s="11">
+        <v>35080</v>
+      </c>
+      <c r="I128" s="11">
+        <v>115913</v>
+      </c>
+      <c r="J128" s="11">
         <v>121551</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>100211</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>158410</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>356599</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>540181</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
+        <v>36195</v>
+      </c>
+      <c r="F129" s="9">
+        <v>33025</v>
+      </c>
+      <c r="G129" s="9">
+        <v>30894</v>
+      </c>
+      <c r="H129" s="9">
+        <v>30021</v>
+      </c>
+      <c r="I129" s="9">
         <v>29972</v>
       </c>
-      <c r="F129" s="9">
+      <c r="J129" s="9">
+        <v>29972</v>
+      </c>
+      <c r="K129" s="9">
         <v>29994</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>29994</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>28333</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>14527</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
+        <v>3172</v>
+      </c>
+      <c r="F130" s="11">
+        <v>6819</v>
+      </c>
+      <c r="G130" s="11">
+        <v>6852</v>
+      </c>
+      <c r="H130" s="11">
+        <v>6735</v>
+      </c>
+      <c r="I130" s="11">
+        <v>5599</v>
+      </c>
+      <c r="J130" s="11">
         <v>2095</v>
       </c>
-      <c r="F130" s="11">
+      <c r="K130" s="11">
         <v>5348</v>
       </c>
-      <c r="G130" s="11">
+      <c r="L130" s="11">
         <v>26057</v>
       </c>
-      <c r="H130" s="11">
+      <c r="M130" s="11">
         <v>37618</v>
       </c>
-      <c r="I130" s="11">
+      <c r="N130" s="11">
         <v>22734</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
+        <v>4697</v>
+      </c>
+      <c r="F131" s="9">
+        <v>3471</v>
+      </c>
+      <c r="G131" s="9">
+        <v>2421</v>
+      </c>
+      <c r="H131" s="9">
+        <v>1389</v>
+      </c>
+      <c r="I131" s="9">
         <v>2119</v>
       </c>
-      <c r="F131" s="9">
+      <c r="J131" s="9">
+        <v>2119</v>
+      </c>
+      <c r="K131" s="9">
         <v>948</v>
       </c>
-      <c r="G131" s="9">
+      <c r="L131" s="9">
         <v>948</v>
       </c>
-      <c r="H131" s="9">
+      <c r="M131" s="9">
         <v>949</v>
       </c>
-      <c r="I131" s="9">
+      <c r="N131" s="9">
         <v>19825</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
+        <v>9299</v>
+      </c>
+      <c r="F132" s="11">
+        <v>70730</v>
+      </c>
+      <c r="G132" s="11">
+        <v>112291</v>
+      </c>
+      <c r="H132" s="11">
+        <v>172787</v>
+      </c>
+      <c r="I132" s="11">
+        <v>63503</v>
+      </c>
+      <c r="J132" s="11">
         <v>106016</v>
       </c>
-      <c r="F132" s="11">
+      <c r="K132" s="11">
         <v>610660</v>
       </c>
-      <c r="G132" s="11">
+      <c r="L132" s="11">
         <v>512339</v>
       </c>
-      <c r="H132" s="11">
+      <c r="M132" s="11">
         <v>348790</v>
       </c>
-      <c r="I132" s="11">
+      <c r="N132" s="11">
         <v>267716</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
+        <v>40863</v>
+      </c>
+      <c r="F133" s="9">
+        <v>29708</v>
+      </c>
+      <c r="G133" s="9">
+        <v>43862</v>
+      </c>
+      <c r="H133" s="9">
+        <v>72010</v>
+      </c>
+      <c r="I133" s="9">
+        <v>201415</v>
+      </c>
+      <c r="J133" s="9">
         <v>288191</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>201949</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>119639</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>163787</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>219755</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>31</v>
+      </c>
+      <c r="F134" s="11">
+        <v>2274</v>
+      </c>
+      <c r="G134" s="11">
+        <v>2786</v>
+      </c>
+      <c r="H134" s="11">
+        <v>2825</v>
+      </c>
+      <c r="I134" s="11">
+        <v>240</v>
+      </c>
+      <c r="J134" s="11">
         <v>738</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>7777</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>1492</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>13</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>4441</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
+        <v>140517</v>
+      </c>
+      <c r="F135" s="15">
+        <v>206910</v>
+      </c>
+      <c r="G135" s="15">
+        <v>238269</v>
+      </c>
+      <c r="H135" s="15">
+        <v>320919</v>
+      </c>
+      <c r="I135" s="15">
+        <v>418833</v>
+      </c>
+      <c r="J135" s="15">
         <v>550754</v>
       </c>
-      <c r="F135" s="15">
+      <c r="K135" s="15">
         <v>956959</v>
       </c>
-      <c r="G135" s="15">
+      <c r="L135" s="15">
         <v>848951</v>
       </c>
-      <c r="H135" s="15">
+      <c r="M135" s="15">
         <v>936161</v>
       </c>
-      <c r="I135" s="15">
+      <c r="N135" s="15">
         <v>1089251</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3362,8 +5002,13 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3372,8 +5017,13 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3382,10 +5032,15 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3404,8 +5059,23 @@
       <c r="I139" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3414,13 +5084,18 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
@@ -3438,176 +5113,296 @@
       <c r="I141" s="9">
         <v>385027</v>
       </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="9">
+        <v>385027</v>
+      </c>
+      <c r="K141" s="9">
+        <v>385027</v>
+      </c>
+      <c r="L141" s="9">
+        <v>385027</v>
+      </c>
+      <c r="M141" s="9">
+        <v>385027</v>
+      </c>
+      <c r="N141" s="9">
+        <v>385027</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
+        <v>61501</v>
+      </c>
+      <c r="F142" s="11">
+        <v>63027</v>
+      </c>
+      <c r="G142" s="11">
+        <v>51578</v>
+      </c>
+      <c r="H142" s="11">
+        <v>114244</v>
+      </c>
+      <c r="I142" s="11">
+        <v>131511</v>
+      </c>
+      <c r="J142" s="11">
         <v>258986</v>
       </c>
-      <c r="F142" s="11">
+      <c r="K142" s="11">
         <v>279470</v>
       </c>
-      <c r="G142" s="11">
+      <c r="L142" s="11">
         <v>283236</v>
       </c>
-      <c r="H142" s="11">
+      <c r="M142" s="11">
         <v>283911</v>
       </c>
-      <c r="I142" s="11">
+      <c r="N142" s="11">
         <v>348717</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
+        <v>566285</v>
+      </c>
+      <c r="F143" s="9">
+        <v>566405</v>
+      </c>
+      <c r="G143" s="9">
+        <v>566360</v>
+      </c>
+      <c r="H143" s="9">
+        <v>567141</v>
+      </c>
+      <c r="I143" s="9">
+        <v>567151</v>
+      </c>
+      <c r="J143" s="9">
         <v>567147</v>
       </c>
-      <c r="F143" s="9">
+      <c r="K143" s="9">
         <v>567147</v>
       </c>
-      <c r="G143" s="9">
+      <c r="L143" s="9">
         <v>567123</v>
       </c>
-      <c r="H143" s="9">
+      <c r="M143" s="9">
         <v>567123</v>
       </c>
-      <c r="I143" s="9">
+      <c r="N143" s="9">
         <v>567125</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
+        <v>154029</v>
+      </c>
+      <c r="F144" s="11">
+        <v>185129</v>
+      </c>
+      <c r="G144" s="11">
+        <v>298503</v>
+      </c>
+      <c r="H144" s="11">
+        <v>347417</v>
+      </c>
+      <c r="I144" s="11">
+        <v>357902</v>
+      </c>
+      <c r="J144" s="11">
         <v>378004</v>
       </c>
-      <c r="F144" s="11">
+      <c r="K144" s="11">
         <v>391077</v>
       </c>
-      <c r="G144" s="11">
+      <c r="L144" s="11">
         <v>734010</v>
       </c>
-      <c r="H144" s="11">
+      <c r="M144" s="11">
         <v>884878</v>
       </c>
-      <c r="I144" s="11">
+      <c r="N144" s="11">
         <v>893115</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
+        <v>51051</v>
+      </c>
+      <c r="F145" s="9">
+        <v>51929</v>
+      </c>
+      <c r="G145" s="9">
+        <v>55653</v>
+      </c>
+      <c r="H145" s="9">
+        <v>45598</v>
+      </c>
+      <c r="I145" s="9">
+        <v>45580</v>
+      </c>
+      <c r="J145" s="9">
         <v>63613</v>
       </c>
-      <c r="F145" s="9">
+      <c r="K145" s="9">
         <v>63613</v>
       </c>
-      <c r="G145" s="9">
+      <c r="L145" s="9">
         <v>71965</v>
       </c>
-      <c r="H145" s="9">
+      <c r="M145" s="9">
         <v>71965</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>72041</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
+        <v>15162</v>
+      </c>
+      <c r="F146" s="11">
+        <v>18054</v>
+      </c>
+      <c r="G146" s="11">
+        <v>44992</v>
+      </c>
+      <c r="H146" s="11">
+        <v>33094</v>
+      </c>
+      <c r="I146" s="11">
+        <v>50589</v>
+      </c>
+      <c r="J146" s="11">
         <v>34890</v>
       </c>
-      <c r="F146" s="11">
+      <c r="K146" s="11">
         <v>37062</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>44320</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>46265</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>36103</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>1134232</v>
+      </c>
+      <c r="F147" s="9">
+        <v>1167414</v>
+      </c>
+      <c r="G147" s="9">
+        <v>1260630</v>
+      </c>
+      <c r="H147" s="9">
+        <v>2434764</v>
+      </c>
+      <c r="I147" s="9">
+        <v>3379482</v>
+      </c>
+      <c r="J147" s="9">
         <v>3813739</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>3903493</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>3903528</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>3903521</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>5307765</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
+        <v>131915</v>
+      </c>
+      <c r="F148" s="11">
+        <v>131915</v>
+      </c>
+      <c r="G148" s="11">
+        <v>467805</v>
+      </c>
+      <c r="H148" s="11">
+        <v>514967</v>
+      </c>
+      <c r="I148" s="11">
+        <v>612665</v>
+      </c>
+      <c r="J148" s="11">
         <v>805369</v>
       </c>
-      <c r="F148" s="11">
+      <c r="K148" s="11">
         <v>849252</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>874017</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>874560</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>1444444</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3616,8 +5411,13 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3626,8 +5426,13 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3636,10 +5441,15 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -3658,8 +5468,23 @@
       <c r="I152" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M152" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N152" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3668,176 +5493,286 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
+        <v>65332</v>
+      </c>
+      <c r="F154" s="9">
+        <v>102023</v>
+      </c>
+      <c r="G154" s="9">
+        <v>121699</v>
+      </c>
+      <c r="H154" s="9">
+        <v>134000</v>
+      </c>
+      <c r="I154" s="9">
+        <v>283999</v>
+      </c>
+      <c r="J154" s="9">
         <v>284000</v>
       </c>
-      <c r="F154" s="9">
+      <c r="K154" s="9">
         <v>284001</v>
       </c>
-      <c r="G154" s="9">
+      <c r="L154" s="9">
         <v>284000</v>
       </c>
-      <c r="H154" s="9">
+      <c r="M154" s="9">
         <v>377996</v>
       </c>
-      <c r="I154" s="9">
+      <c r="N154" s="9">
         <v>1288762</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D155" s="11"/>
-      <c r="E155" s="11" t="s">
-        <v>46</v>
+      <c r="E155" s="11">
+        <v>569932</v>
       </c>
       <c r="F155" s="11">
+        <v>568513</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J155" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K155" s="11">
         <v>565926</v>
       </c>
-      <c r="G155" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L155" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M155" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N155" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
+        <v>297791</v>
+      </c>
+      <c r="F156" s="9">
+        <v>366168</v>
+      </c>
+      <c r="G156" s="9">
+        <v>365533</v>
+      </c>
+      <c r="H156" s="9">
+        <v>373116</v>
+      </c>
+      <c r="I156" s="9">
+        <v>409961</v>
+      </c>
+      <c r="J156" s="9">
         <v>409949</v>
       </c>
-      <c r="F156" s="9">
+      <c r="K156" s="9">
         <v>629238</v>
       </c>
-      <c r="G156" s="9">
+      <c r="L156" s="9">
         <v>900003</v>
       </c>
-      <c r="H156" s="9">
+      <c r="M156" s="9">
         <v>899997</v>
       </c>
-      <c r="I156" s="9">
+      <c r="N156" s="9">
         <v>899989</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="11" t="s">
-        <v>46</v>
+      <c r="E157" s="11">
+        <v>45813</v>
       </c>
       <c r="F157" s="11">
+        <v>81836</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I157" s="11">
+        <v>237548</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K157" s="11">
         <v>237421</v>
       </c>
-      <c r="G157" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H157" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I157" s="11">
+      <c r="L157" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M157" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N157" s="11">
         <v>320763</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9">
+        <v>20037</v>
+      </c>
+      <c r="F158" s="9">
+        <v>31768</v>
+      </c>
+      <c r="G158" s="9">
+        <v>33745</v>
+      </c>
+      <c r="H158" s="9">
+        <v>41081</v>
+      </c>
+      <c r="I158" s="9">
+        <v>34681</v>
+      </c>
+      <c r="J158" s="9">
         <v>37536</v>
       </c>
-      <c r="F158" s="9">
+      <c r="K158" s="9">
         <v>36500</v>
       </c>
-      <c r="G158" s="9">
+      <c r="L158" s="9">
         <v>36500</v>
       </c>
-      <c r="H158" s="9">
+      <c r="M158" s="9">
         <v>33500</v>
       </c>
-      <c r="I158" s="9">
+      <c r="N158" s="9">
         <v>33488</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="11">
+        <v>1294855</v>
+      </c>
+      <c r="F159" s="11">
+        <v>1672131</v>
+      </c>
+      <c r="G159" s="11">
+        <v>3602348</v>
+      </c>
+      <c r="H159" s="11">
+        <v>3849821</v>
+      </c>
+      <c r="I159" s="11">
+        <v>3999977</v>
+      </c>
+      <c r="J159" s="11">
         <v>3999955</v>
       </c>
-      <c r="F159" s="11">
+      <c r="K159" s="11">
         <v>3907035</v>
       </c>
-      <c r="G159" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H159" s="11">
+      <c r="L159" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M159" s="11">
         <v>6600069</v>
       </c>
-      <c r="I159" s="11">
+      <c r="N159" s="11">
         <v>6599994</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D160" s="9"/>
-      <c r="E160" s="9">
+      <c r="E160" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F160" s="9">
+        <v>484868</v>
+      </c>
+      <c r="G160" s="9">
+        <v>514519</v>
+      </c>
+      <c r="H160" s="9">
+        <v>545891</v>
+      </c>
+      <c r="I160" s="9">
+        <v>680821</v>
+      </c>
+      <c r="J160" s="9">
         <v>849987</v>
       </c>
-      <c r="F160" s="9">
+      <c r="K160" s="9">
         <v>872781</v>
       </c>
-      <c r="G160" s="9">
+      <c r="L160" s="9">
         <v>880023</v>
       </c>
-      <c r="H160" s="9">
+      <c r="M160" s="9">
         <v>1592214</v>
       </c>
-      <c r="I160" s="9">
+      <c r="N160" s="9">
         <v>1467069</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3846,8 +5781,13 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3856,8 +5796,13 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3866,10 +5811,15 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -3888,8 +5838,23 @@
       <c r="I164" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K164" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M164" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N164" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3898,200 +5863,325 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K166" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L166" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M166" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N166" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="11">
+        <v>63524</v>
+      </c>
+      <c r="F167" s="11">
+        <v>175953</v>
+      </c>
+      <c r="G167" s="11">
+        <v>74799</v>
+      </c>
+      <c r="H167" s="11">
+        <v>127804</v>
+      </c>
+      <c r="I167" s="11">
+        <v>243168</v>
+      </c>
+      <c r="J167" s="11">
         <v>275154</v>
       </c>
-      <c r="F167" s="11">
+      <c r="K167" s="11">
         <v>282650</v>
       </c>
-      <c r="G167" s="11">
+      <c r="L167" s="11">
         <v>283765</v>
       </c>
-      <c r="H167" s="11">
+      <c r="M167" s="11">
         <v>352378</v>
       </c>
-      <c r="I167" s="11">
+      <c r="N167" s="11">
         <v>364361</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D168" s="9"/>
-      <c r="E168" s="9" t="s">
-        <v>46</v>
+      <c r="E168" s="9">
+        <v>567218</v>
       </c>
       <c r="F168" s="9">
+        <v>567060</v>
+      </c>
+      <c r="G168" s="9">
+        <v>567359</v>
+      </c>
+      <c r="H168" s="9">
+        <v>566796</v>
+      </c>
+      <c r="I168" s="9">
+        <v>569767</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K168" s="9">
         <v>567823</v>
       </c>
-      <c r="G168" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H168" s="9">
+      <c r="L168" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M168" s="9">
         <v>567235</v>
       </c>
-      <c r="I168" s="9">
+      <c r="N168" s="9">
         <v>567121</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11">
+        <v>198480</v>
+      </c>
+      <c r="F169" s="11">
+        <v>286641</v>
+      </c>
+      <c r="G169" s="11">
+        <v>344922</v>
+      </c>
+      <c r="H169" s="11">
+        <v>355149</v>
+      </c>
+      <c r="I169" s="11">
+        <v>372631</v>
+      </c>
+      <c r="J169" s="11">
         <v>389617</v>
       </c>
-      <c r="F169" s="11">
+      <c r="K169" s="11">
         <v>502058</v>
       </c>
-      <c r="G169" s="11">
+      <c r="L169" s="11">
         <v>850741</v>
       </c>
-      <c r="H169" s="11">
+      <c r="M169" s="11">
         <v>891466</v>
       </c>
-      <c r="I169" s="11">
+      <c r="N169" s="11">
         <v>893948</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D170" s="9"/>
-      <c r="E170" s="9" t="s">
-        <v>46</v>
+      <c r="E170" s="9">
+        <v>44994</v>
       </c>
       <c r="F170" s="9">
+        <v>45597</v>
+      </c>
+      <c r="G170" s="9">
+        <v>45601</v>
+      </c>
+      <c r="H170" s="9">
+        <v>45660</v>
+      </c>
+      <c r="I170" s="9">
+        <v>47458</v>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K170" s="9">
         <v>63637</v>
       </c>
-      <c r="G170" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H170" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I170" s="9">
+      <c r="L170" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M170" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N170" s="9">
         <v>284553</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D171" s="11"/>
       <c r="E171" s="11">
+        <v>16349</v>
+      </c>
+      <c r="F171" s="11">
+        <v>25624</v>
+      </c>
+      <c r="G171" s="11">
+        <v>63091</v>
+      </c>
+      <c r="H171" s="11">
+        <v>16573</v>
+      </c>
+      <c r="I171" s="11">
+        <v>53353</v>
+      </c>
+      <c r="J171" s="11">
         <v>36722</v>
       </c>
-      <c r="F171" s="11">
+      <c r="K171" s="11">
         <v>4618</v>
       </c>
-      <c r="G171" s="11">
+      <c r="L171" s="11">
         <v>36386</v>
       </c>
-      <c r="H171" s="11">
+      <c r="M171" s="11">
         <v>36232</v>
       </c>
-      <c r="I171" s="11">
+      <c r="N171" s="11">
         <v>35801</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9">
+        <v>1172143</v>
+      </c>
+      <c r="F172" s="9">
+        <v>1265769</v>
+      </c>
+      <c r="G172" s="9">
+        <v>2134648</v>
+      </c>
+      <c r="H172" s="9">
+        <v>2901963</v>
+      </c>
+      <c r="I172" s="9">
+        <v>3737030</v>
+      </c>
+      <c r="J172" s="9">
         <v>3886267</v>
       </c>
-      <c r="F172" s="9">
+      <c r="K172" s="9">
         <v>3903539</v>
       </c>
-      <c r="G172" s="9">
+      <c r="L172" s="9">
         <v>3903538</v>
       </c>
-      <c r="H172" s="9">
+      <c r="M172" s="9">
         <v>4750659</v>
       </c>
-      <c r="I172" s="9">
+      <c r="N172" s="9">
         <v>5908762</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D173" s="11"/>
-      <c r="E173" s="11">
+      <c r="E173" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G173" s="11">
+        <v>468441</v>
+      </c>
+      <c r="H173" s="11">
+        <v>515010</v>
+      </c>
+      <c r="I173" s="11">
+        <v>406944</v>
+      </c>
+      <c r="J173" s="11">
         <v>848846</v>
       </c>
-      <c r="F173" s="11">
+      <c r="K173" s="11">
         <v>863556</v>
       </c>
-      <c r="G173" s="11">
+      <c r="L173" s="11">
         <v>875070</v>
       </c>
-      <c r="H173" s="11">
+      <c r="M173" s="11">
         <v>1409132</v>
       </c>
-      <c r="I173" s="11">
+      <c r="N173" s="11">
         <v>1467626</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4100,8 +6190,13 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4110,8 +6205,13 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4120,10 +6220,15 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -4142,8 +6247,23 @@
       <c r="I177" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K177" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L177" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M177" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N177" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4152,23 +6272,28 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D179" s="9"/>
-      <c r="E179" s="9">
-        <v>385027</v>
-      </c>
-      <c r="F179" s="9">
-        <v>385027</v>
-      </c>
-      <c r="G179" s="9">
-        <v>385027</v>
+      <c r="E179" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H179" s="9">
         <v>385027</v>
@@ -4176,176 +6301,296 @@
       <c r="I179" s="9">
         <v>385027</v>
       </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="9">
+        <v>385027</v>
+      </c>
+      <c r="K179" s="9">
+        <v>385027</v>
+      </c>
+      <c r="L179" s="9">
+        <v>385027</v>
+      </c>
+      <c r="M179" s="9">
+        <v>385027</v>
+      </c>
+      <c r="N179" s="9">
+        <v>385027</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D180" s="11"/>
-      <c r="E180" s="11">
+      <c r="E180" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H180" s="11">
+        <v>131511</v>
+      </c>
+      <c r="I180" s="11">
+        <v>258986</v>
+      </c>
+      <c r="J180" s="11">
         <v>279470</v>
       </c>
-      <c r="F180" s="11">
+      <c r="K180" s="11">
         <v>283236</v>
       </c>
-      <c r="G180" s="11">
+      <c r="L180" s="11">
         <v>283911</v>
       </c>
-      <c r="H180" s="11">
+      <c r="M180" s="11">
         <v>348717</v>
       </c>
-      <c r="I180" s="11">
+      <c r="N180" s="11">
         <v>1194840</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D181" s="9"/>
-      <c r="E181" s="9">
+      <c r="E181" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H181" s="9">
+        <v>567151</v>
+      </c>
+      <c r="I181" s="9">
         <v>567147</v>
       </c>
-      <c r="F181" s="9">
+      <c r="J181" s="9">
+        <v>567147</v>
+      </c>
+      <c r="K181" s="9">
         <v>567123</v>
       </c>
-      <c r="G181" s="9">
+      <c r="L181" s="9">
         <v>567123</v>
       </c>
-      <c r="H181" s="9">
+      <c r="M181" s="9">
         <v>567125</v>
       </c>
-      <c r="I181" s="9">
+      <c r="N181" s="9">
         <v>567129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D182" s="11"/>
-      <c r="E182" s="11">
+      <c r="E182" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H182" s="11">
+        <v>357902</v>
+      </c>
+      <c r="I182" s="11">
+        <v>378004</v>
+      </c>
+      <c r="J182" s="11">
         <v>391077</v>
       </c>
-      <c r="F182" s="11">
+      <c r="K182" s="11">
         <v>734010</v>
       </c>
-      <c r="G182" s="11">
+      <c r="L182" s="11">
         <v>884878</v>
       </c>
-      <c r="H182" s="11">
+      <c r="M182" s="11">
         <v>893115</v>
       </c>
-      <c r="I182" s="11">
+      <c r="N182" s="11">
         <v>894793</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D183" s="9"/>
-      <c r="E183" s="9">
+      <c r="E183" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H183" s="9">
+        <v>45580</v>
+      </c>
+      <c r="I183" s="9">
         <v>63613</v>
       </c>
-      <c r="F183" s="9">
+      <c r="J183" s="9">
+        <v>63613</v>
+      </c>
+      <c r="K183" s="9">
         <v>71965</v>
       </c>
-      <c r="G183" s="9">
+      <c r="L183" s="9">
         <v>71965</v>
       </c>
-      <c r="H183" s="9">
+      <c r="M183" s="9">
         <v>72041</v>
       </c>
-      <c r="I183" s="9">
+      <c r="N183" s="9">
         <v>293617</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H184" s="11">
+        <v>50589</v>
+      </c>
+      <c r="I184" s="11">
+        <v>34890</v>
+      </c>
+      <c r="J184" s="11">
+        <v>37062</v>
+      </c>
+      <c r="K184" s="11">
+        <v>44320</v>
+      </c>
+      <c r="L184" s="11">
+        <v>46265</v>
+      </c>
+      <c r="M184" s="11">
+        <v>36103</v>
+      </c>
+      <c r="N184" s="11">
+        <v>35340</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B185" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C185" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C184" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11">
-        <v>37062</v>
-      </c>
-      <c r="F184" s="11">
-        <v>44320</v>
-      </c>
-      <c r="G184" s="11">
-        <v>46265</v>
-      </c>
-      <c r="H184" s="11">
-        <v>36103</v>
-      </c>
-      <c r="I184" s="11">
-        <v>35340</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B185" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D185" s="9"/>
-      <c r="E185" s="9">
+      <c r="E185" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H185" s="9">
+        <v>3379482</v>
+      </c>
+      <c r="I185" s="9">
+        <v>3813739</v>
+      </c>
+      <c r="J185" s="9">
         <v>3903493</v>
       </c>
-      <c r="F185" s="9">
+      <c r="K185" s="9">
         <v>3903528</v>
       </c>
-      <c r="G185" s="9">
+      <c r="L185" s="9">
         <v>3903521</v>
       </c>
-      <c r="H185" s="9">
+      <c r="M185" s="9">
         <v>5307765</v>
       </c>
-      <c r="I185" s="9">
+      <c r="N185" s="9">
         <v>6019860</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D186" s="11"/>
-      <c r="E186" s="11">
+      <c r="E186" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H186" s="11">
+        <v>612665</v>
+      </c>
+      <c r="I186" s="11">
+        <v>805369</v>
+      </c>
+      <c r="J186" s="11">
         <v>849252</v>
       </c>
-      <c r="F186" s="11">
+      <c r="K186" s="11">
         <v>874017</v>
       </c>
-      <c r="G186" s="11">
+      <c r="L186" s="11">
         <v>874560</v>
       </c>
-      <c r="H186" s="11">
+      <c r="M186" s="11">
         <v>1444444</v>
       </c>
-      <c r="I186" s="11">
+      <c r="N186" s="11">
         <v>1466645</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4354,8 +6599,13 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4364,8 +6614,13 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4374,10 +6629,15 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+    </row>
+    <row r="190" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -4396,8 +6656,23 @@
       <c r="I190" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K190" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L190" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M190" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N190" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4406,32 +6681,52 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9">
+        <v>7764</v>
+      </c>
+      <c r="F192" s="9">
+        <v>6812</v>
+      </c>
+      <c r="G192" s="9">
+        <v>15229</v>
+      </c>
+      <c r="H192" s="9">
+        <v>8595</v>
+      </c>
+      <c r="I192" s="9">
+        <v>12929</v>
+      </c>
+      <c r="J192" s="9">
         <v>-1627</v>
       </c>
-      <c r="F192" s="9">
+      <c r="K192" s="9">
         <v>14465</v>
       </c>
-      <c r="G192" s="9">
+      <c r="L192" s="9">
         <v>12325</v>
       </c>
-      <c r="H192" s="9">
+      <c r="M192" s="9">
         <v>9292</v>
       </c>
-      <c r="I192" s="9">
+      <c r="N192" s="9">
         <v>-21617</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -4450,10 +6745,25 @@
       <c r="I193" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="11">
+        <v>0</v>
+      </c>
+      <c r="K193" s="11">
+        <v>0</v>
+      </c>
+      <c r="L193" s="11">
+        <v>0</v>
+      </c>
+      <c r="M193" s="11">
+        <v>0</v>
+      </c>
+      <c r="N193" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
@@ -4472,10 +6782,25 @@
       <c r="I194" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J194" s="9">
+        <v>0</v>
+      </c>
+      <c r="K194" s="9">
+        <v>0</v>
+      </c>
+      <c r="L194" s="9">
+        <v>0</v>
+      </c>
+      <c r="M194" s="9">
+        <v>0</v>
+      </c>
+      <c r="N194" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
@@ -4494,10 +6819,25 @@
       <c r="I195" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="11">
+        <v>0</v>
+      </c>
+      <c r="K195" s="11">
+        <v>0</v>
+      </c>
+      <c r="L195" s="11">
+        <v>0</v>
+      </c>
+      <c r="M195" s="11">
+        <v>0</v>
+      </c>
+      <c r="N195" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -4514,78 +6854,138 @@
         <v>0</v>
       </c>
       <c r="I196" s="9">
+        <v>0</v>
+      </c>
+      <c r="J196" s="9">
+        <v>0</v>
+      </c>
+      <c r="K196" s="9">
+        <v>0</v>
+      </c>
+      <c r="L196" s="9">
+        <v>0</v>
+      </c>
+      <c r="M196" s="9">
+        <v>0</v>
+      </c>
+      <c r="N196" s="9">
         <v>252897</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11">
+        <v>145859</v>
+      </c>
+      <c r="F197" s="11">
+        <v>82974</v>
+      </c>
+      <c r="G197" s="11">
+        <v>180265</v>
+      </c>
+      <c r="H197" s="11">
+        <v>217806</v>
+      </c>
+      <c r="I197" s="11">
+        <v>240475</v>
+      </c>
+      <c r="J197" s="11">
         <v>444099</v>
       </c>
-      <c r="F197" s="11">
+      <c r="K197" s="11">
         <v>470491</v>
       </c>
-      <c r="G197" s="11">
+      <c r="L197" s="11">
         <v>444162</v>
       </c>
-      <c r="H197" s="11">
+      <c r="M197" s="11">
         <v>437770</v>
       </c>
-      <c r="I197" s="11">
+      <c r="N197" s="11">
         <v>758652</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9">
+        <v>65099</v>
+      </c>
+      <c r="F198" s="9">
+        <v>136353</v>
+      </c>
+      <c r="G198" s="9">
+        <v>-21428</v>
+      </c>
+      <c r="H198" s="9">
+        <v>101425</v>
+      </c>
+      <c r="I198" s="9">
+        <v>-59636</v>
+      </c>
+      <c r="J198" s="9">
         <v>26952</v>
       </c>
-      <c r="F198" s="9">
+      <c r="K198" s="9">
         <v>22163</v>
       </c>
-      <c r="G198" s="9">
+      <c r="L198" s="9">
         <v>26694</v>
       </c>
-      <c r="H198" s="9">
+      <c r="M198" s="9">
         <v>27050</v>
       </c>
-      <c r="I198" s="9">
+      <c r="N198" s="9">
         <v>26945</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11">
+        <v>92348</v>
+      </c>
+      <c r="F199" s="11">
+        <v>142515</v>
+      </c>
+      <c r="G199" s="11">
+        <v>66060</v>
+      </c>
+      <c r="H199" s="11">
+        <v>136281</v>
+      </c>
+      <c r="I199" s="11">
+        <v>153234</v>
+      </c>
+      <c r="J199" s="11">
         <v>85870</v>
       </c>
-      <c r="F199" s="11">
+      <c r="K199" s="11">
         <v>150718</v>
       </c>
-      <c r="G199" s="11">
+      <c r="L199" s="11">
         <v>252011</v>
       </c>
-      <c r="H199" s="11">
+      <c r="M199" s="11">
         <v>229871</v>
       </c>
-      <c r="I199" s="11">
+      <c r="N199" s="11">
         <v>627470</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
@@ -4604,52 +7004,97 @@
       <c r="I200" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="9">
+        <v>0</v>
+      </c>
+      <c r="K200" s="9">
+        <v>0</v>
+      </c>
+      <c r="L200" s="9">
+        <v>0</v>
+      </c>
+      <c r="M200" s="9">
+        <v>0</v>
+      </c>
+      <c r="N200" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11">
+        <v>404612</v>
+      </c>
+      <c r="F201" s="11">
+        <v>296908</v>
+      </c>
+      <c r="G201" s="11">
+        <v>569347</v>
+      </c>
+      <c r="H201" s="11">
+        <v>302049</v>
+      </c>
+      <c r="I201" s="11">
+        <v>681583</v>
+      </c>
+      <c r="J201" s="11">
         <v>558996</v>
       </c>
-      <c r="F201" s="11">
+      <c r="K201" s="11">
         <v>954298</v>
       </c>
-      <c r="G201" s="11">
+      <c r="L201" s="11">
         <v>634354</v>
       </c>
-      <c r="H201" s="11">
+      <c r="M201" s="11">
         <v>819957</v>
       </c>
-      <c r="I201" s="11">
+      <c r="N201" s="11">
         <v>549322</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15">
+        <v>715682</v>
+      </c>
+      <c r="F202" s="15">
+        <v>665562</v>
+      </c>
+      <c r="G202" s="15">
+        <v>809473</v>
+      </c>
+      <c r="H202" s="15">
+        <v>766156</v>
+      </c>
+      <c r="I202" s="15">
+        <v>1028585</v>
+      </c>
+      <c r="J202" s="15">
         <v>1114290</v>
       </c>
-      <c r="F202" s="15">
+      <c r="K202" s="15">
         <v>1612135</v>
       </c>
-      <c r="G202" s="15">
+      <c r="L202" s="15">
         <v>1369546</v>
       </c>
-      <c r="H202" s="15">
+      <c r="M202" s="15">
         <v>1523940</v>
       </c>
-      <c r="I202" s="15">
+      <c r="N202" s="15">
         <v>2193669</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -4658,8 +7103,13 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4668,8 +7118,13 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -4678,10 +7133,15 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
-    </row>
-    <row r="206" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+    </row>
+    <row r="206" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -4690,8 +7150,13 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -4700,13 +7165,18 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
@@ -4714,123 +7184,128 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D211" s="11"/>
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D215" s="11"/>
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D217" s="11"/>
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D219" s="11"/>
       <c r="E219" s="11"/>

--- a/database/industries/siman/sekhouz/cost/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979AD257-C15B-420E-BC59-BB09E3DA08F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1E1D22-B354-4B49-8EF9-12DB154516B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -737,12 +737,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +757,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -806,7 +806,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -840,7 +840,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -855,7 +855,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -892,7 +892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -907,155 +907,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>160686</v>
+        <v>225040</v>
       </c>
       <c r="F10" s="9">
-        <v>225040</v>
+        <v>405360</v>
       </c>
       <c r="G10" s="9">
-        <v>405360</v>
+        <v>239995</v>
       </c>
       <c r="H10" s="9">
-        <v>239995</v>
+        <v>386708</v>
       </c>
       <c r="I10" s="9">
-        <v>386708</v>
+        <v>552333</v>
       </c>
       <c r="J10" s="9">
-        <v>552333</v>
+        <v>473251</v>
       </c>
       <c r="K10" s="9">
-        <v>473251</v>
+        <v>495437</v>
       </c>
       <c r="L10" s="9">
-        <v>495437</v>
+        <v>571475</v>
       </c>
       <c r="M10" s="9">
-        <v>571475</v>
+        <v>747168</v>
       </c>
       <c r="N10" s="9">
-        <v>747168</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1110893</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>21561</v>
+        <v>12799</v>
       </c>
       <c r="F11" s="11">
-        <v>12799</v>
+        <v>29841</v>
       </c>
       <c r="G11" s="11">
-        <v>29841</v>
+        <v>22142</v>
       </c>
       <c r="H11" s="11">
-        <v>22142</v>
+        <v>17155</v>
       </c>
       <c r="I11" s="11">
-        <v>17155</v>
+        <v>34266</v>
       </c>
       <c r="J11" s="11">
-        <v>34266</v>
+        <v>4535</v>
       </c>
       <c r="K11" s="11">
-        <v>4535</v>
+        <v>32044</v>
       </c>
       <c r="L11" s="11">
-        <v>32044</v>
+        <v>50788</v>
       </c>
       <c r="M11" s="11">
-        <v>50788</v>
+        <v>63155</v>
       </c>
       <c r="N11" s="11">
-        <v>63155</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>122263</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>715682</v>
+        <v>665562</v>
       </c>
       <c r="F12" s="9">
-        <v>665562</v>
+        <v>809473</v>
       </c>
       <c r="G12" s="9">
-        <v>809473</v>
+        <v>766156</v>
       </c>
       <c r="H12" s="9">
-        <v>766156</v>
+        <v>1028585</v>
       </c>
       <c r="I12" s="9">
-        <v>1028585</v>
+        <v>1114290</v>
       </c>
       <c r="J12" s="9">
-        <v>1114290</v>
+        <v>1612135</v>
       </c>
       <c r="K12" s="9">
-        <v>1612135</v>
+        <v>1369546</v>
       </c>
       <c r="L12" s="9">
-        <v>1369546</v>
+        <v>1523940</v>
       </c>
       <c r="M12" s="9">
-        <v>1523940</v>
+        <v>2193669</v>
       </c>
       <c r="N12" s="9">
-        <v>2193669</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1308006</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>897929</v>
+        <v>903401</v>
       </c>
       <c r="F13" s="13">
-        <v>903401</v>
+        <v>1244674</v>
       </c>
       <c r="G13" s="13">
-        <v>1244674</v>
+        <v>1028293</v>
       </c>
       <c r="H13" s="13">
-        <v>1028293</v>
+        <v>1432448</v>
       </c>
       <c r="I13" s="13">
-        <v>1432448</v>
+        <v>1700889</v>
       </c>
       <c r="J13" s="13">
-        <v>1700889</v>
+        <v>2089921</v>
       </c>
       <c r="K13" s="13">
-        <v>2089921</v>
+        <v>1897027</v>
       </c>
       <c r="L13" s="13">
-        <v>1897027</v>
+        <v>2146203</v>
       </c>
       <c r="M13" s="13">
-        <v>2146203</v>
+        <v>3003992</v>
       </c>
       <c r="N13" s="13">
-        <v>3003992</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2541162</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1092,81 +1092,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>897929</v>
+        <v>903401</v>
       </c>
       <c r="F15" s="13">
-        <v>903401</v>
+        <v>1244674</v>
       </c>
       <c r="G15" s="13">
-        <v>1244674</v>
+        <v>1028293</v>
       </c>
       <c r="H15" s="13">
-        <v>1028293</v>
+        <v>1432448</v>
       </c>
       <c r="I15" s="13">
-        <v>1432448</v>
+        <v>1700889</v>
       </c>
       <c r="J15" s="13">
-        <v>1700889</v>
+        <v>2089921</v>
       </c>
       <c r="K15" s="13">
-        <v>2089921</v>
+        <v>1897027</v>
       </c>
       <c r="L15" s="13">
-        <v>1897027</v>
+        <v>2146203</v>
       </c>
       <c r="M15" s="13">
-        <v>2146203</v>
+        <v>3003992</v>
       </c>
       <c r="N15" s="13">
-        <v>3003992</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2541162</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>49719</v>
+        <v>-14734</v>
       </c>
       <c r="F16" s="9">
-        <v>-14734</v>
+        <v>61660</v>
       </c>
       <c r="G16" s="9">
-        <v>61660</v>
+        <v>31154</v>
       </c>
       <c r="H16" s="9">
-        <v>31154</v>
+        <v>-125676</v>
       </c>
       <c r="I16" s="9">
-        <v>-125676</v>
+        <v>32862</v>
       </c>
       <c r="J16" s="9">
-        <v>32862</v>
+        <v>50080</v>
       </c>
       <c r="K16" s="9">
-        <v>50080</v>
+        <v>-69201</v>
       </c>
       <c r="L16" s="9">
-        <v>-69201</v>
+        <v>-26757</v>
       </c>
       <c r="M16" s="9">
-        <v>-26757</v>
+        <v>73913</v>
       </c>
       <c r="N16" s="9">
-        <v>73913</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-93498</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1203,44 +1203,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>947648</v>
+        <v>888667</v>
       </c>
       <c r="F18" s="15">
-        <v>888667</v>
+        <v>1306334</v>
       </c>
       <c r="G18" s="15">
-        <v>1306334</v>
+        <v>1059447</v>
       </c>
       <c r="H18" s="15">
-        <v>1059447</v>
+        <v>1306772</v>
       </c>
       <c r="I18" s="15">
-        <v>1306772</v>
+        <v>1733751</v>
       </c>
       <c r="J18" s="15">
-        <v>1733751</v>
+        <v>2140001</v>
       </c>
       <c r="K18" s="15">
-        <v>2140001</v>
+        <v>1827826</v>
       </c>
       <c r="L18" s="15">
-        <v>1827826</v>
+        <v>2119446</v>
       </c>
       <c r="M18" s="15">
-        <v>2119446</v>
+        <v>3077905</v>
       </c>
       <c r="N18" s="15">
-        <v>3077905</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2447664</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1250,108 +1250,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>21950</v>
       </c>
       <c r="G19" s="11">
-        <v>15151</v>
+        <v>39509</v>
       </c>
       <c r="H19" s="11">
-        <v>39509</v>
+        <v>34283</v>
       </c>
       <c r="I19" s="11">
-        <v>34283</v>
+        <v>59695</v>
       </c>
       <c r="J19" s="11">
-        <v>59695</v>
+        <v>21950</v>
       </c>
       <c r="K19" s="11">
-        <v>21950</v>
+        <v>70728</v>
       </c>
       <c r="L19" s="11">
-        <v>70728</v>
+        <v>70451</v>
       </c>
       <c r="M19" s="11">
-        <v>70451</v>
+        <v>119053</v>
       </c>
       <c r="N19" s="11">
-        <v>119053</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>170700</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-3293</v>
+        <v>15151</v>
       </c>
       <c r="F20" s="9">
-        <v>15151</v>
+        <v>-39509</v>
       </c>
       <c r="G20" s="9">
-        <v>-39509</v>
+        <v>-34283</v>
       </c>
       <c r="H20" s="9">
-        <v>-34283</v>
+        <v>-59695</v>
       </c>
       <c r="I20" s="9">
-        <v>-59695</v>
+        <v>-21950</v>
       </c>
       <c r="J20" s="9">
-        <v>-21950</v>
+        <v>-70728</v>
       </c>
       <c r="K20" s="9">
-        <v>-70728</v>
+        <v>-70451</v>
       </c>
       <c r="L20" s="9">
-        <v>-70451</v>
+        <v>-119053</v>
       </c>
       <c r="M20" s="9">
-        <v>-119053</v>
+        <v>-170700</v>
       </c>
       <c r="N20" s="9">
-        <v>-170700</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-100183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>944355</v>
+        <v>903818</v>
       </c>
       <c r="F21" s="13">
-        <v>903818</v>
+        <v>1288775</v>
       </c>
       <c r="G21" s="13">
-        <v>1288775</v>
+        <v>1064673</v>
       </c>
       <c r="H21" s="13">
-        <v>1064673</v>
+        <v>1281360</v>
       </c>
       <c r="I21" s="13">
-        <v>1281360</v>
+        <v>1771496</v>
       </c>
       <c r="J21" s="13">
-        <v>1771496</v>
+        <v>2091223</v>
       </c>
       <c r="K21" s="13">
-        <v>2091223</v>
+        <v>1828103</v>
       </c>
       <c r="L21" s="13">
-        <v>1828103</v>
+        <v>2070844</v>
       </c>
       <c r="M21" s="13">
-        <v>2070844</v>
+        <v>3026258</v>
       </c>
       <c r="N21" s="13">
-        <v>3026258</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2518181</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1388,44 +1388,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>944355</v>
+        <v>903818</v>
       </c>
       <c r="F23" s="13">
-        <v>903818</v>
+        <v>1288775</v>
       </c>
       <c r="G23" s="13">
-        <v>1288775</v>
+        <v>1064673</v>
       </c>
       <c r="H23" s="13">
-        <v>1064673</v>
+        <v>1281360</v>
       </c>
       <c r="I23" s="13">
-        <v>1281360</v>
+        <v>1771496</v>
       </c>
       <c r="J23" s="13">
-        <v>1771496</v>
+        <v>2091223</v>
       </c>
       <c r="K23" s="13">
-        <v>2091223</v>
+        <v>1828103</v>
       </c>
       <c r="L23" s="13">
-        <v>1828103</v>
+        <v>2070844</v>
       </c>
       <c r="M23" s="13">
-        <v>2070844</v>
+        <v>3026258</v>
       </c>
       <c r="N23" s="13">
-        <v>3026258</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2518181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1440,7 +1440,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1455,7 +1455,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1470,7 +1470,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1522,7 +1522,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
@@ -1570,37 +1570,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>906662</v>
+        <v>732825</v>
       </c>
       <c r="F30" s="11">
-        <v>732825</v>
+        <v>1179021</v>
       </c>
       <c r="G30" s="11">
-        <v>1179021</v>
+        <v>333470</v>
       </c>
       <c r="H30" s="11">
-        <v>333470</v>
+        <v>266746</v>
       </c>
       <c r="I30" s="11">
-        <v>266746</v>
+        <v>447565</v>
       </c>
       <c r="J30" s="11">
-        <v>447565</v>
+        <v>434934</v>
       </c>
       <c r="K30" s="11">
-        <v>434934</v>
+        <v>353808</v>
       </c>
       <c r="L30" s="11">
-        <v>353808</v>
+        <v>557957</v>
       </c>
       <c r="M30" s="11">
-        <v>557957</v>
+        <v>1022603</v>
       </c>
       <c r="N30" s="11">
-        <v>1022603</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>452095</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
@@ -1609,37 +1609,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>65135</v>
+        <v>63903</v>
       </c>
       <c r="F31" s="9">
-        <v>63903</v>
+        <v>58311</v>
       </c>
       <c r="G31" s="9">
-        <v>58311</v>
+        <v>54475</v>
       </c>
       <c r="H31" s="9">
-        <v>54475</v>
+        <v>52933</v>
       </c>
       <c r="I31" s="9">
-        <v>52933</v>
+        <v>52847</v>
       </c>
       <c r="J31" s="9">
         <v>52847</v>
       </c>
       <c r="K31" s="9">
-        <v>52847</v>
+        <v>52888</v>
       </c>
       <c r="L31" s="9">
         <v>52888</v>
       </c>
       <c r="M31" s="9">
-        <v>52888</v>
+        <v>49959</v>
       </c>
       <c r="N31" s="9">
-        <v>49959</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25615</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
@@ -1648,37 +1648,37 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>30332</v>
+        <v>17134</v>
       </c>
       <c r="F32" s="11">
-        <v>17134</v>
+        <v>22844</v>
       </c>
       <c r="G32" s="11">
-        <v>22844</v>
+        <v>20284</v>
       </c>
       <c r="H32" s="11">
-        <v>20284</v>
+        <v>18818</v>
       </c>
       <c r="I32" s="11">
-        <v>18818</v>
+        <v>14812</v>
       </c>
       <c r="J32" s="11">
-        <v>14812</v>
+        <v>5357</v>
       </c>
       <c r="K32" s="11">
-        <v>5357</v>
+        <v>7286</v>
       </c>
       <c r="L32" s="11">
-        <v>7286</v>
+        <v>29447</v>
       </c>
       <c r="M32" s="11">
-        <v>29447</v>
+        <v>42120</v>
       </c>
       <c r="N32" s="11">
-        <v>42120</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25407</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
@@ -1687,25 +1687,25 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>100859</v>
+        <v>90451</v>
       </c>
       <c r="F33" s="9">
-        <v>90451</v>
+        <v>62369</v>
       </c>
       <c r="G33" s="9">
-        <v>62369</v>
+        <v>39344</v>
       </c>
       <c r="H33" s="9">
-        <v>39344</v>
+        <v>30474</v>
       </c>
       <c r="I33" s="9">
-        <v>30474</v>
+        <v>33311</v>
       </c>
       <c r="J33" s="9">
         <v>33311</v>
       </c>
       <c r="K33" s="9">
-        <v>33311</v>
+        <v>13173</v>
       </c>
       <c r="L33" s="9">
         <v>13173</v>
@@ -1714,10 +1714,10 @@
         <v>13173</v>
       </c>
       <c r="N33" s="9">
-        <v>13173</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>67520</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
@@ -1726,37 +1726,37 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>3122963</v>
+        <v>515063</v>
       </c>
       <c r="F34" s="11">
-        <v>515063</v>
+        <v>1572040</v>
       </c>
       <c r="G34" s="11">
-        <v>1572040</v>
+        <v>6038036</v>
       </c>
       <c r="H34" s="11">
-        <v>6038036</v>
+        <v>3415490</v>
       </c>
       <c r="I34" s="11">
-        <v>3415490</v>
+        <v>1820100</v>
       </c>
       <c r="J34" s="11">
-        <v>1820100</v>
+        <v>2860490</v>
       </c>
       <c r="K34" s="11">
-        <v>2860490</v>
+        <v>13778486</v>
       </c>
       <c r="L34" s="11">
-        <v>13778486</v>
+        <v>11073986</v>
       </c>
       <c r="M34" s="11">
-        <v>11073986</v>
+        <v>9660986</v>
       </c>
       <c r="N34" s="11">
-        <v>9660986</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7575483</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
@@ -1765,37 +1765,37 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>44885</v>
+        <v>35003</v>
       </c>
       <c r="F35" s="9">
-        <v>35003</v>
+        <v>23566</v>
       </c>
       <c r="G35" s="9">
-        <v>23566</v>
+        <v>18479</v>
       </c>
       <c r="H35" s="9">
-        <v>18479</v>
+        <v>21308</v>
       </c>
       <c r="I35" s="9">
-        <v>21308</v>
+        <v>52813</v>
       </c>
       <c r="J35" s="9">
-        <v>52813</v>
+        <v>73829</v>
       </c>
       <c r="K35" s="9">
-        <v>73829</v>
+        <v>51735</v>
       </c>
       <c r="L35" s="9">
-        <v>51735</v>
+        <v>30649</v>
       </c>
       <c r="M35" s="9">
-        <v>30649</v>
+        <v>30858</v>
       </c>
       <c r="N35" s="9">
-        <v>30858</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36505</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>38</v>
       </c>
@@ -1807,71 +1807,71 @@
         <v>235</v>
       </c>
       <c r="F36" s="11">
-        <v>235</v>
+        <v>4861</v>
       </c>
       <c r="G36" s="11">
-        <v>4861</v>
+        <v>5412</v>
       </c>
       <c r="H36" s="11">
-        <v>5412</v>
+        <v>4611</v>
       </c>
       <c r="I36" s="11">
-        <v>4611</v>
+        <v>298</v>
       </c>
       <c r="J36" s="11">
-        <v>298</v>
+        <v>869</v>
       </c>
       <c r="K36" s="11">
-        <v>869</v>
+        <v>8898</v>
       </c>
       <c r="L36" s="11">
-        <v>8898</v>
+        <v>1706</v>
       </c>
       <c r="M36" s="11">
-        <v>1706</v>
+        <v>9</v>
       </c>
       <c r="N36" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>4271258</v>
+        <v>1454801</v>
       </c>
       <c r="F37" s="15">
-        <v>1454801</v>
+        <v>2923199</v>
       </c>
       <c r="G37" s="15">
-        <v>2923199</v>
+        <v>6509687</v>
       </c>
       <c r="H37" s="15">
-        <v>6509687</v>
+        <v>3810567</v>
       </c>
       <c r="I37" s="15">
-        <v>3810567</v>
+        <v>2421933</v>
       </c>
       <c r="J37" s="15">
-        <v>2421933</v>
+        <v>3461824</v>
       </c>
       <c r="K37" s="15">
-        <v>3461824</v>
+        <v>14266461</v>
       </c>
       <c r="L37" s="15">
-        <v>14266461</v>
+        <v>11759993</v>
       </c>
       <c r="M37" s="15">
-        <v>11759993</v>
+        <v>10819895</v>
       </c>
       <c r="N37" s="15">
-        <v>10819895</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8185840</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1886,7 +1886,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1901,7 +1901,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1916,7 +1916,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>39</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1968,7 +1968,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>29</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>31</v>
       </c>
@@ -2016,37 +2016,37 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>813143</v>
+        <v>864142</v>
       </c>
       <c r="F44" s="11">
-        <v>864142</v>
+        <v>885412</v>
       </c>
       <c r="G44" s="11">
-        <v>885412</v>
+        <v>889395</v>
       </c>
       <c r="H44" s="11">
-        <v>889395</v>
+        <v>902823</v>
       </c>
       <c r="I44" s="11">
-        <v>902823</v>
+        <v>1030150</v>
       </c>
       <c r="J44" s="11">
-        <v>1030150</v>
+        <v>1177857</v>
       </c>
       <c r="K44" s="11">
-        <v>1177857</v>
+        <v>1142028</v>
       </c>
       <c r="L44" s="11">
-        <v>1142028</v>
+        <v>1345042</v>
       </c>
       <c r="M44" s="11">
-        <v>1345042</v>
+        <v>423466</v>
       </c>
       <c r="N44" s="11">
-        <v>423466</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2359488</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>32</v>
       </c>
@@ -2055,10 +2055,10 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>3246</v>
+        <v>686</v>
       </c>
       <c r="F45" s="9">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="G45" s="9">
         <v>0</v>
@@ -2070,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="9">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="K45" s="9">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="L45" s="9">
         <v>0</v>
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>33</v>
       </c>
@@ -2094,37 +2094,37 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>11273</v>
+        <v>25278</v>
       </c>
       <c r="F46" s="11">
-        <v>25278</v>
+        <v>17733</v>
       </c>
       <c r="G46" s="11">
-        <v>17733</v>
+        <v>11613</v>
       </c>
       <c r="H46" s="11">
-        <v>11613</v>
+        <v>9557</v>
       </c>
       <c r="I46" s="11">
-        <v>9557</v>
+        <v>8845</v>
       </c>
       <c r="J46" s="11">
-        <v>8845</v>
+        <v>17963</v>
       </c>
       <c r="K46" s="11">
-        <v>17963</v>
+        <v>37671</v>
       </c>
       <c r="L46" s="11">
-        <v>37671</v>
+        <v>30779</v>
       </c>
       <c r="M46" s="11">
-        <v>30779</v>
+        <v>9359</v>
       </c>
       <c r="N46" s="11">
-        <v>9359</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21845</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>34</v>
       </c>
@@ -2133,37 +2133,37 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>19907</v>
+        <v>1503</v>
       </c>
       <c r="F47" s="9">
-        <v>1503</v>
+        <v>0</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="I47" s="9">
-        <v>3132</v>
+        <v>0</v>
       </c>
       <c r="J47" s="9">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="K47" s="9">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="L47" s="9">
         <v>0</v>
       </c>
       <c r="M47" s="9">
-        <v>0</v>
+        <v>94213</v>
       </c>
       <c r="N47" s="9">
-        <v>94213</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>179348</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>35</v>
       </c>
@@ -2172,37 +2172,37 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>1243800</v>
+        <v>5590280</v>
       </c>
       <c r="F48" s="11">
-        <v>5590280</v>
+        <v>7653968</v>
       </c>
       <c r="G48" s="11">
-        <v>7653968</v>
+        <v>670430</v>
       </c>
       <c r="H48" s="11">
-        <v>670430</v>
+        <v>1294140</v>
       </c>
       <c r="I48" s="11">
-        <v>1294140</v>
+        <v>5292060</v>
       </c>
       <c r="J48" s="11">
-        <v>5292060</v>
+        <v>14247000</v>
       </c>
       <c r="K48" s="11">
-        <v>14247000</v>
+        <v>758300</v>
       </c>
       <c r="L48" s="11">
-        <v>758300</v>
+        <v>2014060</v>
       </c>
       <c r="M48" s="11">
-        <v>2014060</v>
+        <v>2770680</v>
       </c>
       <c r="N48" s="11">
-        <v>2770680</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>247060</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>37</v>
       </c>
@@ -2211,37 +2211,37 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>12518</v>
+        <v>8174</v>
       </c>
       <c r="F49" s="9">
-        <v>8174</v>
+        <v>17035</v>
       </c>
       <c r="G49" s="9">
-        <v>17035</v>
+        <v>19843</v>
       </c>
       <c r="H49" s="9">
-        <v>19843</v>
+        <v>44381</v>
       </c>
       <c r="I49" s="9">
-        <v>44381</v>
+        <v>44879</v>
       </c>
       <c r="J49" s="9">
-        <v>44879</v>
+        <v>796</v>
       </c>
       <c r="K49" s="9">
-        <v>796</v>
+        <v>0</v>
       </c>
       <c r="L49" s="9">
-        <v>0</v>
+        <v>23334</v>
       </c>
       <c r="M49" s="9">
-        <v>23334</v>
+        <v>32697</v>
       </c>
       <c r="N49" s="9">
-        <v>32697</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22151</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>38</v>
       </c>
@@ -2250,74 +2250,74 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>0</v>
+        <v>4626</v>
       </c>
       <c r="F50" s="11">
-        <v>4626</v>
+        <v>5510</v>
       </c>
       <c r="G50" s="11">
-        <v>5510</v>
+        <v>14589</v>
       </c>
       <c r="H50" s="11">
-        <v>14589</v>
+        <v>4875</v>
       </c>
       <c r="I50" s="11">
-        <v>4875</v>
+        <v>11659</v>
       </c>
       <c r="J50" s="11">
-        <v>11659</v>
+        <v>11437</v>
       </c>
       <c r="K50" s="11">
-        <v>11437</v>
+        <v>1717</v>
       </c>
       <c r="L50" s="11">
-        <v>1717</v>
+        <v>4983</v>
       </c>
       <c r="M50" s="11">
-        <v>4983</v>
+        <v>4965</v>
       </c>
       <c r="N50" s="11">
-        <v>4965</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8965</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
-        <v>2103887</v>
+        <v>6494689</v>
       </c>
       <c r="F51" s="15">
-        <v>6494689</v>
+        <v>8579658</v>
       </c>
       <c r="G51" s="15">
-        <v>8579658</v>
+        <v>1605870</v>
       </c>
       <c r="H51" s="15">
-        <v>1605870</v>
+        <v>2258908</v>
       </c>
       <c r="I51" s="15">
-        <v>2258908</v>
+        <v>6387593</v>
       </c>
       <c r="J51" s="15">
-        <v>6387593</v>
+        <v>15456364</v>
       </c>
       <c r="K51" s="15">
-        <v>15456364</v>
+        <v>1939716</v>
       </c>
       <c r="L51" s="15">
-        <v>1939716</v>
+        <v>3418198</v>
       </c>
       <c r="M51" s="15">
-        <v>3418198</v>
+        <v>3335380</v>
       </c>
       <c r="N51" s="15">
-        <v>3335380</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2841836</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2332,7 +2332,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2347,7 +2347,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2362,7 +2362,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>40</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2414,7 +2414,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>31</v>
       </c>
@@ -2462,37 +2462,37 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>986980</v>
+        <v>417946</v>
       </c>
       <c r="F58" s="11">
-        <v>417946</v>
+        <v>1730963</v>
       </c>
       <c r="G58" s="11">
-        <v>1730963</v>
+        <v>956119</v>
       </c>
       <c r="H58" s="11">
-        <v>956119</v>
+        <v>722004</v>
       </c>
       <c r="I58" s="11">
-        <v>722004</v>
+        <v>1042781</v>
       </c>
       <c r="J58" s="11">
-        <v>1042781</v>
+        <v>1258983</v>
       </c>
       <c r="K58" s="11">
-        <v>1258983</v>
+        <v>937879</v>
       </c>
       <c r="L58" s="11">
-        <v>937879</v>
+        <v>880396</v>
       </c>
       <c r="M58" s="11">
-        <v>880396</v>
+        <v>993974</v>
       </c>
       <c r="N58" s="11">
-        <v>993974</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>746410</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>32</v>
       </c>
@@ -2501,37 +2501,37 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>4478</v>
+        <v>6278</v>
       </c>
       <c r="F59" s="9">
-        <v>6278</v>
+        <v>3756</v>
       </c>
       <c r="G59" s="9">
-        <v>3756</v>
+        <v>1542</v>
       </c>
       <c r="H59" s="9">
-        <v>1542</v>
+        <v>86</v>
       </c>
       <c r="I59" s="9">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="J59" s="9">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="K59" s="9">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="L59" s="9">
-        <v>0</v>
+        <v>2930</v>
       </c>
       <c r="M59" s="9">
-        <v>2930</v>
+        <v>24344</v>
       </c>
       <c r="N59" s="9">
-        <v>24344</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28035</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>33</v>
       </c>
@@ -2540,37 +2540,37 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>24471</v>
+        <v>19568</v>
       </c>
       <c r="F60" s="11">
-        <v>19568</v>
+        <v>18697</v>
       </c>
       <c r="G60" s="11">
-        <v>18697</v>
+        <v>13079</v>
       </c>
       <c r="H60" s="11">
-        <v>13079</v>
+        <v>13563</v>
       </c>
       <c r="I60" s="11">
-        <v>13563</v>
+        <v>18300</v>
       </c>
       <c r="J60" s="11">
-        <v>18300</v>
+        <v>16034</v>
       </c>
       <c r="K60" s="11">
-        <v>16034</v>
+        <v>15510</v>
       </c>
       <c r="L60" s="11">
-        <v>15510</v>
+        <v>18105</v>
       </c>
       <c r="M60" s="11">
-        <v>18105</v>
+        <v>26072</v>
       </c>
       <c r="N60" s="11">
-        <v>26072</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28954</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
@@ -2579,37 +2579,37 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>30315</v>
+        <v>29585</v>
       </c>
       <c r="F61" s="9">
-        <v>29585</v>
+        <v>23026</v>
       </c>
       <c r="G61" s="9">
-        <v>23026</v>
+        <v>8870</v>
       </c>
       <c r="H61" s="9">
-        <v>8870</v>
+        <v>295</v>
       </c>
       <c r="I61" s="9">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="J61" s="9">
-        <v>0</v>
+        <v>20774</v>
       </c>
       <c r="K61" s="9">
-        <v>20774</v>
+        <v>0</v>
       </c>
       <c r="L61" s="9">
         <v>0</v>
       </c>
       <c r="M61" s="9">
-        <v>0</v>
+        <v>39866</v>
       </c>
       <c r="N61" s="9">
-        <v>39866</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>210577</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>35</v>
       </c>
@@ -2618,37 +2618,37 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>3851700</v>
+        <v>4533303</v>
       </c>
       <c r="F62" s="11">
-        <v>4533303</v>
+        <v>3435071</v>
       </c>
       <c r="G62" s="11">
-        <v>3435071</v>
+        <v>3292976</v>
       </c>
       <c r="H62" s="11">
-        <v>3292976</v>
+        <v>2889530</v>
       </c>
       <c r="I62" s="11">
-        <v>2889530</v>
+        <v>4251670</v>
       </c>
       <c r="J62" s="11">
-        <v>4251670</v>
+        <v>3329004</v>
       </c>
       <c r="K62" s="11">
-        <v>3329004</v>
+        <v>3462800</v>
       </c>
       <c r="L62" s="11">
-        <v>3462800</v>
+        <v>3427060</v>
       </c>
       <c r="M62" s="11">
-        <v>3427060</v>
+        <v>4856183</v>
       </c>
       <c r="N62" s="11">
-        <v>4856183</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4278083</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>37</v>
       </c>
@@ -2657,37 +2657,37 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>22400</v>
+        <v>19611</v>
       </c>
       <c r="F63" s="9">
-        <v>19611</v>
+        <v>22117</v>
       </c>
       <c r="G63" s="9">
-        <v>22117</v>
+        <v>17014</v>
       </c>
       <c r="H63" s="9">
-        <v>17014</v>
+        <v>12876</v>
       </c>
       <c r="I63" s="9">
-        <v>12876</v>
+        <v>23863</v>
       </c>
       <c r="J63" s="9">
-        <v>23863</v>
+        <v>22890</v>
       </c>
       <c r="K63" s="9">
-        <v>22890</v>
+        <v>21086</v>
       </c>
       <c r="L63" s="9">
-        <v>21086</v>
+        <v>23125</v>
       </c>
       <c r="M63" s="9">
-        <v>23125</v>
+        <v>27050</v>
       </c>
       <c r="N63" s="9">
-        <v>27050</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25740</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>38</v>
       </c>
@@ -2699,71 +2699,71 @@
         <v>0</v>
       </c>
       <c r="F64" s="11">
-        <v>0</v>
+        <v>4959</v>
       </c>
       <c r="G64" s="11">
-        <v>4959</v>
+        <v>15390</v>
       </c>
       <c r="H64" s="11">
-        <v>15390</v>
+        <v>9188</v>
       </c>
       <c r="I64" s="11">
-        <v>9188</v>
+        <v>11088</v>
       </c>
       <c r="J64" s="11">
-        <v>11088</v>
+        <v>3408</v>
       </c>
       <c r="K64" s="11">
-        <v>3408</v>
+        <v>8909</v>
       </c>
       <c r="L64" s="11">
-        <v>8909</v>
+        <v>6680</v>
       </c>
       <c r="M64" s="11">
-        <v>6680</v>
+        <v>1946</v>
       </c>
       <c r="N64" s="11">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9949</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
-        <v>4920344</v>
+        <v>5026291</v>
       </c>
       <c r="F65" s="15">
-        <v>5026291</v>
+        <v>5238589</v>
       </c>
       <c r="G65" s="15">
-        <v>5238589</v>
+        <v>4304990</v>
       </c>
       <c r="H65" s="15">
-        <v>4304990</v>
+        <v>3647542</v>
       </c>
       <c r="I65" s="15">
-        <v>3647542</v>
+        <v>5347702</v>
       </c>
       <c r="J65" s="15">
-        <v>5347702</v>
+        <v>4651727</v>
       </c>
       <c r="K65" s="15">
-        <v>4651727</v>
+        <v>4446184</v>
       </c>
       <c r="L65" s="15">
-        <v>4446184</v>
+        <v>4358296</v>
       </c>
       <c r="M65" s="15">
-        <v>4358296</v>
+        <v>5969435</v>
       </c>
       <c r="N65" s="15">
-        <v>5969435</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5327748</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2778,7 +2778,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2793,7 +2793,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2808,7 +2808,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>41</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2860,7 +2860,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>31</v>
       </c>
@@ -2908,37 +2908,37 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>732825</v>
+        <v>1179021</v>
       </c>
       <c r="F72" s="11">
-        <v>1179021</v>
+        <v>333470</v>
       </c>
       <c r="G72" s="11">
-        <v>333470</v>
+        <v>266746</v>
       </c>
       <c r="H72" s="11">
-        <v>266746</v>
+        <v>447565</v>
       </c>
       <c r="I72" s="11">
-        <v>447565</v>
+        <v>434934</v>
       </c>
       <c r="J72" s="11">
-        <v>434934</v>
+        <v>353808</v>
       </c>
       <c r="K72" s="11">
-        <v>353808</v>
+        <v>557957</v>
       </c>
       <c r="L72" s="11">
-        <v>557957</v>
+        <v>1022603</v>
       </c>
       <c r="M72" s="11">
-        <v>1022603</v>
+        <v>452095</v>
       </c>
       <c r="N72" s="11">
-        <v>452095</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2065173</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>32</v>
       </c>
@@ -2947,37 +2947,37 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>63903</v>
+        <v>58311</v>
       </c>
       <c r="F73" s="9">
-        <v>58311</v>
+        <v>54555</v>
       </c>
       <c r="G73" s="9">
-        <v>54555</v>
+        <v>52933</v>
       </c>
       <c r="H73" s="9">
-        <v>52933</v>
+        <v>52847</v>
       </c>
       <c r="I73" s="9">
         <v>52847</v>
       </c>
       <c r="J73" s="9">
-        <v>52847</v>
+        <v>52888</v>
       </c>
       <c r="K73" s="9">
         <v>52888</v>
       </c>
       <c r="L73" s="9">
-        <v>52888</v>
+        <v>49959</v>
       </c>
       <c r="M73" s="9">
-        <v>49959</v>
+        <v>25615</v>
       </c>
       <c r="N73" s="9">
-        <v>25615</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>33</v>
       </c>
@@ -2986,37 +2986,37 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>17134</v>
+        <v>22844</v>
       </c>
       <c r="F74" s="11">
-        <v>22844</v>
+        <v>21880</v>
       </c>
       <c r="G74" s="11">
-        <v>21880</v>
+        <v>18818</v>
       </c>
       <c r="H74" s="11">
-        <v>18818</v>
+        <v>14812</v>
       </c>
       <c r="I74" s="11">
-        <v>14812</v>
+        <v>5357</v>
       </c>
       <c r="J74" s="11">
-        <v>5357</v>
+        <v>7286</v>
       </c>
       <c r="K74" s="11">
-        <v>7286</v>
+        <v>29447</v>
       </c>
       <c r="L74" s="11">
-        <v>29447</v>
+        <v>42120</v>
       </c>
       <c r="M74" s="11">
-        <v>42120</v>
+        <v>25407</v>
       </c>
       <c r="N74" s="11">
-        <v>25407</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18298</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>34</v>
       </c>
@@ -3025,22 +3025,22 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>90451</v>
+        <v>62369</v>
       </c>
       <c r="F75" s="9">
-        <v>62369</v>
+        <v>39343</v>
       </c>
       <c r="G75" s="9">
-        <v>39343</v>
+        <v>30474</v>
       </c>
       <c r="H75" s="9">
-        <v>30474</v>
+        <v>33311</v>
       </c>
       <c r="I75" s="9">
         <v>33311</v>
       </c>
       <c r="J75" s="9">
-        <v>33311</v>
+        <v>13173</v>
       </c>
       <c r="K75" s="9">
         <v>13173</v>
@@ -3049,13 +3049,13 @@
         <v>13173</v>
       </c>
       <c r="M75" s="9">
-        <v>13173</v>
+        <v>67520</v>
       </c>
       <c r="N75" s="9">
-        <v>67520</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36291</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>35</v>
       </c>
@@ -3064,37 +3064,37 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>515063</v>
+        <v>1572040</v>
       </c>
       <c r="F76" s="11">
-        <v>1572040</v>
+        <v>5790937</v>
       </c>
       <c r="G76" s="11">
-        <v>5790937</v>
+        <v>3415490</v>
       </c>
       <c r="H76" s="11">
-        <v>3415490</v>
+        <v>1820100</v>
       </c>
       <c r="I76" s="11">
-        <v>1820100</v>
+        <v>2860490</v>
       </c>
       <c r="J76" s="11">
-        <v>2860490</v>
+        <v>13778486</v>
       </c>
       <c r="K76" s="11">
-        <v>13778486</v>
+        <v>11073986</v>
       </c>
       <c r="L76" s="11">
-        <v>11073986</v>
+        <v>9660986</v>
       </c>
       <c r="M76" s="11">
-        <v>9660986</v>
+        <v>7575483</v>
       </c>
       <c r="N76" s="11">
-        <v>7575483</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3544460</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>37</v>
       </c>
@@ -3103,37 +3103,37 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>35003</v>
+        <v>23566</v>
       </c>
       <c r="F77" s="9">
-        <v>23566</v>
+        <v>18484</v>
       </c>
       <c r="G77" s="9">
-        <v>18484</v>
+        <v>21308</v>
       </c>
       <c r="H77" s="9">
-        <v>21308</v>
+        <v>52813</v>
       </c>
       <c r="I77" s="9">
-        <v>52813</v>
+        <v>73829</v>
       </c>
       <c r="J77" s="9">
-        <v>73829</v>
+        <v>51735</v>
       </c>
       <c r="K77" s="9">
-        <v>51735</v>
+        <v>30649</v>
       </c>
       <c r="L77" s="9">
-        <v>30649</v>
+        <v>30858</v>
       </c>
       <c r="M77" s="9">
-        <v>30858</v>
+        <v>36505</v>
       </c>
       <c r="N77" s="9">
-        <v>36505</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>32916</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>38</v>
       </c>
@@ -3142,74 +3142,74 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>235</v>
+        <v>4861</v>
       </c>
       <c r="F78" s="11">
-        <v>4861</v>
+        <v>5412</v>
       </c>
       <c r="G78" s="11">
-        <v>5412</v>
+        <v>4611</v>
       </c>
       <c r="H78" s="11">
-        <v>4611</v>
+        <v>298</v>
       </c>
       <c r="I78" s="11">
-        <v>298</v>
+        <v>869</v>
       </c>
       <c r="J78" s="11">
-        <v>869</v>
+        <v>8898</v>
       </c>
       <c r="K78" s="11">
-        <v>8898</v>
+        <v>1706</v>
       </c>
       <c r="L78" s="11">
-        <v>1706</v>
+        <v>9</v>
       </c>
       <c r="M78" s="11">
-        <v>9</v>
+        <v>3028</v>
       </c>
       <c r="N78" s="11">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>1454801</v>
+        <v>2923199</v>
       </c>
       <c r="F79" s="15">
-        <v>2923199</v>
+        <v>6264268</v>
       </c>
       <c r="G79" s="15">
-        <v>6264268</v>
+        <v>3810567</v>
       </c>
       <c r="H79" s="15">
-        <v>3810567</v>
+        <v>2421933</v>
       </c>
       <c r="I79" s="15">
-        <v>2421933</v>
+        <v>3461824</v>
       </c>
       <c r="J79" s="15">
-        <v>3461824</v>
+        <v>14266461</v>
       </c>
       <c r="K79" s="15">
-        <v>14266461</v>
+        <v>11759993</v>
       </c>
       <c r="L79" s="15">
-        <v>11759993</v>
+        <v>10819895</v>
       </c>
       <c r="M79" s="15">
-        <v>10819895</v>
+        <v>8185840</v>
       </c>
       <c r="N79" s="15">
-        <v>8185840</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5699928</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3224,7 +3224,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3239,7 +3239,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3254,7 +3254,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>42</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3306,7 +3306,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>31</v>
       </c>
@@ -3354,37 +3354,37 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>55761</v>
+        <v>46188</v>
       </c>
       <c r="F86" s="11">
-        <v>46188</v>
+        <v>60811</v>
       </c>
       <c r="G86" s="11">
-        <v>60811</v>
+        <v>38097</v>
       </c>
       <c r="H86" s="11">
-        <v>38097</v>
+        <v>35080</v>
       </c>
       <c r="I86" s="11">
-        <v>35080</v>
+        <v>115913</v>
       </c>
       <c r="J86" s="11">
-        <v>115913</v>
+        <v>121551</v>
       </c>
       <c r="K86" s="11">
-        <v>121551</v>
+        <v>100211</v>
       </c>
       <c r="L86" s="11">
-        <v>100211</v>
+        <v>158410</v>
       </c>
       <c r="M86" s="11">
-        <v>158410</v>
+        <v>356599</v>
       </c>
       <c r="N86" s="11">
-        <v>356599</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>540181</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>32</v>
       </c>
@@ -3393,37 +3393,37 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>36885</v>
+        <v>36195</v>
       </c>
       <c r="F87" s="9">
-        <v>36195</v>
+        <v>33025</v>
       </c>
       <c r="G87" s="9">
-        <v>33025</v>
+        <v>30895</v>
       </c>
       <c r="H87" s="9">
-        <v>30895</v>
+        <v>30021</v>
       </c>
       <c r="I87" s="9">
-        <v>30021</v>
+        <v>29972</v>
       </c>
       <c r="J87" s="9">
         <v>29972</v>
       </c>
       <c r="K87" s="9">
-        <v>29972</v>
+        <v>29994</v>
       </c>
       <c r="L87" s="9">
         <v>29994</v>
       </c>
       <c r="M87" s="9">
-        <v>29994</v>
+        <v>28333</v>
       </c>
       <c r="N87" s="9">
-        <v>28333</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14527</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>33</v>
       </c>
@@ -3432,37 +3432,37 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>4672</v>
+        <v>3172</v>
       </c>
       <c r="F88" s="11">
-        <v>3172</v>
+        <v>6819</v>
       </c>
       <c r="G88" s="11">
-        <v>6819</v>
+        <v>7047</v>
       </c>
       <c r="H88" s="11">
-        <v>7047</v>
+        <v>6735</v>
       </c>
       <c r="I88" s="11">
-        <v>6735</v>
+        <v>5599</v>
       </c>
       <c r="J88" s="11">
-        <v>5599</v>
+        <v>2095</v>
       </c>
       <c r="K88" s="11">
-        <v>2095</v>
+        <v>5348</v>
       </c>
       <c r="L88" s="11">
-        <v>5348</v>
+        <v>26057</v>
       </c>
       <c r="M88" s="11">
-        <v>26057</v>
+        <v>37618</v>
       </c>
       <c r="N88" s="11">
-        <v>37618</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22734</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>34</v>
       </c>
@@ -3471,37 +3471,37 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>5149</v>
+        <v>4697</v>
       </c>
       <c r="F89" s="9">
-        <v>4697</v>
+        <v>3471</v>
       </c>
       <c r="G89" s="9">
-        <v>3471</v>
+        <v>1794</v>
       </c>
       <c r="H89" s="9">
-        <v>1794</v>
+        <v>1389</v>
       </c>
       <c r="I89" s="9">
-        <v>1389</v>
+        <v>2119</v>
       </c>
       <c r="J89" s="9">
         <v>2119</v>
       </c>
       <c r="K89" s="9">
-        <v>2119</v>
+        <v>948</v>
       </c>
       <c r="L89" s="9">
         <v>948</v>
       </c>
       <c r="M89" s="9">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="N89" s="9">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19825</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>35</v>
       </c>
@@ -3510,37 +3510,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>47349</v>
+        <v>9299</v>
       </c>
       <c r="F90" s="11">
-        <v>9299</v>
+        <v>70730</v>
       </c>
       <c r="G90" s="11">
-        <v>70730</v>
+        <v>199820</v>
       </c>
       <c r="H90" s="11">
-        <v>199820</v>
+        <v>172787</v>
       </c>
       <c r="I90" s="11">
-        <v>172787</v>
+        <v>63503</v>
       </c>
       <c r="J90" s="11">
-        <v>63503</v>
+        <v>106016</v>
       </c>
       <c r="K90" s="11">
-        <v>106016</v>
+        <v>610660</v>
       </c>
       <c r="L90" s="11">
-        <v>610660</v>
+        <v>512339</v>
       </c>
       <c r="M90" s="11">
-        <v>512339</v>
+        <v>348790</v>
       </c>
       <c r="N90" s="11">
-        <v>348790</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>267716</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>37</v>
       </c>
@@ -3549,37 +3549,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>50910</v>
+        <v>40863</v>
       </c>
       <c r="F91" s="9">
-        <v>40863</v>
+        <v>29708</v>
       </c>
       <c r="G91" s="9">
-        <v>29708</v>
+        <v>44992</v>
       </c>
       <c r="H91" s="9">
-        <v>44992</v>
+        <v>72010</v>
       </c>
       <c r="I91" s="9">
-        <v>72010</v>
+        <v>201415</v>
       </c>
       <c r="J91" s="9">
-        <v>201415</v>
+        <v>288191</v>
       </c>
       <c r="K91" s="9">
-        <v>288191</v>
+        <v>201949</v>
       </c>
       <c r="L91" s="9">
-        <v>201949</v>
+        <v>119639</v>
       </c>
       <c r="M91" s="9">
-        <v>119639</v>
+        <v>163787</v>
       </c>
       <c r="N91" s="9">
-        <v>163787</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>219755</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>38</v>
       </c>
@@ -3591,71 +3591,71 @@
         <v>31</v>
       </c>
       <c r="F92" s="11">
-        <v>31</v>
+        <v>2274</v>
       </c>
       <c r="G92" s="11">
-        <v>2274</v>
+        <v>2787</v>
       </c>
       <c r="H92" s="11">
-        <v>2787</v>
+        <v>2825</v>
       </c>
       <c r="I92" s="11">
-        <v>2825</v>
+        <v>240</v>
       </c>
       <c r="J92" s="11">
-        <v>240</v>
+        <v>738</v>
       </c>
       <c r="K92" s="11">
-        <v>738</v>
+        <v>7777</v>
       </c>
       <c r="L92" s="11">
-        <v>7777</v>
+        <v>1492</v>
       </c>
       <c r="M92" s="11">
-        <v>1492</v>
+        <v>13</v>
       </c>
       <c r="N92" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>200829</v>
+        <v>140517</v>
       </c>
       <c r="F93" s="15">
-        <v>140517</v>
+        <v>206910</v>
       </c>
       <c r="G93" s="15">
-        <v>206910</v>
+        <v>325504</v>
       </c>
       <c r="H93" s="15">
-        <v>325504</v>
+        <v>320919</v>
       </c>
       <c r="I93" s="15">
-        <v>320919</v>
+        <v>418833</v>
       </c>
       <c r="J93" s="15">
-        <v>418833</v>
+        <v>550754</v>
       </c>
       <c r="K93" s="15">
-        <v>550754</v>
+        <v>956959</v>
       </c>
       <c r="L93" s="15">
-        <v>956959</v>
+        <v>848951</v>
       </c>
       <c r="M93" s="15">
-        <v>848951</v>
+        <v>936161</v>
       </c>
       <c r="N93" s="15">
-        <v>936161</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1089251</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3670,7 +3670,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3685,7 +3685,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3700,7 +3700,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>44</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3752,7 +3752,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>29</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>31</v>
       </c>
@@ -3800,37 +3800,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>53124</v>
+        <v>88162</v>
       </c>
       <c r="F100" s="11">
-        <v>88162</v>
+        <v>107754</v>
       </c>
       <c r="G100" s="11">
-        <v>107754</v>
+        <v>119179</v>
       </c>
       <c r="H100" s="11">
-        <v>119179</v>
+        <v>256401</v>
       </c>
       <c r="I100" s="11">
-        <v>256401</v>
+        <v>292563</v>
       </c>
       <c r="J100" s="11">
-        <v>292563</v>
+        <v>334512</v>
       </c>
       <c r="K100" s="11">
-        <v>334512</v>
+        <v>324336</v>
       </c>
       <c r="L100" s="11">
-        <v>324336</v>
+        <v>508421</v>
       </c>
       <c r="M100" s="11">
-        <v>508421</v>
+        <v>545747</v>
       </c>
       <c r="N100" s="11">
-        <v>545747</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>885825</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>32</v>
       </c>
@@ -3839,10 +3839,10 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>1850</v>
+        <v>390</v>
       </c>
       <c r="F101" s="9">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="G101" s="9">
         <v>0</v>
@@ -3854,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="J101" s="9">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="K101" s="9">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="L101" s="9">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="N101" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5382</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>33</v>
       </c>
@@ -3878,37 +3878,37 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>3357</v>
+        <v>9256</v>
       </c>
       <c r="F102" s="11">
-        <v>9256</v>
+        <v>6482</v>
       </c>
       <c r="G102" s="11">
-        <v>6482</v>
+        <v>4333</v>
       </c>
       <c r="H102" s="11">
-        <v>4333</v>
+        <v>3918</v>
       </c>
       <c r="I102" s="11">
-        <v>3918</v>
+        <v>3626</v>
       </c>
       <c r="J102" s="11">
-        <v>3626</v>
+        <v>11303</v>
       </c>
       <c r="K102" s="11">
-        <v>11303</v>
+        <v>33904</v>
       </c>
       <c r="L102" s="11">
-        <v>33904</v>
+        <v>27701</v>
       </c>
       <c r="M102" s="11">
-        <v>27701</v>
+        <v>8423</v>
       </c>
       <c r="N102" s="11">
-        <v>8423</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22309</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>34</v>
       </c>
@@ -3917,37 +3917,37 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>912</v>
+        <v>123</v>
       </c>
       <c r="F103" s="9">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G103" s="9">
         <v>0</v>
       </c>
       <c r="H103" s="9">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="I103" s="9">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="J103" s="9">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="K103" s="9">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="L103" s="9">
         <v>0</v>
       </c>
       <c r="M103" s="9">
-        <v>0</v>
+        <v>30220</v>
       </c>
       <c r="N103" s="9">
-        <v>30220</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>96644</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>35</v>
       </c>
@@ -3956,37 +3956,37 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>24922</v>
+        <v>177591</v>
       </c>
       <c r="F104" s="11">
-        <v>177591</v>
+        <v>258282</v>
       </c>
       <c r="G104" s="11">
-        <v>258282</v>
+        <v>27542</v>
       </c>
       <c r="H104" s="11">
-        <v>27542</v>
+        <v>44882</v>
       </c>
       <c r="I104" s="11">
-        <v>44882</v>
+        <v>198641</v>
       </c>
       <c r="J104" s="11">
-        <v>198641</v>
+        <v>520016</v>
       </c>
       <c r="K104" s="11">
-        <v>520016</v>
+        <v>27678</v>
       </c>
       <c r="L104" s="11">
-        <v>27678</v>
+        <v>67471</v>
       </c>
       <c r="M104" s="11">
-        <v>67471</v>
+        <v>92784</v>
       </c>
       <c r="N104" s="11">
-        <v>92784</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>37</v>
       </c>
@@ -3995,37 +3995,37 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>16209</v>
+        <v>13668</v>
       </c>
       <c r="F105" s="9">
-        <v>13668</v>
+        <v>61366</v>
       </c>
       <c r="G105" s="9">
-        <v>61366</v>
+        <v>76392</v>
       </c>
       <c r="H105" s="9">
-        <v>76392</v>
+        <v>177523</v>
       </c>
       <c r="I105" s="9">
-        <v>177523</v>
+        <v>179514</v>
       </c>
       <c r="J105" s="9">
-        <v>179514</v>
+        <v>3110</v>
       </c>
       <c r="K105" s="9">
-        <v>3110</v>
+        <v>0</v>
       </c>
       <c r="L105" s="9">
-        <v>0</v>
+        <v>154006</v>
       </c>
       <c r="M105" s="9">
-        <v>154006</v>
+        <v>215800</v>
       </c>
       <c r="N105" s="9">
-        <v>215800</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>143560</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>38</v>
       </c>
@@ -4034,74 +4034,74 @@
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>0</v>
+        <v>2243</v>
       </c>
       <c r="F106" s="11">
-        <v>2243</v>
+        <v>2835</v>
       </c>
       <c r="G106" s="11">
-        <v>2835</v>
+        <v>7964</v>
       </c>
       <c r="H106" s="11">
-        <v>7964</v>
+        <v>3319</v>
       </c>
       <c r="I106" s="11">
-        <v>3319</v>
+        <v>9910</v>
       </c>
       <c r="J106" s="11">
-        <v>9910</v>
+        <v>9982</v>
       </c>
       <c r="K106" s="11">
-        <v>9982</v>
+        <v>1511</v>
       </c>
       <c r="L106" s="11">
-        <v>1511</v>
+        <v>7934</v>
       </c>
       <c r="M106" s="11">
-        <v>7934</v>
+        <v>7284</v>
       </c>
       <c r="N106" s="11">
-        <v>7284</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14468</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>100374</v>
+        <v>291433</v>
       </c>
       <c r="F107" s="15">
-        <v>291433</v>
+        <v>436719</v>
       </c>
       <c r="G107" s="15">
-        <v>436719</v>
+        <v>235410</v>
       </c>
       <c r="H107" s="15">
-        <v>235410</v>
+        <v>486787</v>
       </c>
       <c r="I107" s="15">
-        <v>486787</v>
+        <v>684254</v>
       </c>
       <c r="J107" s="15">
-        <v>684254</v>
+        <v>879456</v>
       </c>
       <c r="K107" s="15">
-        <v>879456</v>
+        <v>387429</v>
       </c>
       <c r="L107" s="15">
-        <v>387429</v>
+        <v>765533</v>
       </c>
       <c r="M107" s="15">
-        <v>765533</v>
+        <v>900258</v>
       </c>
       <c r="N107" s="15">
-        <v>900258</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1176498</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4116,7 +4116,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4131,7 +4131,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4146,7 +4146,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>45</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4198,7 +4198,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>29</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>31</v>
       </c>
@@ -4246,37 +4246,37 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>62697</v>
+        <v>73539</v>
       </c>
       <c r="F114" s="11">
-        <v>73539</v>
+        <v>129474</v>
       </c>
       <c r="G114" s="11">
-        <v>129474</v>
+        <v>122196</v>
       </c>
       <c r="H114" s="11">
-        <v>122196</v>
+        <v>175568</v>
       </c>
       <c r="I114" s="11">
-        <v>175568</v>
+        <v>286925</v>
       </c>
       <c r="J114" s="11">
-        <v>286925</v>
+        <v>355852</v>
       </c>
       <c r="K114" s="11">
-        <v>355852</v>
+        <v>266137</v>
       </c>
       <c r="L114" s="11">
-        <v>266137</v>
+        <v>310232</v>
       </c>
       <c r="M114" s="11">
-        <v>310232</v>
+        <v>362165</v>
       </c>
       <c r="N114" s="11">
-        <v>362165</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>639355</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>32</v>
       </c>
@@ -4285,37 +4285,37 @@
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>2540</v>
+        <v>3560</v>
       </c>
       <c r="F115" s="9">
-        <v>3560</v>
+        <v>2131</v>
       </c>
       <c r="G115" s="9">
-        <v>2131</v>
+        <v>874</v>
       </c>
       <c r="H115" s="9">
-        <v>874</v>
+        <v>49</v>
       </c>
       <c r="I115" s="9">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J115" s="9">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="K115" s="9">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="L115" s="9">
-        <v>0</v>
+        <v>1662</v>
       </c>
       <c r="M115" s="9">
-        <v>1662</v>
+        <v>13806</v>
       </c>
       <c r="N115" s="9">
-        <v>13806</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19415</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>33</v>
       </c>
@@ -4324,37 +4324,37 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>4857</v>
+        <v>5609</v>
       </c>
       <c r="F116" s="11">
-        <v>5609</v>
+        <v>6449</v>
       </c>
       <c r="G116" s="11">
-        <v>6449</v>
+        <v>4645</v>
       </c>
       <c r="H116" s="11">
-        <v>4645</v>
+        <v>5054</v>
       </c>
       <c r="I116" s="11">
-        <v>5054</v>
+        <v>7130</v>
       </c>
       <c r="J116" s="11">
-        <v>7130</v>
+        <v>8050</v>
       </c>
       <c r="K116" s="11">
-        <v>8050</v>
+        <v>13195</v>
       </c>
       <c r="L116" s="11">
-        <v>13195</v>
+        <v>16140</v>
       </c>
       <c r="M116" s="11">
-        <v>16140</v>
+        <v>23307</v>
       </c>
       <c r="N116" s="11">
-        <v>23307</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27002</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>34</v>
       </c>
@@ -4363,37 +4363,37 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>1364</v>
+        <v>1349</v>
       </c>
       <c r="F117" s="9">
-        <v>1349</v>
+        <v>1050</v>
       </c>
       <c r="G117" s="9">
-        <v>1050</v>
+        <v>405</v>
       </c>
       <c r="H117" s="9">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="I117" s="9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J117" s="9">
-        <v>0</v>
+        <v>1322</v>
       </c>
       <c r="K117" s="9">
-        <v>1322</v>
+        <v>0</v>
       </c>
       <c r="L117" s="9">
         <v>0</v>
       </c>
       <c r="M117" s="9">
-        <v>0</v>
+        <v>11344</v>
       </c>
       <c r="N117" s="9">
-        <v>11344</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>99889</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>35</v>
       </c>
@@ -4402,37 +4402,37 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>62972</v>
+        <v>116160</v>
       </c>
       <c r="F118" s="11">
-        <v>116160</v>
+        <v>216721</v>
       </c>
       <c r="G118" s="11">
-        <v>216721</v>
+        <v>54575</v>
       </c>
       <c r="H118" s="11">
-        <v>54575</v>
+        <v>154166</v>
       </c>
       <c r="I118" s="11">
-        <v>154166</v>
+        <v>156128</v>
       </c>
       <c r="J118" s="11">
-        <v>156128</v>
+        <v>15372</v>
       </c>
       <c r="K118" s="11">
-        <v>15372</v>
+        <v>125999</v>
       </c>
       <c r="L118" s="11">
-        <v>125999</v>
+        <v>124169</v>
       </c>
       <c r="M118" s="11">
-        <v>124169</v>
+        <v>173858</v>
       </c>
       <c r="N118" s="11">
-        <v>173858</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>150965</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>37</v>
       </c>
@@ -4441,37 +4441,37 @@
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
-        <v>26256</v>
+        <v>24823</v>
       </c>
       <c r="F119" s="9">
-        <v>24823</v>
+        <v>47212</v>
       </c>
       <c r="G119" s="9">
-        <v>47212</v>
+        <v>49374</v>
       </c>
       <c r="H119" s="9">
-        <v>49374</v>
+        <v>48118</v>
       </c>
       <c r="I119" s="9">
-        <v>48118</v>
+        <v>92738</v>
       </c>
       <c r="J119" s="9">
-        <v>92738</v>
+        <v>89352</v>
       </c>
       <c r="K119" s="9">
-        <v>89352</v>
+        <v>82310</v>
       </c>
       <c r="L119" s="9">
-        <v>82310</v>
+        <v>109859</v>
       </c>
       <c r="M119" s="9">
-        <v>109859</v>
+        <v>159832</v>
       </c>
       <c r="N119" s="9">
-        <v>159832</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>158653</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>38</v>
       </c>
@@ -4483,71 +4483,71 @@
         <v>0</v>
       </c>
       <c r="F120" s="11">
-        <v>0</v>
+        <v>2323</v>
       </c>
       <c r="G120" s="11">
-        <v>2323</v>
+        <v>7926</v>
       </c>
       <c r="H120" s="11">
-        <v>7926</v>
+        <v>3739</v>
       </c>
       <c r="I120" s="11">
-        <v>3739</v>
+        <v>9412</v>
       </c>
       <c r="J120" s="11">
-        <v>9412</v>
+        <v>2943</v>
       </c>
       <c r="K120" s="11">
-        <v>2943</v>
+        <v>7796</v>
       </c>
       <c r="L120" s="11">
-        <v>7796</v>
+        <v>9413</v>
       </c>
       <c r="M120" s="11">
-        <v>9413</v>
+        <v>2856</v>
       </c>
       <c r="N120" s="11">
-        <v>2856</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15614</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
-        <v>160686</v>
+        <v>225040</v>
       </c>
       <c r="F121" s="15">
-        <v>225040</v>
+        <v>405360</v>
       </c>
       <c r="G121" s="15">
-        <v>405360</v>
+        <v>239995</v>
       </c>
       <c r="H121" s="15">
-        <v>239995</v>
+        <v>386708</v>
       </c>
       <c r="I121" s="15">
-        <v>386708</v>
+        <v>552333</v>
       </c>
       <c r="J121" s="15">
-        <v>552333</v>
+        <v>473251</v>
       </c>
       <c r="K121" s="15">
-        <v>473251</v>
+        <v>495437</v>
       </c>
       <c r="L121" s="15">
-        <v>495437</v>
+        <v>571475</v>
       </c>
       <c r="M121" s="15">
-        <v>571475</v>
+        <v>747168</v>
       </c>
       <c r="N121" s="15">
-        <v>747168</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1110893</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4562,7 +4562,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4577,7 +4577,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4592,7 +4592,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>46</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4644,7 +4644,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>29</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>31</v>
       </c>
@@ -4692,37 +4692,37 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>46188</v>
+        <v>60811</v>
       </c>
       <c r="F128" s="11">
-        <v>60811</v>
+        <v>39091</v>
       </c>
       <c r="G128" s="11">
-        <v>39091</v>
+        <v>35080</v>
       </c>
       <c r="H128" s="11">
-        <v>35080</v>
+        <v>115913</v>
       </c>
       <c r="I128" s="11">
-        <v>115913</v>
+        <v>121551</v>
       </c>
       <c r="J128" s="11">
-        <v>121551</v>
+        <v>100211</v>
       </c>
       <c r="K128" s="11">
-        <v>100211</v>
+        <v>158410</v>
       </c>
       <c r="L128" s="11">
-        <v>158410</v>
+        <v>356599</v>
       </c>
       <c r="M128" s="11">
-        <v>356599</v>
+        <v>540181</v>
       </c>
       <c r="N128" s="11">
-        <v>540181</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>786651</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>32</v>
       </c>
@@ -4731,37 +4731,37 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>36195</v>
+        <v>33025</v>
       </c>
       <c r="F129" s="9">
-        <v>33025</v>
+        <v>30894</v>
       </c>
       <c r="G129" s="9">
-        <v>30894</v>
+        <v>30021</v>
       </c>
       <c r="H129" s="9">
-        <v>30021</v>
+        <v>29972</v>
       </c>
       <c r="I129" s="9">
         <v>29972</v>
       </c>
       <c r="J129" s="9">
-        <v>29972</v>
+        <v>29994</v>
       </c>
       <c r="K129" s="9">
         <v>29994</v>
       </c>
       <c r="L129" s="9">
-        <v>29994</v>
+        <v>28333</v>
       </c>
       <c r="M129" s="9">
-        <v>28333</v>
+        <v>14527</v>
       </c>
       <c r="N129" s="9">
-        <v>14527</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>33</v>
       </c>
@@ -4770,37 +4770,37 @@
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>3172</v>
+        <v>6819</v>
       </c>
       <c r="F130" s="11">
-        <v>6819</v>
+        <v>6852</v>
       </c>
       <c r="G130" s="11">
-        <v>6852</v>
+        <v>6735</v>
       </c>
       <c r="H130" s="11">
-        <v>6735</v>
+        <v>5599</v>
       </c>
       <c r="I130" s="11">
-        <v>5599</v>
+        <v>2095</v>
       </c>
       <c r="J130" s="11">
-        <v>2095</v>
+        <v>5348</v>
       </c>
       <c r="K130" s="11">
-        <v>5348</v>
+        <v>26057</v>
       </c>
       <c r="L130" s="11">
-        <v>26057</v>
+        <v>37618</v>
       </c>
       <c r="M130" s="11">
-        <v>37618</v>
+        <v>22734</v>
       </c>
       <c r="N130" s="11">
-        <v>22734</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18041</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>34</v>
       </c>
@@ -4809,37 +4809,37 @@
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
-        <v>4697</v>
+        <v>3471</v>
       </c>
       <c r="F131" s="9">
-        <v>3471</v>
+        <v>2421</v>
       </c>
       <c r="G131" s="9">
-        <v>2421</v>
+        <v>1389</v>
       </c>
       <c r="H131" s="9">
-        <v>1389</v>
+        <v>2119</v>
       </c>
       <c r="I131" s="9">
         <v>2119</v>
       </c>
       <c r="J131" s="9">
-        <v>2119</v>
+        <v>948</v>
       </c>
       <c r="K131" s="9">
         <v>948</v>
       </c>
       <c r="L131" s="9">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="M131" s="9">
-        <v>949</v>
+        <v>19825</v>
       </c>
       <c r="N131" s="9">
-        <v>19825</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16580</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>35</v>
       </c>
@@ -4848,37 +4848,37 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>9299</v>
+        <v>70730</v>
       </c>
       <c r="F132" s="11">
-        <v>70730</v>
+        <v>112291</v>
       </c>
       <c r="G132" s="11">
-        <v>112291</v>
+        <v>172787</v>
       </c>
       <c r="H132" s="11">
-        <v>172787</v>
+        <v>63503</v>
       </c>
       <c r="I132" s="11">
-        <v>63503</v>
+        <v>106016</v>
       </c>
       <c r="J132" s="11">
-        <v>106016</v>
+        <v>610660</v>
       </c>
       <c r="K132" s="11">
-        <v>610660</v>
+        <v>512339</v>
       </c>
       <c r="L132" s="11">
-        <v>512339</v>
+        <v>348790</v>
       </c>
       <c r="M132" s="11">
-        <v>348790</v>
+        <v>267716</v>
       </c>
       <c r="N132" s="11">
-        <v>267716</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>125061</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>37</v>
       </c>
@@ -4887,37 +4887,37 @@
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>40863</v>
+        <v>29708</v>
       </c>
       <c r="F133" s="9">
-        <v>29708</v>
+        <v>43862</v>
       </c>
       <c r="G133" s="9">
-        <v>43862</v>
+        <v>72010</v>
       </c>
       <c r="H133" s="9">
-        <v>72010</v>
+        <v>201415</v>
       </c>
       <c r="I133" s="9">
-        <v>201415</v>
+        <v>288191</v>
       </c>
       <c r="J133" s="9">
-        <v>288191</v>
+        <v>201949</v>
       </c>
       <c r="K133" s="9">
-        <v>201949</v>
+        <v>119639</v>
       </c>
       <c r="L133" s="9">
-        <v>119639</v>
+        <v>163787</v>
       </c>
       <c r="M133" s="9">
-        <v>163787</v>
+        <v>219755</v>
       </c>
       <c r="N133" s="9">
-        <v>219755</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>204662</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>38</v>
       </c>
@@ -4926,74 +4926,74 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>31</v>
+        <v>2274</v>
       </c>
       <c r="F134" s="11">
-        <v>2274</v>
+        <v>2786</v>
       </c>
       <c r="G134" s="11">
-        <v>2786</v>
+        <v>2825</v>
       </c>
       <c r="H134" s="11">
-        <v>2825</v>
+        <v>240</v>
       </c>
       <c r="I134" s="11">
-        <v>240</v>
+        <v>738</v>
       </c>
       <c r="J134" s="11">
-        <v>738</v>
+        <v>7777</v>
       </c>
       <c r="K134" s="11">
-        <v>7777</v>
+        <v>1492</v>
       </c>
       <c r="L134" s="11">
-        <v>1492</v>
+        <v>13</v>
       </c>
       <c r="M134" s="11">
-        <v>13</v>
+        <v>4441</v>
       </c>
       <c r="N134" s="11">
-        <v>4441</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>140517</v>
+        <v>206910</v>
       </c>
       <c r="F135" s="15">
-        <v>206910</v>
+        <v>238269</v>
       </c>
       <c r="G135" s="15">
-        <v>238269</v>
+        <v>320919</v>
       </c>
       <c r="H135" s="15">
-        <v>320919</v>
+        <v>418833</v>
       </c>
       <c r="I135" s="15">
-        <v>418833</v>
+        <v>550754</v>
       </c>
       <c r="J135" s="15">
-        <v>550754</v>
+        <v>956959</v>
       </c>
       <c r="K135" s="15">
-        <v>956959</v>
+        <v>848951</v>
       </c>
       <c r="L135" s="15">
-        <v>848951</v>
+        <v>936161</v>
       </c>
       <c r="M135" s="15">
-        <v>936161</v>
+        <v>1089251</v>
       </c>
       <c r="N135" s="15">
-        <v>1089251</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1154856</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5008,7 +5008,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5023,7 +5023,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5038,7 +5038,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>47</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5090,7 +5090,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>29</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>385027</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>31</v>
       </c>
@@ -5138,37 +5138,37 @@
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
-        <v>61501</v>
+        <v>63027</v>
       </c>
       <c r="F142" s="11">
-        <v>63027</v>
+        <v>51578</v>
       </c>
       <c r="G142" s="11">
-        <v>51578</v>
+        <v>114244</v>
       </c>
       <c r="H142" s="11">
-        <v>114244</v>
+        <v>131511</v>
       </c>
       <c r="I142" s="11">
-        <v>131511</v>
+        <v>258986</v>
       </c>
       <c r="J142" s="11">
-        <v>258986</v>
+        <v>279470</v>
       </c>
       <c r="K142" s="11">
-        <v>279470</v>
+        <v>283236</v>
       </c>
       <c r="L142" s="11">
-        <v>283236</v>
+        <v>283911</v>
       </c>
       <c r="M142" s="11">
-        <v>283911</v>
+        <v>348717</v>
       </c>
       <c r="N142" s="11">
-        <v>348717</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1194840</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>32</v>
       </c>
@@ -5177,37 +5177,37 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>566285</v>
+        <v>566405</v>
       </c>
       <c r="F143" s="9">
-        <v>566405</v>
+        <v>566360</v>
       </c>
       <c r="G143" s="9">
-        <v>566360</v>
+        <v>567141</v>
       </c>
       <c r="H143" s="9">
-        <v>567141</v>
+        <v>567151</v>
       </c>
       <c r="I143" s="9">
-        <v>567151</v>
+        <v>567147</v>
       </c>
       <c r="J143" s="9">
         <v>567147</v>
       </c>
       <c r="K143" s="9">
-        <v>567147</v>
+        <v>567123</v>
       </c>
       <c r="L143" s="9">
         <v>567123</v>
       </c>
       <c r="M143" s="9">
-        <v>567123</v>
+        <v>567125</v>
       </c>
       <c r="N143" s="9">
-        <v>567125</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>567129</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>33</v>
       </c>
@@ -5216,37 +5216,37 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>154029</v>
+        <v>185129</v>
       </c>
       <c r="F144" s="11">
-        <v>185129</v>
+        <v>298503</v>
       </c>
       <c r="G144" s="11">
-        <v>298503</v>
+        <v>347417</v>
       </c>
       <c r="H144" s="11">
-        <v>347417</v>
+        <v>357902</v>
       </c>
       <c r="I144" s="11">
-        <v>357902</v>
+        <v>378004</v>
       </c>
       <c r="J144" s="11">
-        <v>378004</v>
+        <v>391077</v>
       </c>
       <c r="K144" s="11">
-        <v>391077</v>
+        <v>734010</v>
       </c>
       <c r="L144" s="11">
-        <v>734010</v>
+        <v>884878</v>
       </c>
       <c r="M144" s="11">
-        <v>884878</v>
+        <v>893115</v>
       </c>
       <c r="N144" s="11">
-        <v>893115</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>894793</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>34</v>
       </c>
@@ -5255,37 +5255,37 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>51051</v>
+        <v>51929</v>
       </c>
       <c r="F145" s="9">
-        <v>51929</v>
+        <v>55653</v>
       </c>
       <c r="G145" s="9">
-        <v>55653</v>
+        <v>45598</v>
       </c>
       <c r="H145" s="9">
-        <v>45598</v>
+        <v>45580</v>
       </c>
       <c r="I145" s="9">
-        <v>45580</v>
+        <v>63613</v>
       </c>
       <c r="J145" s="9">
         <v>63613</v>
       </c>
       <c r="K145" s="9">
-        <v>63613</v>
+        <v>71965</v>
       </c>
       <c r="L145" s="9">
         <v>71965</v>
       </c>
       <c r="M145" s="9">
-        <v>71965</v>
+        <v>72041</v>
       </c>
       <c r="N145" s="9">
-        <v>72041</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>293617</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>35</v>
       </c>
@@ -5294,37 +5294,37 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>15162</v>
+        <v>18054</v>
       </c>
       <c r="F146" s="11">
-        <v>18054</v>
+        <v>44992</v>
       </c>
       <c r="G146" s="11">
-        <v>44992</v>
+        <v>33094</v>
       </c>
       <c r="H146" s="11">
-        <v>33094</v>
+        <v>50589</v>
       </c>
       <c r="I146" s="11">
-        <v>50589</v>
+        <v>34890</v>
       </c>
       <c r="J146" s="11">
-        <v>34890</v>
+        <v>37062</v>
       </c>
       <c r="K146" s="11">
-        <v>37062</v>
+        <v>44320</v>
       </c>
       <c r="L146" s="11">
-        <v>44320</v>
+        <v>46265</v>
       </c>
       <c r="M146" s="11">
-        <v>46265</v>
+        <v>36103</v>
       </c>
       <c r="N146" s="11">
-        <v>36103</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35340</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>37</v>
       </c>
@@ -5333,37 +5333,37 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>1134232</v>
+        <v>1167414</v>
       </c>
       <c r="F147" s="9">
-        <v>1167414</v>
+        <v>1260630</v>
       </c>
       <c r="G147" s="9">
-        <v>1260630</v>
+        <v>2434764</v>
       </c>
       <c r="H147" s="9">
-        <v>2434764</v>
+        <v>3379482</v>
       </c>
       <c r="I147" s="9">
-        <v>3379482</v>
+        <v>3813739</v>
       </c>
       <c r="J147" s="9">
-        <v>3813739</v>
+        <v>3903493</v>
       </c>
       <c r="K147" s="9">
-        <v>3903493</v>
+        <v>3903528</v>
       </c>
       <c r="L147" s="9">
-        <v>3903528</v>
+        <v>3903521</v>
       </c>
       <c r="M147" s="9">
-        <v>3903521</v>
+        <v>5307765</v>
       </c>
       <c r="N147" s="9">
-        <v>5307765</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6019860</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>38</v>
       </c>
@@ -5375,34 +5375,34 @@
         <v>131915</v>
       </c>
       <c r="F148" s="11">
-        <v>131915</v>
+        <v>467805</v>
       </c>
       <c r="G148" s="11">
-        <v>467805</v>
+        <v>514967</v>
       </c>
       <c r="H148" s="11">
-        <v>514967</v>
+        <v>612665</v>
       </c>
       <c r="I148" s="11">
-        <v>612665</v>
+        <v>805369</v>
       </c>
       <c r="J148" s="11">
-        <v>805369</v>
+        <v>849252</v>
       </c>
       <c r="K148" s="11">
-        <v>849252</v>
+        <v>874017</v>
       </c>
       <c r="L148" s="11">
-        <v>874017</v>
+        <v>874560</v>
       </c>
       <c r="M148" s="11">
-        <v>874560</v>
+        <v>1444444</v>
       </c>
       <c r="N148" s="11">
-        <v>1444444</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1466645</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5417,7 +5417,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5432,7 +5432,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5447,7 +5447,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
         <v>50</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5499,7 +5499,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>31</v>
       </c>
@@ -5508,37 +5508,37 @@
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
-        <v>65332</v>
+        <v>102023</v>
       </c>
       <c r="F154" s="9">
-        <v>102023</v>
+        <v>121699</v>
       </c>
       <c r="G154" s="9">
-        <v>121699</v>
+        <v>134000</v>
       </c>
       <c r="H154" s="9">
-        <v>134000</v>
+        <v>283999</v>
       </c>
       <c r="I154" s="9">
-        <v>283999</v>
+        <v>284000</v>
       </c>
       <c r="J154" s="9">
+        <v>284001</v>
+      </c>
+      <c r="K154" s="9">
         <v>284000</v>
       </c>
-      <c r="K154" s="9">
-        <v>284001</v>
-      </c>
       <c r="L154" s="9">
-        <v>284000</v>
+        <v>377996</v>
       </c>
       <c r="M154" s="9">
-        <v>377996</v>
+        <v>1288762</v>
       </c>
       <c r="N154" s="9">
-        <v>1288762</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>375431</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>32</v>
       </c>
@@ -5547,10 +5547,10 @@
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
-        <v>569932</v>
-      </c>
-      <c r="F155" s="11">
         <v>568513</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>51</v>
@@ -5561,11 +5561,11 @@
       <c r="I155" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J155" s="11" t="s">
+      <c r="J155" s="11">
+        <v>565926</v>
+      </c>
+      <c r="K155" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="K155" s="11">
-        <v>565926</v>
       </c>
       <c r="L155" s="11" t="s">
         <v>51</v>
@@ -5573,11 +5573,11 @@
       <c r="M155" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N155" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N155" s="11">
+        <v>1806647</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>33</v>
       </c>
@@ -5586,37 +5586,37 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
-        <v>297791</v>
+        <v>366168</v>
       </c>
       <c r="F156" s="9">
-        <v>366168</v>
+        <v>365533</v>
       </c>
       <c r="G156" s="9">
-        <v>365533</v>
+        <v>373116</v>
       </c>
       <c r="H156" s="9">
-        <v>373116</v>
+        <v>409961</v>
       </c>
       <c r="I156" s="9">
-        <v>409961</v>
+        <v>409949</v>
       </c>
       <c r="J156" s="9">
-        <v>409949</v>
+        <v>629238</v>
       </c>
       <c r="K156" s="9">
-        <v>629238</v>
+        <v>900003</v>
       </c>
       <c r="L156" s="9">
-        <v>900003</v>
+        <v>899997</v>
       </c>
       <c r="M156" s="9">
-        <v>899997</v>
+        <v>899989</v>
       </c>
       <c r="N156" s="9">
-        <v>899989</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1021241</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>34</v>
       </c>
@@ -5625,37 +5625,37 @@
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11">
-        <v>45813</v>
-      </c>
-      <c r="F157" s="11">
         <v>81836</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H157" s="11" t="s">
+      <c r="H157" s="11">
+        <v>237548</v>
+      </c>
+      <c r="I157" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I157" s="11">
-        <v>237548</v>
-      </c>
-      <c r="J157" s="11" t="s">
+      <c r="J157" s="11">
+        <v>237421</v>
+      </c>
+      <c r="K157" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="K157" s="11">
-        <v>237421</v>
       </c>
       <c r="L157" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M157" s="11" t="s">
-        <v>51</v>
+      <c r="M157" s="11">
+        <v>320763</v>
       </c>
       <c r="N157" s="11">
-        <v>320763</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>538863</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>35</v>
       </c>
@@ -5664,37 +5664,37 @@
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9">
-        <v>20037</v>
+        <v>31768</v>
       </c>
       <c r="F158" s="9">
-        <v>31768</v>
+        <v>33745</v>
       </c>
       <c r="G158" s="9">
-        <v>33745</v>
+        <v>41081</v>
       </c>
       <c r="H158" s="9">
-        <v>41081</v>
+        <v>34681</v>
       </c>
       <c r="I158" s="9">
-        <v>34681</v>
+        <v>37536</v>
       </c>
       <c r="J158" s="9">
-        <v>37536</v>
+        <v>36500</v>
       </c>
       <c r="K158" s="9">
         <v>36500</v>
       </c>
       <c r="L158" s="9">
-        <v>36500</v>
+        <v>33500</v>
       </c>
       <c r="M158" s="9">
-        <v>33500</v>
+        <v>33488</v>
       </c>
       <c r="N158" s="9">
-        <v>33488</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33636</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>37</v>
       </c>
@@ -5703,37 +5703,37 @@
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="11">
-        <v>1294855</v>
+        <v>1672131</v>
       </c>
       <c r="F159" s="11">
-        <v>1672131</v>
+        <v>3602348</v>
       </c>
       <c r="G159" s="11">
-        <v>3602348</v>
+        <v>3849821</v>
       </c>
       <c r="H159" s="11">
-        <v>3849821</v>
+        <v>3999977</v>
       </c>
       <c r="I159" s="11">
-        <v>3999977</v>
+        <v>3999955</v>
       </c>
       <c r="J159" s="11">
-        <v>3999955</v>
-      </c>
-      <c r="K159" s="11">
         <v>3907035</v>
       </c>
-      <c r="L159" s="11" t="s">
+      <c r="K159" s="11" t="s">
         <v>51</v>
       </c>
+      <c r="L159" s="11">
+        <v>6600069</v>
+      </c>
       <c r="M159" s="11">
-        <v>6600069</v>
+        <v>6599994</v>
       </c>
       <c r="N159" s="11">
-        <v>6599994</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6480972</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>38</v>
       </c>
@@ -5741,38 +5741,38 @@
         <v>48</v>
       </c>
       <c r="D160" s="9"/>
-      <c r="E160" s="9" t="s">
-        <v>51</v>
+      <c r="E160" s="9">
+        <v>484868</v>
       </c>
       <c r="F160" s="9">
-        <v>484868</v>
+        <v>514519</v>
       </c>
       <c r="G160" s="9">
-        <v>514519</v>
+        <v>545891</v>
       </c>
       <c r="H160" s="9">
-        <v>545891</v>
+        <v>680821</v>
       </c>
       <c r="I160" s="9">
-        <v>680821</v>
+        <v>849987</v>
       </c>
       <c r="J160" s="9">
-        <v>849987</v>
+        <v>872781</v>
       </c>
       <c r="K160" s="9">
-        <v>872781</v>
+        <v>880023</v>
       </c>
       <c r="L160" s="9">
-        <v>880023</v>
+        <v>1592214</v>
       </c>
       <c r="M160" s="9">
-        <v>1592214</v>
+        <v>1467069</v>
       </c>
       <c r="N160" s="9">
-        <v>1467069</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1613832</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5787,7 +5787,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5802,7 +5802,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5817,7 +5817,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B164" s="7" t="s">
         <v>52</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5869,7 +5869,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>29</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>31</v>
       </c>
@@ -5917,37 +5917,37 @@
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="11">
-        <v>63524</v>
+        <v>175953</v>
       </c>
       <c r="F167" s="11">
-        <v>175953</v>
+        <v>74799</v>
       </c>
       <c r="G167" s="11">
-        <v>74799</v>
+        <v>127804</v>
       </c>
       <c r="H167" s="11">
-        <v>127804</v>
+        <v>243168</v>
       </c>
       <c r="I167" s="11">
-        <v>243168</v>
+        <v>275154</v>
       </c>
       <c r="J167" s="11">
-        <v>275154</v>
+        <v>282650</v>
       </c>
       <c r="K167" s="11">
-        <v>282650</v>
+        <v>283765</v>
       </c>
       <c r="L167" s="11">
-        <v>283765</v>
+        <v>352378</v>
       </c>
       <c r="M167" s="11">
-        <v>352378</v>
+        <v>364361</v>
       </c>
       <c r="N167" s="11">
-        <v>364361</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>856573</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>32</v>
       </c>
@@ -5956,37 +5956,37 @@
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9">
-        <v>567218</v>
+        <v>567060</v>
       </c>
       <c r="F168" s="9">
-        <v>567060</v>
+        <v>567359</v>
       </c>
       <c r="G168" s="9">
-        <v>567359</v>
+        <v>566796</v>
       </c>
       <c r="H168" s="9">
-        <v>566796</v>
-      </c>
-      <c r="I168" s="9">
         <v>569767</v>
       </c>
-      <c r="J168" s="9" t="s">
+      <c r="I168" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K168" s="9">
+      <c r="J168" s="9">
         <v>567823</v>
       </c>
-      <c r="L168" s="9" t="s">
+      <c r="K168" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="L168" s="9">
+        <v>567235</v>
+      </c>
       <c r="M168" s="9">
-        <v>567235</v>
+        <v>567121</v>
       </c>
       <c r="N168" s="9">
-        <v>567121</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+        <v>692527</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>33</v>
       </c>
@@ -5995,37 +5995,37 @@
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11">
-        <v>198480</v>
+        <v>286641</v>
       </c>
       <c r="F169" s="11">
-        <v>286641</v>
+        <v>344922</v>
       </c>
       <c r="G169" s="11">
-        <v>344922</v>
+        <v>355149</v>
       </c>
       <c r="H169" s="11">
-        <v>355149</v>
+        <v>372631</v>
       </c>
       <c r="I169" s="11">
-        <v>372631</v>
+        <v>389617</v>
       </c>
       <c r="J169" s="11">
-        <v>389617</v>
+        <v>502058</v>
       </c>
       <c r="K169" s="11">
-        <v>502058</v>
+        <v>850741</v>
       </c>
       <c r="L169" s="11">
-        <v>850741</v>
+        <v>891466</v>
       </c>
       <c r="M169" s="11">
-        <v>891466</v>
+        <v>893948</v>
       </c>
       <c r="N169" s="11">
-        <v>893948</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>932583</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>34</v>
       </c>
@@ -6034,37 +6034,37 @@
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9">
-        <v>44994</v>
+        <v>45597</v>
       </c>
       <c r="F170" s="9">
-        <v>45597</v>
+        <v>45601</v>
       </c>
       <c r="G170" s="9">
-        <v>45601</v>
+        <v>45660</v>
       </c>
       <c r="H170" s="9">
-        <v>45660</v>
-      </c>
-      <c r="I170" s="9">
         <v>47458</v>
       </c>
-      <c r="J170" s="9" t="s">
+      <c r="I170" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K170" s="9">
+      <c r="J170" s="9">
         <v>63637</v>
+      </c>
+      <c r="K170" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="L170" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M170" s="9" t="s">
-        <v>51</v>
+      <c r="M170" s="9">
+        <v>284553</v>
       </c>
       <c r="N170" s="9">
-        <v>284553</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+        <v>474359</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>35</v>
       </c>
@@ -6073,37 +6073,37 @@
       </c>
       <c r="D171" s="11"/>
       <c r="E171" s="11">
-        <v>16349</v>
+        <v>25624</v>
       </c>
       <c r="F171" s="11">
-        <v>25624</v>
+        <v>63091</v>
       </c>
       <c r="G171" s="11">
-        <v>63091</v>
+        <v>16573</v>
       </c>
       <c r="H171" s="11">
-        <v>16573</v>
+        <v>53353</v>
       </c>
       <c r="I171" s="11">
-        <v>53353</v>
+        <v>36722</v>
       </c>
       <c r="J171" s="11">
-        <v>36722</v>
+        <v>4618</v>
       </c>
       <c r="K171" s="11">
-        <v>4618</v>
+        <v>36386</v>
       </c>
       <c r="L171" s="11">
-        <v>36386</v>
+        <v>36232</v>
       </c>
       <c r="M171" s="11">
-        <v>36232</v>
+        <v>35801</v>
       </c>
       <c r="N171" s="11">
-        <v>35801</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35288</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>37</v>
       </c>
@@ -6112,37 +6112,37 @@
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9">
-        <v>1172143</v>
+        <v>1265769</v>
       </c>
       <c r="F172" s="9">
-        <v>1265769</v>
+        <v>2134648</v>
       </c>
       <c r="G172" s="9">
-        <v>2134648</v>
+        <v>2901963</v>
       </c>
       <c r="H172" s="9">
-        <v>2901963</v>
+        <v>3737030</v>
       </c>
       <c r="I172" s="9">
-        <v>3737030</v>
+        <v>3886267</v>
       </c>
       <c r="J172" s="9">
-        <v>3886267</v>
+        <v>3903539</v>
       </c>
       <c r="K172" s="9">
-        <v>3903539</v>
+        <v>3903538</v>
       </c>
       <c r="L172" s="9">
-        <v>3903538</v>
+        <v>4750659</v>
       </c>
       <c r="M172" s="9">
-        <v>4750659</v>
+        <v>5908762</v>
       </c>
       <c r="N172" s="9">
-        <v>5908762</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6163675</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>38</v>
       </c>
@@ -6153,35 +6153,35 @@
       <c r="E173" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F173" s="11" t="s">
-        <v>51</v>
+      <c r="F173" s="11">
+        <v>468441</v>
       </c>
       <c r="G173" s="11">
-        <v>468441</v>
+        <v>515010</v>
       </c>
       <c r="H173" s="11">
-        <v>515010</v>
+        <v>406944</v>
       </c>
       <c r="I173" s="11">
-        <v>406944</v>
+        <v>848846</v>
       </c>
       <c r="J173" s="11">
-        <v>848846</v>
+        <v>863556</v>
       </c>
       <c r="K173" s="11">
-        <v>863556</v>
+        <v>875070</v>
       </c>
       <c r="L173" s="11">
-        <v>875070</v>
+        <v>1409132</v>
       </c>
       <c r="M173" s="11">
-        <v>1409132</v>
+        <v>1467626</v>
       </c>
       <c r="N173" s="11">
-        <v>1467626</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1569404</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -6196,7 +6196,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -6211,7 +6211,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6226,7 +6226,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>53</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6278,7 +6278,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>29</v>
       </c>
@@ -6292,8 +6292,8 @@
       <c r="F179" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G179" s="9" t="s">
-        <v>51</v>
+      <c r="G179" s="9">
+        <v>385027</v>
       </c>
       <c r="H179" s="9">
         <v>385027</v>
@@ -6317,7 +6317,7 @@
         <v>385027</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>31</v>
       </c>
@@ -6331,32 +6331,32 @@
       <c r="F180" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G180" s="11" t="s">
-        <v>51</v>
+      <c r="G180" s="11">
+        <v>131511</v>
       </c>
       <c r="H180" s="11">
-        <v>131511</v>
+        <v>258986</v>
       </c>
       <c r="I180" s="11">
-        <v>258986</v>
+        <v>279470</v>
       </c>
       <c r="J180" s="11">
-        <v>279470</v>
+        <v>283236</v>
       </c>
       <c r="K180" s="11">
-        <v>283236</v>
+        <v>283911</v>
       </c>
       <c r="L180" s="11">
-        <v>283911</v>
+        <v>348717</v>
       </c>
       <c r="M180" s="11">
-        <v>348717</v>
+        <v>1194840</v>
       </c>
       <c r="N180" s="11">
-        <v>1194840</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+        <v>380913</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>32</v>
       </c>
@@ -6370,32 +6370,32 @@
       <c r="F181" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G181" s="9" t="s">
-        <v>51</v>
+      <c r="G181" s="9">
+        <v>567151</v>
       </c>
       <c r="H181" s="9">
-        <v>567151</v>
+        <v>567147</v>
       </c>
       <c r="I181" s="9">
         <v>567147</v>
       </c>
       <c r="J181" s="9">
-        <v>567147</v>
+        <v>567123</v>
       </c>
       <c r="K181" s="9">
         <v>567123</v>
       </c>
       <c r="L181" s="9">
-        <v>567123</v>
+        <v>567125</v>
       </c>
       <c r="M181" s="9">
-        <v>567125</v>
+        <v>567129</v>
       </c>
       <c r="N181" s="9">
-        <v>567129</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>883721</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>33</v>
       </c>
@@ -6409,32 +6409,32 @@
       <c r="F182" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G182" s="11" t="s">
-        <v>51</v>
+      <c r="G182" s="11">
+        <v>357902</v>
       </c>
       <c r="H182" s="11">
-        <v>357902</v>
+        <v>378004</v>
       </c>
       <c r="I182" s="11">
-        <v>378004</v>
+        <v>391077</v>
       </c>
       <c r="J182" s="11">
-        <v>391077</v>
+        <v>734010</v>
       </c>
       <c r="K182" s="11">
-        <v>734010</v>
+        <v>884878</v>
       </c>
       <c r="L182" s="11">
-        <v>884878</v>
+        <v>893115</v>
       </c>
       <c r="M182" s="11">
-        <v>893115</v>
+        <v>894793</v>
       </c>
       <c r="N182" s="11">
-        <v>894793</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>985955</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>34</v>
       </c>
@@ -6448,32 +6448,32 @@
       <c r="F183" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G183" s="9" t="s">
-        <v>51</v>
+      <c r="G183" s="9">
+        <v>45580</v>
       </c>
       <c r="H183" s="9">
-        <v>45580</v>
+        <v>63613</v>
       </c>
       <c r="I183" s="9">
         <v>63613</v>
       </c>
       <c r="J183" s="9">
-        <v>63613</v>
+        <v>71965</v>
       </c>
       <c r="K183" s="9">
         <v>71965</v>
       </c>
       <c r="L183" s="9">
-        <v>71965</v>
+        <v>72041</v>
       </c>
       <c r="M183" s="9">
-        <v>72041</v>
+        <v>293617</v>
       </c>
       <c r="N183" s="9">
-        <v>293617</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+        <v>456863</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>35</v>
       </c>
@@ -6487,32 +6487,32 @@
       <c r="F184" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G184" s="11" t="s">
-        <v>51</v>
+      <c r="G184" s="11">
+        <v>50589</v>
       </c>
       <c r="H184" s="11">
-        <v>50589</v>
+        <v>34890</v>
       </c>
       <c r="I184" s="11">
-        <v>34890</v>
+        <v>37062</v>
       </c>
       <c r="J184" s="11">
-        <v>37062</v>
+        <v>44320</v>
       </c>
       <c r="K184" s="11">
-        <v>44320</v>
+        <v>46265</v>
       </c>
       <c r="L184" s="11">
-        <v>46265</v>
+        <v>36103</v>
       </c>
       <c r="M184" s="11">
-        <v>36103</v>
+        <v>35340</v>
       </c>
       <c r="N184" s="11">
-        <v>35340</v>
-      </c>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35284</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>37</v>
       </c>
@@ -6526,32 +6526,32 @@
       <c r="F185" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G185" s="9" t="s">
-        <v>51</v>
+      <c r="G185" s="9">
+        <v>3379482</v>
       </c>
       <c r="H185" s="9">
-        <v>3379482</v>
+        <v>3813739</v>
       </c>
       <c r="I185" s="9">
-        <v>3813739</v>
+        <v>3903493</v>
       </c>
       <c r="J185" s="9">
-        <v>3903493</v>
+        <v>3903528</v>
       </c>
       <c r="K185" s="9">
-        <v>3903528</v>
+        <v>3903521</v>
       </c>
       <c r="L185" s="9">
-        <v>3903521</v>
+        <v>5307765</v>
       </c>
       <c r="M185" s="9">
-        <v>5307765</v>
+        <v>6019860</v>
       </c>
       <c r="N185" s="9">
-        <v>6019860</v>
-      </c>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6217706</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>38</v>
       </c>
@@ -6565,32 +6565,32 @@
       <c r="F186" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G186" s="11" t="s">
-        <v>51</v>
+      <c r="G186" s="11">
+        <v>612665</v>
       </c>
       <c r="H186" s="11">
-        <v>612665</v>
+        <v>805369</v>
       </c>
       <c r="I186" s="11">
-        <v>805369</v>
+        <v>849252</v>
       </c>
       <c r="J186" s="11">
-        <v>849252</v>
+        <v>874017</v>
       </c>
       <c r="K186" s="11">
-        <v>874017</v>
+        <v>874560</v>
       </c>
       <c r="L186" s="11">
-        <v>874560</v>
+        <v>1444444</v>
       </c>
       <c r="M186" s="11">
-        <v>1444444</v>
+        <v>1466645</v>
       </c>
       <c r="N186" s="11">
-        <v>1466645</v>
-      </c>
-    </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1612035</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6605,7 +6605,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -6620,7 +6620,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -6635,7 +6635,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B190" s="7" t="s">
         <v>54</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -6687,44 +6687,44 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9">
-        <v>7764</v>
+        <v>6812</v>
       </c>
       <c r="F192" s="9">
-        <v>6812</v>
+        <v>15229</v>
       </c>
       <c r="G192" s="9">
-        <v>15229</v>
+        <v>8595</v>
       </c>
       <c r="H192" s="9">
-        <v>8595</v>
+        <v>12929</v>
       </c>
       <c r="I192" s="9">
-        <v>12929</v>
+        <v>-1627</v>
       </c>
       <c r="J192" s="9">
-        <v>-1627</v>
+        <v>14465</v>
       </c>
       <c r="K192" s="9">
-        <v>14465</v>
+        <v>12325</v>
       </c>
       <c r="L192" s="9">
-        <v>12325</v>
+        <v>9292</v>
       </c>
       <c r="M192" s="9">
-        <v>9292</v>
+        <v>-21617</v>
       </c>
       <c r="N192" s="9">
-        <v>-21617</v>
-      </c>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+        <v>54360</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>56</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>57</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>58</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>59</v>
       </c>
@@ -6866,124 +6866,124 @@
         <v>0</v>
       </c>
       <c r="M196" s="9">
-        <v>0</v>
+        <v>252897</v>
       </c>
       <c r="N196" s="9">
-        <v>252897</v>
-      </c>
-    </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-252897</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11">
-        <v>145859</v>
+        <v>82974</v>
       </c>
       <c r="F197" s="11">
-        <v>82974</v>
+        <v>180265</v>
       </c>
       <c r="G197" s="11">
-        <v>180265</v>
+        <v>217806</v>
       </c>
       <c r="H197" s="11">
-        <v>217806</v>
+        <v>240475</v>
       </c>
       <c r="I197" s="11">
-        <v>240475</v>
+        <v>444099</v>
       </c>
       <c r="J197" s="11">
-        <v>444099</v>
+        <v>470491</v>
       </c>
       <c r="K197" s="11">
-        <v>470491</v>
+        <v>444162</v>
       </c>
       <c r="L197" s="11">
-        <v>444162</v>
+        <v>437770</v>
       </c>
       <c r="M197" s="11">
-        <v>437770</v>
+        <v>758652</v>
       </c>
       <c r="N197" s="11">
-        <v>758652</v>
-      </c>
-    </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+        <v>48291</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9">
-        <v>65099</v>
+        <v>136353</v>
       </c>
       <c r="F198" s="9">
-        <v>136353</v>
+        <v>-21428</v>
       </c>
       <c r="G198" s="9">
-        <v>-21428</v>
+        <v>101425</v>
       </c>
       <c r="H198" s="9">
-        <v>101425</v>
+        <v>-59636</v>
       </c>
       <c r="I198" s="9">
-        <v>-59636</v>
+        <v>26952</v>
       </c>
       <c r="J198" s="9">
-        <v>26952</v>
+        <v>22163</v>
       </c>
       <c r="K198" s="9">
-        <v>22163</v>
+        <v>26694</v>
       </c>
       <c r="L198" s="9">
-        <v>26694</v>
+        <v>27050</v>
       </c>
       <c r="M198" s="9">
-        <v>27050</v>
+        <v>26945</v>
       </c>
       <c r="N198" s="9">
-        <v>26945</v>
-      </c>
-    </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18468</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11">
-        <v>92348</v>
+        <v>142515</v>
       </c>
       <c r="F199" s="11">
-        <v>142515</v>
+        <v>66060</v>
       </c>
       <c r="G199" s="11">
-        <v>66060</v>
+        <v>136281</v>
       </c>
       <c r="H199" s="11">
-        <v>136281</v>
+        <v>153234</v>
       </c>
       <c r="I199" s="11">
-        <v>153234</v>
+        <v>85870</v>
       </c>
       <c r="J199" s="11">
-        <v>85870</v>
+        <v>150718</v>
       </c>
       <c r="K199" s="11">
-        <v>150718</v>
+        <v>252011</v>
       </c>
       <c r="L199" s="11">
-        <v>252011</v>
+        <v>229871</v>
       </c>
       <c r="M199" s="11">
-        <v>229871</v>
+        <v>627470</v>
       </c>
       <c r="N199" s="11">
-        <v>627470</v>
-      </c>
-    </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+        <v>273570</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="8" t="s">
         <v>63</v>
       </c>
@@ -7020,81 +7020,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11">
-        <v>404612</v>
+        <v>296908</v>
       </c>
       <c r="F201" s="11">
-        <v>296908</v>
+        <v>569347</v>
       </c>
       <c r="G201" s="11">
-        <v>569347</v>
+        <v>302049</v>
       </c>
       <c r="H201" s="11">
-        <v>302049</v>
+        <v>681583</v>
       </c>
       <c r="I201" s="11">
-        <v>681583</v>
+        <v>558996</v>
       </c>
       <c r="J201" s="11">
-        <v>558996</v>
+        <v>954298</v>
       </c>
       <c r="K201" s="11">
-        <v>954298</v>
+        <v>634354</v>
       </c>
       <c r="L201" s="11">
-        <v>634354</v>
+        <v>819957</v>
       </c>
       <c r="M201" s="11">
-        <v>819957</v>
+        <v>549322</v>
       </c>
       <c r="N201" s="11">
-        <v>549322</v>
-      </c>
-    </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1166214</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15">
-        <v>715682</v>
+        <v>665562</v>
       </c>
       <c r="F202" s="15">
-        <v>665562</v>
+        <v>809473</v>
       </c>
       <c r="G202" s="15">
-        <v>809473</v>
+        <v>766156</v>
       </c>
       <c r="H202" s="15">
-        <v>766156</v>
+        <v>1028585</v>
       </c>
       <c r="I202" s="15">
-        <v>1028585</v>
+        <v>1114290</v>
       </c>
       <c r="J202" s="15">
-        <v>1114290</v>
+        <v>1612135</v>
       </c>
       <c r="K202" s="15">
-        <v>1612135</v>
+        <v>1369546</v>
       </c>
       <c r="L202" s="15">
-        <v>1369546</v>
+        <v>1523940</v>
       </c>
       <c r="M202" s="15">
-        <v>1523940</v>
+        <v>2193669</v>
       </c>
       <c r="N202" s="15">
-        <v>2193669</v>
-      </c>
-    </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1308006</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -7109,7 +7109,7 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -7124,7 +7124,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -7139,7 +7139,7 @@
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B206" s="7" t="s">
         <v>65</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -7171,7 +7171,7 @@
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="8" t="s">
         <v>66</v>
       </c>
@@ -7190,7 +7190,7 @@
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="10" t="s">
         <v>68</v>
       </c>
@@ -7201,7 +7201,7 @@
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="8" t="s">
         <v>70</v>
       </c>
@@ -7212,7 +7212,7 @@
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="10" t="s">
         <v>71</v>
       </c>
@@ -7223,7 +7223,7 @@
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="8" t="s">
         <v>73</v>
       </c>
@@ -7234,7 +7234,7 @@
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="10" t="s">
         <v>75</v>
       </c>
@@ -7245,7 +7245,7 @@
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="8" t="s">
         <v>77</v>
       </c>
@@ -7256,7 +7256,7 @@
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="10" t="s">
         <v>79</v>
       </c>
@@ -7267,7 +7267,7 @@
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="8" t="s">
         <v>81</v>
       </c>
@@ -7278,7 +7278,7 @@
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" s="10" t="s">
         <v>83</v>
       </c>
@@ -7289,7 +7289,7 @@
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="8" t="s">
         <v>85</v>
       </c>
@@ -7300,7 +7300,7 @@
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="10" t="s">
         <v>79</v>
       </c>
